--- a/templates/upload_ecotrack_v31.xlsx
+++ b/templates/upload_ecotrack_v31.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/GitHub/ecotrack/public/models/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B429CC9-55EF-6547-BB3C-E3EB4E2DF692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,9 +14,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -94,28 +91,186 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,8 +283,194 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -152,34 +493,323 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -377,112 +1007,98 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:R1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.1666666666667" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" customWidth="1"/>
+    <col min="1" max="1" width="21.8333333333333" customWidth="1"/>
+    <col min="2" max="2" width="28.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="18.1666666666667" customWidth="1"/>
+    <col min="4" max="4" width="18.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="21.1666666666667" customWidth="1"/>
     <col min="6" max="6" width="22.5" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" customWidth="1"/>
-    <col min="8" max="8" width="26.6640625" customWidth="1"/>
-    <col min="9" max="9" width="24.33203125" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" customWidth="1"/>
-    <col min="11" max="11" width="20.6640625" customWidth="1"/>
-    <col min="12" max="12" width="24.33203125" customWidth="1"/>
-    <col min="13" max="13" width="31.83203125" customWidth="1"/>
-    <col min="14" max="14" width="40.83203125" customWidth="1"/>
-    <col min="15" max="15" width="34.1640625" customWidth="1"/>
-    <col min="16" max="16" width="40.83203125" customWidth="1"/>
+    <col min="7" max="7" width="22.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="26.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="24.3333333333333" customWidth="1"/>
+    <col min="10" max="10" width="21.6666666666667" customWidth="1"/>
+    <col min="11" max="11" width="20.6666666666667" customWidth="1"/>
+    <col min="12" max="12" width="24.3333333333333" customWidth="1"/>
+    <col min="13" max="13" width="31.8333333333333" customWidth="1"/>
+    <col min="14" max="14" width="40.8333333333333" customWidth="1"/>
+    <col min="15" max="15" width="34.1666666666667" customWidth="1"/>
+    <col min="16" max="16" width="40.8333333333333" customWidth="1"/>
     <col min="17" max="17" width="33" customWidth="1"/>
     <col min="18" max="25" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="41.25" customHeight="1" spans="1:18">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" s="1" customFormat="1"/>
+    <row r="3" ht="15.75" customHeight="1" spans="1:16">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -497,7 +1113,7 @@
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
     </row>
-    <row r="4" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" ht="15.75" customHeight="1" spans="1:16">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -512,7 +1128,7 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" ht="15.75" customHeight="1" spans="1:16">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -527,7 +1143,7 @@
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
     </row>
-    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" ht="15.75" customHeight="1" spans="1:16">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -542,7 +1158,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
     </row>
-    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" ht="15.75" customHeight="1" spans="1:16">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -557,7 +1173,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
     </row>
-    <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" ht="15.75" customHeight="1" spans="1:16">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -572,7 +1188,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
     </row>
-    <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" ht="15.75" customHeight="1" spans="1:16">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -587,7 +1203,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
     </row>
-    <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" ht="15.75" customHeight="1" spans="1:16">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -602,7 +1218,7 @@
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
     </row>
-    <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" ht="15.75" customHeight="1" spans="1:16">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -617,7 +1233,7 @@
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
     </row>
-    <row r="12" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" ht="15.75" customHeight="1" spans="1:16">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -632,7 +1248,7 @@
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
     </row>
-    <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" ht="15.75" customHeight="1" spans="1:16">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -647,7 +1263,7 @@
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
     </row>
-    <row r="14" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" ht="15.75" customHeight="1" spans="1:16">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -662,7 +1278,7 @@
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
     </row>
-    <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" ht="15.75" customHeight="1" spans="1:16">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -677,7 +1293,7 @@
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
     </row>
-    <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" ht="15.75" customHeight="1" spans="1:16">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -692,7 +1308,7 @@
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" ht="15.75" customHeight="1" spans="1:16">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -707,7 +1323,7 @@
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" ht="15.75" customHeight="1" spans="1:16">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -722,7 +1338,7 @@
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" ht="15.75" customHeight="1" spans="1:16">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -737,7 +1353,7 @@
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" ht="15.75" customHeight="1" spans="1:16">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -752,7 +1368,7 @@
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" ht="15.75" customHeight="1" spans="1:16">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -767,7 +1383,7 @@
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" ht="15.75" customHeight="1" spans="1:16">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -782,7 +1398,7 @@
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" ht="15.75" customHeight="1" spans="1:16">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -797,7 +1413,7 @@
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" ht="15.75" customHeight="1" spans="1:16">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -812,7 +1428,7 @@
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" ht="15.75" customHeight="1" spans="1:16">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -827,7 +1443,7 @@
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
     </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" ht="15.75" customHeight="1" spans="1:16">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -842,7 +1458,7 @@
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" ht="15.75" customHeight="1" spans="1:16">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -857,7 +1473,7 @@
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" ht="15.75" customHeight="1" spans="1:16">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -872,7 +1488,7 @@
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" ht="15.75" customHeight="1" spans="1:16">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -887,7 +1503,7 @@
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" ht="15.75" customHeight="1" spans="1:16">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -902,7 +1518,7 @@
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" ht="15.75" customHeight="1" spans="1:16">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -917,7 +1533,7 @@
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" ht="15.75" customHeight="1" spans="1:16">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -932,7 +1548,7 @@
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
     </row>
-    <row r="33" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" ht="15.75" customHeight="1" spans="1:16">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -947,7 +1563,7 @@
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
     </row>
-    <row r="34" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" ht="15.75" customHeight="1" spans="1:16">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -962,7 +1578,7 @@
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
     </row>
-    <row r="35" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" ht="15.75" customHeight="1" spans="1:16">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -977,7 +1593,7 @@
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
     </row>
-    <row r="36" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" ht="15.75" customHeight="1" spans="1:16">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -992,7 +1608,7 @@
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
     </row>
-    <row r="37" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" ht="15.75" customHeight="1" spans="1:16">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1007,7 +1623,7 @@
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
     </row>
-    <row r="38" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" ht="15.75" customHeight="1" spans="1:16">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1022,7 +1638,7 @@
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
     </row>
-    <row r="39" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" ht="15.75" customHeight="1" spans="1:16">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1037,7 +1653,7 @@
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
     </row>
-    <row r="40" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" ht="15.75" customHeight="1" spans="1:16">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1052,7 +1668,7 @@
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
     </row>
-    <row r="41" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" ht="15.75" customHeight="1" spans="1:16">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -1067,7 +1683,7 @@
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
     </row>
-    <row r="42" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" ht="15.75" customHeight="1" spans="1:16">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1082,7 +1698,7 @@
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
     </row>
-    <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" ht="15.75" customHeight="1" spans="1:16">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -1097,7 +1713,7 @@
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
     </row>
-    <row r="44" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" ht="15.75" customHeight="1" spans="1:16">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -1112,7 +1728,7 @@
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
     </row>
-    <row r="45" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" ht="15.75" customHeight="1" spans="1:16">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -1127,7 +1743,7 @@
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
     </row>
-    <row r="46" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" ht="15.75" customHeight="1" spans="1:16">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -1142,7 +1758,7 @@
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
     </row>
-    <row r="47" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" ht="15.75" customHeight="1" spans="1:16">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -1157,7 +1773,7 @@
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
     </row>
-    <row r="48" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" ht="15.75" customHeight="1" spans="1:16">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -1172,7 +1788,7 @@
       <c r="O48" s="4"/>
       <c r="P48" s="4"/>
     </row>
-    <row r="49" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" ht="15.75" customHeight="1" spans="1:16">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -1187,7 +1803,7 @@
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
     </row>
-    <row r="50" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" ht="15.75" customHeight="1" spans="1:16">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -1202,7 +1818,7 @@
       <c r="O50" s="4"/>
       <c r="P50" s="4"/>
     </row>
-    <row r="51" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" ht="15.75" customHeight="1" spans="1:16">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -1217,7 +1833,7 @@
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
     </row>
-    <row r="52" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" ht="15.75" customHeight="1" spans="1:16">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -1232,7 +1848,7 @@
       <c r="O52" s="4"/>
       <c r="P52" s="4"/>
     </row>
-    <row r="53" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" ht="15.75" customHeight="1" spans="1:16">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -1247,7 +1863,7 @@
       <c r="O53" s="4"/>
       <c r="P53" s="4"/>
     </row>
-    <row r="54" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" ht="15.75" customHeight="1" spans="1:16">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -1262,7 +1878,7 @@
       <c r="O54" s="4"/>
       <c r="P54" s="4"/>
     </row>
-    <row r="55" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" ht="15.75" customHeight="1" spans="1:16">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -1277,7 +1893,7 @@
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
     </row>
-    <row r="56" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" ht="15.75" customHeight="1" spans="1:16">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -1292,7 +1908,7 @@
       <c r="O56" s="4"/>
       <c r="P56" s="4"/>
     </row>
-    <row r="57" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" ht="15.75" customHeight="1" spans="1:16">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -1307,7 +1923,7 @@
       <c r="O57" s="4"/>
       <c r="P57" s="4"/>
     </row>
-    <row r="58" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" ht="15.75" customHeight="1" spans="1:16">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -1322,7 +1938,7 @@
       <c r="O58" s="4"/>
       <c r="P58" s="4"/>
     </row>
-    <row r="59" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" ht="15.75" customHeight="1" spans="1:16">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -1337,7 +1953,7 @@
       <c r="O59" s="4"/>
       <c r="P59" s="4"/>
     </row>
-    <row r="60" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" ht="15.75" customHeight="1" spans="1:16">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -1352,7 +1968,7 @@
       <c r="O60" s="4"/>
       <c r="P60" s="4"/>
     </row>
-    <row r="61" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" ht="15.75" customHeight="1" spans="1:16">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -1367,7 +1983,7 @@
       <c r="O61" s="4"/>
       <c r="P61" s="4"/>
     </row>
-    <row r="62" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" ht="15.75" customHeight="1" spans="1:16">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -1382,7 +1998,7 @@
       <c r="O62" s="4"/>
       <c r="P62" s="4"/>
     </row>
-    <row r="63" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" ht="15.75" customHeight="1" spans="1:16">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -1397,7 +2013,7 @@
       <c r="O63" s="4"/>
       <c r="P63" s="4"/>
     </row>
-    <row r="64" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" ht="15.75" customHeight="1" spans="1:16">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -1412,7 +2028,7 @@
       <c r="O64" s="4"/>
       <c r="P64" s="4"/>
     </row>
-    <row r="65" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" ht="15.75" customHeight="1" spans="1:16">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -1427,7 +2043,7 @@
       <c r="O65" s="4"/>
       <c r="P65" s="4"/>
     </row>
-    <row r="66" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" ht="15.75" customHeight="1" spans="1:16">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -1442,7 +2058,7 @@
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
     </row>
-    <row r="67" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" ht="15.75" customHeight="1" spans="1:16">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -1457,7 +2073,7 @@
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
     </row>
-    <row r="68" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" ht="15.75" customHeight="1" spans="1:16">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -1472,7 +2088,7 @@
       <c r="O68" s="4"/>
       <c r="P68" s="4"/>
     </row>
-    <row r="69" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" ht="15.75" customHeight="1" spans="1:16">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -1487,7 +2103,7 @@
       <c r="O69" s="4"/>
       <c r="P69" s="4"/>
     </row>
-    <row r="70" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" ht="15.75" customHeight="1" spans="1:16">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -1502,7 +2118,7 @@
       <c r="O70" s="4"/>
       <c r="P70" s="4"/>
     </row>
-    <row r="71" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" ht="15.75" customHeight="1" spans="1:16">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -1517,7 +2133,7 @@
       <c r="O71" s="4"/>
       <c r="P71" s="4"/>
     </row>
-    <row r="72" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" ht="15.75" customHeight="1" spans="1:16">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -1532,7 +2148,7 @@
       <c r="O72" s="4"/>
       <c r="P72" s="4"/>
     </row>
-    <row r="73" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" ht="15.75" customHeight="1" spans="1:16">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -1547,7 +2163,7 @@
       <c r="O73" s="4"/>
       <c r="P73" s="4"/>
     </row>
-    <row r="74" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" ht="15.75" customHeight="1" spans="1:16">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -1562,7 +2178,7 @@
       <c r="O74" s="4"/>
       <c r="P74" s="4"/>
     </row>
-    <row r="75" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" ht="15.75" customHeight="1" spans="1:16">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -1577,7 +2193,7 @@
       <c r="O75" s="4"/>
       <c r="P75" s="4"/>
     </row>
-    <row r="76" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" ht="15.75" customHeight="1" spans="1:16">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -1592,7 +2208,7 @@
       <c r="O76" s="4"/>
       <c r="P76" s="4"/>
     </row>
-    <row r="77" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" ht="15.75" customHeight="1" spans="1:16">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -1607,7 +2223,7 @@
       <c r="O77" s="4"/>
       <c r="P77" s="4"/>
     </row>
-    <row r="78" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" ht="15.75" customHeight="1" spans="1:16">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -1622,7 +2238,7 @@
       <c r="O78" s="4"/>
       <c r="P78" s="4"/>
     </row>
-    <row r="79" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" ht="15.75" customHeight="1" spans="1:16">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -1637,7 +2253,7 @@
       <c r="O79" s="4"/>
       <c r="P79" s="4"/>
     </row>
-    <row r="80" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" ht="15.75" customHeight="1" spans="1:16">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -1652,7 +2268,7 @@
       <c r="O80" s="4"/>
       <c r="P80" s="4"/>
     </row>
-    <row r="81" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" ht="15.75" customHeight="1" spans="1:16">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -1667,7 +2283,7 @@
       <c r="O81" s="4"/>
       <c r="P81" s="4"/>
     </row>
-    <row r="82" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" ht="15.75" customHeight="1" spans="1:16">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -1682,7 +2298,7 @@
       <c r="O82" s="4"/>
       <c r="P82" s="4"/>
     </row>
-    <row r="83" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" ht="15.75" customHeight="1" spans="1:16">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -1697,7 +2313,7 @@
       <c r="O83" s="4"/>
       <c r="P83" s="4"/>
     </row>
-    <row r="84" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" ht="15.75" customHeight="1" spans="1:16">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -1712,7 +2328,7 @@
       <c r="O84" s="4"/>
       <c r="P84" s="4"/>
     </row>
-    <row r="85" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" ht="15.75" customHeight="1" spans="1:16">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -1727,7 +2343,7 @@
       <c r="O85" s="4"/>
       <c r="P85" s="4"/>
     </row>
-    <row r="86" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" ht="15.75" customHeight="1" spans="1:16">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -1742,7 +2358,7 @@
       <c r="O86" s="4"/>
       <c r="P86" s="4"/>
     </row>
-    <row r="87" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" ht="15.75" customHeight="1" spans="1:16">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -1757,7 +2373,7 @@
       <c r="O87" s="4"/>
       <c r="P87" s="4"/>
     </row>
-    <row r="88" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" ht="15.75" customHeight="1" spans="1:16">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -1772,7 +2388,7 @@
       <c r="O88" s="4"/>
       <c r="P88" s="4"/>
     </row>
-    <row r="89" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" ht="15.75" customHeight="1" spans="1:16">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -1787,7 +2403,7 @@
       <c r="O89" s="4"/>
       <c r="P89" s="4"/>
     </row>
-    <row r="90" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" ht="15.75" customHeight="1" spans="1:16">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -1802,7 +2418,7 @@
       <c r="O90" s="4"/>
       <c r="P90" s="4"/>
     </row>
-    <row r="91" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" ht="15.75" customHeight="1" spans="1:16">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -1817,7 +2433,7 @@
       <c r="O91" s="4"/>
       <c r="P91" s="4"/>
     </row>
-    <row r="92" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" ht="15.75" customHeight="1" spans="1:16">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -1832,7 +2448,7 @@
       <c r="O92" s="4"/>
       <c r="P92" s="4"/>
     </row>
-    <row r="93" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" ht="15.75" customHeight="1" spans="1:16">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -1847,7 +2463,7 @@
       <c r="O93" s="4"/>
       <c r="P93" s="4"/>
     </row>
-    <row r="94" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" ht="15.75" customHeight="1" spans="1:16">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -1862,7 +2478,7 @@
       <c r="O94" s="4"/>
       <c r="P94" s="4"/>
     </row>
-    <row r="95" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" ht="15.75" customHeight="1" spans="1:16">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -1877,7 +2493,7 @@
       <c r="O95" s="4"/>
       <c r="P95" s="4"/>
     </row>
-    <row r="96" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" ht="15.75" customHeight="1" spans="1:16">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -1892,7 +2508,7 @@
       <c r="O96" s="4"/>
       <c r="P96" s="4"/>
     </row>
-    <row r="97" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" ht="15.75" customHeight="1" spans="1:16">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -1907,7 +2523,7 @@
       <c r="O97" s="4"/>
       <c r="P97" s="4"/>
     </row>
-    <row r="98" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" ht="15.75" customHeight="1" spans="1:16">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -1922,7 +2538,7 @@
       <c r="O98" s="4"/>
       <c r="P98" s="4"/>
     </row>
-    <row r="99" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" ht="15.75" customHeight="1" spans="1:16">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -1937,7 +2553,7 @@
       <c r="O99" s="4"/>
       <c r="P99" s="4"/>
     </row>
-    <row r="100" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" ht="15.75" customHeight="1" spans="1:16">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -1952,7 +2568,7 @@
       <c r="O100" s="4"/>
       <c r="P100" s="4"/>
     </row>
-    <row r="101" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" ht="15.75" customHeight="1" spans="1:16">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -1967,7 +2583,7 @@
       <c r="O101" s="4"/>
       <c r="P101" s="4"/>
     </row>
-    <row r="102" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" ht="15.75" customHeight="1" spans="1:16">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -1982,7 +2598,7 @@
       <c r="O102" s="4"/>
       <c r="P102" s="4"/>
     </row>
-    <row r="103" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" ht="15.75" customHeight="1" spans="1:16">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -1997,7 +2613,7 @@
       <c r="O103" s="4"/>
       <c r="P103" s="4"/>
     </row>
-    <row r="104" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" ht="15.75" customHeight="1" spans="1:16">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -2012,7 +2628,7 @@
       <c r="O104" s="4"/>
       <c r="P104" s="4"/>
     </row>
-    <row r="105" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" ht="15.75" customHeight="1" spans="1:16">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -2027,7 +2643,7 @@
       <c r="O105" s="4"/>
       <c r="P105" s="4"/>
     </row>
-    <row r="106" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" ht="15.75" customHeight="1" spans="1:16">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -2042,7 +2658,7 @@
       <c r="O106" s="4"/>
       <c r="P106" s="4"/>
     </row>
-    <row r="107" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" ht="15.75" customHeight="1" spans="1:16">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -2057,7 +2673,7 @@
       <c r="O107" s="4"/>
       <c r="P107" s="4"/>
     </row>
-    <row r="108" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" ht="15.75" customHeight="1" spans="1:16">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -2072,7 +2688,7 @@
       <c r="O108" s="4"/>
       <c r="P108" s="4"/>
     </row>
-    <row r="109" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" ht="15.75" customHeight="1" spans="1:16">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -2087,7 +2703,7 @@
       <c r="O109" s="4"/>
       <c r="P109" s="4"/>
     </row>
-    <row r="110" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" ht="15.75" customHeight="1" spans="1:16">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -2102,7 +2718,7 @@
       <c r="O110" s="4"/>
       <c r="P110" s="4"/>
     </row>
-    <row r="111" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" ht="15.75" customHeight="1" spans="1:16">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -2117,7 +2733,7 @@
       <c r="O111" s="4"/>
       <c r="P111" s="4"/>
     </row>
-    <row r="112" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" ht="15.75" customHeight="1" spans="1:16">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -2132,7 +2748,7 @@
       <c r="O112" s="4"/>
       <c r="P112" s="4"/>
     </row>
-    <row r="113" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" ht="15.75" customHeight="1" spans="1:16">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -2147,7 +2763,7 @@
       <c r="O113" s="4"/>
       <c r="P113" s="4"/>
     </row>
-    <row r="114" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" ht="15.75" customHeight="1" spans="1:16">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -2162,7 +2778,7 @@
       <c r="O114" s="4"/>
       <c r="P114" s="4"/>
     </row>
-    <row r="115" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" ht="15.75" customHeight="1" spans="1:16">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -2177,7 +2793,7 @@
       <c r="O115" s="4"/>
       <c r="P115" s="4"/>
     </row>
-    <row r="116" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" ht="15.75" customHeight="1" spans="1:16">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -2192,7 +2808,7 @@
       <c r="O116" s="4"/>
       <c r="P116" s="4"/>
     </row>
-    <row r="117" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" ht="15.75" customHeight="1" spans="1:16">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -2207,7 +2823,7 @@
       <c r="O117" s="4"/>
       <c r="P117" s="4"/>
     </row>
-    <row r="118" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" ht="15.75" customHeight="1" spans="1:16">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -2222,7 +2838,7 @@
       <c r="O118" s="4"/>
       <c r="P118" s="4"/>
     </row>
-    <row r="119" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" ht="15.75" customHeight="1" spans="1:16">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -2237,7 +2853,7 @@
       <c r="O119" s="4"/>
       <c r="P119" s="4"/>
     </row>
-    <row r="120" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" ht="15.75" customHeight="1" spans="1:16">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -2252,7 +2868,7 @@
       <c r="O120" s="4"/>
       <c r="P120" s="4"/>
     </row>
-    <row r="121" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" ht="15.75" customHeight="1" spans="1:16">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -2267,7 +2883,7 @@
       <c r="O121" s="4"/>
       <c r="P121" s="4"/>
     </row>
-    <row r="122" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" ht="15.75" customHeight="1" spans="1:16">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -2282,7 +2898,7 @@
       <c r="O122" s="4"/>
       <c r="P122" s="4"/>
     </row>
-    <row r="123" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" ht="15.75" customHeight="1" spans="1:16">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -2297,7 +2913,7 @@
       <c r="O123" s="4"/>
       <c r="P123" s="4"/>
     </row>
-    <row r="124" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" ht="15.75" customHeight="1" spans="1:16">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -2312,7 +2928,7 @@
       <c r="O124" s="4"/>
       <c r="P124" s="4"/>
     </row>
-    <row r="125" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" ht="15.75" customHeight="1" spans="1:16">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -2327,7 +2943,7 @@
       <c r="O125" s="4"/>
       <c r="P125" s="4"/>
     </row>
-    <row r="126" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" ht="15.75" customHeight="1" spans="1:16">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -2342,7 +2958,7 @@
       <c r="O126" s="4"/>
       <c r="P126" s="4"/>
     </row>
-    <row r="127" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" ht="15.75" customHeight="1" spans="1:16">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -2357,7 +2973,7 @@
       <c r="O127" s="4"/>
       <c r="P127" s="4"/>
     </row>
-    <row r="128" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" ht="15.75" customHeight="1" spans="1:16">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -2372,7 +2988,7 @@
       <c r="O128" s="4"/>
       <c r="P128" s="4"/>
     </row>
-    <row r="129" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" ht="15.75" customHeight="1" spans="1:16">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -2387,7 +3003,7 @@
       <c r="O129" s="4"/>
       <c r="P129" s="4"/>
     </row>
-    <row r="130" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" ht="15.75" customHeight="1" spans="1:16">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -2402,7 +3018,7 @@
       <c r="O130" s="4"/>
       <c r="P130" s="4"/>
     </row>
-    <row r="131" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" ht="15.75" customHeight="1" spans="1:16">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -2417,7 +3033,7 @@
       <c r="O131" s="4"/>
       <c r="P131" s="4"/>
     </row>
-    <row r="132" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" ht="15.75" customHeight="1" spans="1:16">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -2432,7 +3048,7 @@
       <c r="O132" s="4"/>
       <c r="P132" s="4"/>
     </row>
-    <row r="133" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" ht="15.75" customHeight="1" spans="1:16">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -2447,7 +3063,7 @@
       <c r="O133" s="4"/>
       <c r="P133" s="4"/>
     </row>
-    <row r="134" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" ht="15.75" customHeight="1" spans="1:16">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -2462,7 +3078,7 @@
       <c r="O134" s="4"/>
       <c r="P134" s="4"/>
     </row>
-    <row r="135" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" ht="15.75" customHeight="1" spans="1:16">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -2477,7 +3093,7 @@
       <c r="O135" s="4"/>
       <c r="P135" s="4"/>
     </row>
-    <row r="136" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" ht="15.75" customHeight="1" spans="1:16">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -2492,7 +3108,7 @@
       <c r="O136" s="4"/>
       <c r="P136" s="4"/>
     </row>
-    <row r="137" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" ht="15.75" customHeight="1" spans="1:16">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -2507,7 +3123,7 @@
       <c r="O137" s="4"/>
       <c r="P137" s="4"/>
     </row>
-    <row r="138" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" ht="15.75" customHeight="1" spans="1:16">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -2522,7 +3138,7 @@
       <c r="O138" s="4"/>
       <c r="P138" s="4"/>
     </row>
-    <row r="139" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" ht="15.75" customHeight="1" spans="1:16">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -2537,7 +3153,7 @@
       <c r="O139" s="4"/>
       <c r="P139" s="4"/>
     </row>
-    <row r="140" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" ht="15.75" customHeight="1" spans="1:16">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -2552,7 +3168,7 @@
       <c r="O140" s="4"/>
       <c r="P140" s="4"/>
     </row>
-    <row r="141" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" ht="15.75" customHeight="1" spans="1:16">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -2567,7 +3183,7 @@
       <c r="O141" s="4"/>
       <c r="P141" s="4"/>
     </row>
-    <row r="142" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" ht="15.75" customHeight="1" spans="1:16">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -2582,7 +3198,7 @@
       <c r="O142" s="4"/>
       <c r="P142" s="4"/>
     </row>
-    <row r="143" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" ht="15.75" customHeight="1" spans="1:16">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -2597,7 +3213,7 @@
       <c r="O143" s="4"/>
       <c r="P143" s="4"/>
     </row>
-    <row r="144" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" ht="15.75" customHeight="1" spans="1:16">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -2612,7 +3228,7 @@
       <c r="O144" s="4"/>
       <c r="P144" s="4"/>
     </row>
-    <row r="145" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" ht="15.75" customHeight="1" spans="1:16">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -2627,7 +3243,7 @@
       <c r="O145" s="4"/>
       <c r="P145" s="4"/>
     </row>
-    <row r="146" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" ht="15.75" customHeight="1" spans="1:16">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -2642,7 +3258,7 @@
       <c r="O146" s="4"/>
       <c r="P146" s="4"/>
     </row>
-    <row r="147" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" ht="15.75" customHeight="1" spans="1:16">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -2657,7 +3273,7 @@
       <c r="O147" s="4"/>
       <c r="P147" s="4"/>
     </row>
-    <row r="148" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" ht="15.75" customHeight="1" spans="1:16">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -2672,7 +3288,7 @@
       <c r="O148" s="4"/>
       <c r="P148" s="4"/>
     </row>
-    <row r="149" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" ht="15.75" customHeight="1" spans="1:16">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -2687,7 +3303,7 @@
       <c r="O149" s="4"/>
       <c r="P149" s="4"/>
     </row>
-    <row r="150" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" ht="15.75" customHeight="1" spans="1:16">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -2702,7 +3318,7 @@
       <c r="O150" s="4"/>
       <c r="P150" s="4"/>
     </row>
-    <row r="151" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" ht="15.75" customHeight="1" spans="1:16">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -2717,7 +3333,7 @@
       <c r="O151" s="4"/>
       <c r="P151" s="4"/>
     </row>
-    <row r="152" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" ht="15.75" customHeight="1" spans="1:16">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -2732,7 +3348,7 @@
       <c r="O152" s="4"/>
       <c r="P152" s="4"/>
     </row>
-    <row r="153" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" ht="15.75" customHeight="1" spans="1:16">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -2747,7 +3363,7 @@
       <c r="O153" s="4"/>
       <c r="P153" s="4"/>
     </row>
-    <row r="154" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" ht="15.75" customHeight="1" spans="1:16">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -2762,7 +3378,7 @@
       <c r="O154" s="4"/>
       <c r="P154" s="4"/>
     </row>
-    <row r="155" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" ht="15.75" customHeight="1" spans="1:16">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -2777,7 +3393,7 @@
       <c r="O155" s="4"/>
       <c r="P155" s="4"/>
     </row>
-    <row r="156" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" ht="15.75" customHeight="1" spans="1:16">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -2792,7 +3408,7 @@
       <c r="O156" s="4"/>
       <c r="P156" s="4"/>
     </row>
-    <row r="157" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" ht="15.75" customHeight="1" spans="1:16">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -2807,7 +3423,7 @@
       <c r="O157" s="4"/>
       <c r="P157" s="4"/>
     </row>
-    <row r="158" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" ht="15.75" customHeight="1" spans="1:16">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -2822,7 +3438,7 @@
       <c r="O158" s="4"/>
       <c r="P158" s="4"/>
     </row>
-    <row r="159" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" ht="15.75" customHeight="1" spans="1:16">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -2837,7 +3453,7 @@
       <c r="O159" s="4"/>
       <c r="P159" s="4"/>
     </row>
-    <row r="160" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" ht="15.75" customHeight="1" spans="1:16">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -2852,7 +3468,7 @@
       <c r="O160" s="4"/>
       <c r="P160" s="4"/>
     </row>
-    <row r="161" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" ht="15.75" customHeight="1" spans="1:16">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -2867,7 +3483,7 @@
       <c r="O161" s="4"/>
       <c r="P161" s="4"/>
     </row>
-    <row r="162" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" ht="15.75" customHeight="1" spans="1:16">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -2882,7 +3498,7 @@
       <c r="O162" s="4"/>
       <c r="P162" s="4"/>
     </row>
-    <row r="163" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" ht="15.75" customHeight="1" spans="1:16">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -2897,7 +3513,7 @@
       <c r="O163" s="4"/>
       <c r="P163" s="4"/>
     </row>
-    <row r="164" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" ht="15.75" customHeight="1" spans="1:16">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -2912,7 +3528,7 @@
       <c r="O164" s="4"/>
       <c r="P164" s="4"/>
     </row>
-    <row r="165" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" ht="15.75" customHeight="1" spans="1:16">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -2927,7 +3543,7 @@
       <c r="O165" s="4"/>
       <c r="P165" s="4"/>
     </row>
-    <row r="166" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" ht="15.75" customHeight="1" spans="1:16">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -2942,7 +3558,7 @@
       <c r="O166" s="4"/>
       <c r="P166" s="4"/>
     </row>
-    <row r="167" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" ht="15.75" customHeight="1" spans="1:16">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -2957,7 +3573,7 @@
       <c r="O167" s="4"/>
       <c r="P167" s="4"/>
     </row>
-    <row r="168" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" ht="15.75" customHeight="1" spans="1:16">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -2972,7 +3588,7 @@
       <c r="O168" s="4"/>
       <c r="P168" s="4"/>
     </row>
-    <row r="169" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" ht="15.75" customHeight="1" spans="1:16">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -2987,7 +3603,7 @@
       <c r="O169" s="4"/>
       <c r="P169" s="4"/>
     </row>
-    <row r="170" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" ht="15.75" customHeight="1" spans="1:16">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -3002,7 +3618,7 @@
       <c r="O170" s="4"/>
       <c r="P170" s="4"/>
     </row>
-    <row r="171" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" ht="15.75" customHeight="1" spans="1:16">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -3017,7 +3633,7 @@
       <c r="O171" s="4"/>
       <c r="P171" s="4"/>
     </row>
-    <row r="172" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" ht="15.75" customHeight="1" spans="1:16">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -3032,7 +3648,7 @@
       <c r="O172" s="4"/>
       <c r="P172" s="4"/>
     </row>
-    <row r="173" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" ht="15.75" customHeight="1" spans="1:16">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -3047,7 +3663,7 @@
       <c r="O173" s="4"/>
       <c r="P173" s="4"/>
     </row>
-    <row r="174" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" ht="15.75" customHeight="1" spans="1:16">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -3062,7 +3678,7 @@
       <c r="O174" s="4"/>
       <c r="P174" s="4"/>
     </row>
-    <row r="175" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" ht="15.75" customHeight="1" spans="1:16">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -3077,7 +3693,7 @@
       <c r="O175" s="4"/>
       <c r="P175" s="4"/>
     </row>
-    <row r="176" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" ht="15.75" customHeight="1" spans="1:16">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -3092,7 +3708,7 @@
       <c r="O176" s="4"/>
       <c r="P176" s="4"/>
     </row>
-    <row r="177" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" ht="15.75" customHeight="1" spans="1:16">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -3107,7 +3723,7 @@
       <c r="O177" s="4"/>
       <c r="P177" s="4"/>
     </row>
-    <row r="178" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" ht="15.75" customHeight="1" spans="1:16">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -3122,7 +3738,7 @@
       <c r="O178" s="4"/>
       <c r="P178" s="4"/>
     </row>
-    <row r="179" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" ht="15.75" customHeight="1" spans="1:16">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -3137,7 +3753,7 @@
       <c r="O179" s="4"/>
       <c r="P179" s="4"/>
     </row>
-    <row r="180" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" ht="15.75" customHeight="1" spans="1:16">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -3152,7 +3768,7 @@
       <c r="O180" s="4"/>
       <c r="P180" s="4"/>
     </row>
-    <row r="181" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" ht="15.75" customHeight="1" spans="1:16">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -3167,7 +3783,7 @@
       <c r="O181" s="4"/>
       <c r="P181" s="4"/>
     </row>
-    <row r="182" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" ht="15.75" customHeight="1" spans="1:16">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -3182,7 +3798,7 @@
       <c r="O182" s="4"/>
       <c r="P182" s="4"/>
     </row>
-    <row r="183" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" ht="15.75" customHeight="1" spans="1:16">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -3197,7 +3813,7 @@
       <c r="O183" s="4"/>
       <c r="P183" s="4"/>
     </row>
-    <row r="184" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" ht="15.75" customHeight="1" spans="1:16">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -3212,7 +3828,7 @@
       <c r="O184" s="4"/>
       <c r="P184" s="4"/>
     </row>
-    <row r="185" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" ht="15.75" customHeight="1" spans="1:16">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -3227,7 +3843,7 @@
       <c r="O185" s="4"/>
       <c r="P185" s="4"/>
     </row>
-    <row r="186" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" ht="15.75" customHeight="1" spans="1:16">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -3242,7 +3858,7 @@
       <c r="O186" s="4"/>
       <c r="P186" s="4"/>
     </row>
-    <row r="187" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" ht="15.75" customHeight="1" spans="1:16">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -3257,7 +3873,7 @@
       <c r="O187" s="4"/>
       <c r="P187" s="4"/>
     </row>
-    <row r="188" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" ht="15.75" customHeight="1" spans="1:16">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -3272,7 +3888,7 @@
       <c r="O188" s="4"/>
       <c r="P188" s="4"/>
     </row>
-    <row r="189" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" ht="15.75" customHeight="1" spans="1:16">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -3287,7 +3903,7 @@
       <c r="O189" s="4"/>
       <c r="P189" s="4"/>
     </row>
-    <row r="190" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" ht="15.75" customHeight="1" spans="1:16">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -3302,7 +3918,7 @@
       <c r="O190" s="4"/>
       <c r="P190" s="4"/>
     </row>
-    <row r="191" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" ht="15.75" customHeight="1" spans="1:16">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -3317,7 +3933,7 @@
       <c r="O191" s="4"/>
       <c r="P191" s="4"/>
     </row>
-    <row r="192" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" ht="15.75" customHeight="1" spans="1:16">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -3332,7 +3948,7 @@
       <c r="O192" s="4"/>
       <c r="P192" s="4"/>
     </row>
-    <row r="193" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" ht="15.75" customHeight="1" spans="1:16">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -3347,7 +3963,7 @@
       <c r="O193" s="4"/>
       <c r="P193" s="4"/>
     </row>
-    <row r="194" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" ht="15.75" customHeight="1" spans="1:16">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -3362,7 +3978,7 @@
       <c r="O194" s="4"/>
       <c r="P194" s="4"/>
     </row>
-    <row r="195" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" ht="15.75" customHeight="1" spans="1:16">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -3377,7 +3993,7 @@
       <c r="O195" s="4"/>
       <c r="P195" s="4"/>
     </row>
-    <row r="196" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" ht="15.75" customHeight="1" spans="1:16">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -3392,7 +4008,7 @@
       <c r="O196" s="4"/>
       <c r="P196" s="4"/>
     </row>
-    <row r="197" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" ht="15.75" customHeight="1" spans="1:16">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -3407,7 +4023,7 @@
       <c r="O197" s="4"/>
       <c r="P197" s="4"/>
     </row>
-    <row r="198" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" ht="15.75" customHeight="1" spans="1:16">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -3422,7 +4038,7 @@
       <c r="O198" s="4"/>
       <c r="P198" s="4"/>
     </row>
-    <row r="199" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" ht="15.75" customHeight="1" spans="1:16">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -3437,7 +4053,7 @@
       <c r="O199" s="4"/>
       <c r="P199" s="4"/>
     </row>
-    <row r="200" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" ht="15.75" customHeight="1" spans="1:16">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -3452,7 +4068,7 @@
       <c r="O200" s="4"/>
       <c r="P200" s="4"/>
     </row>
-    <row r="201" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" ht="15.75" customHeight="1" spans="1:16">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -3467,7 +4083,7 @@
       <c r="O201" s="4"/>
       <c r="P201" s="4"/>
     </row>
-    <row r="202" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" ht="15.75" customHeight="1" spans="1:16">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -3482,7 +4098,7 @@
       <c r="O202" s="4"/>
       <c r="P202" s="4"/>
     </row>
-    <row r="203" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" ht="15.75" customHeight="1" spans="1:16">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -3497,7 +4113,7 @@
       <c r="O203" s="4"/>
       <c r="P203" s="4"/>
     </row>
-    <row r="204" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" ht="15.75" customHeight="1" spans="1:16">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -3512,7 +4128,7 @@
       <c r="O204" s="4"/>
       <c r="P204" s="4"/>
     </row>
-    <row r="205" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" ht="15.75" customHeight="1" spans="1:16">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -3527,7 +4143,7 @@
       <c r="O205" s="4"/>
       <c r="P205" s="4"/>
     </row>
-    <row r="206" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" ht="15.75" customHeight="1" spans="1:16">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -3542,7 +4158,7 @@
       <c r="O206" s="4"/>
       <c r="P206" s="4"/>
     </row>
-    <row r="207" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" ht="15.75" customHeight="1" spans="1:16">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -3557,7 +4173,7 @@
       <c r="O207" s="4"/>
       <c r="P207" s="4"/>
     </row>
-    <row r="208" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" ht="15.75" customHeight="1" spans="1:16">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -3572,7 +4188,7 @@
       <c r="O208" s="4"/>
       <c r="P208" s="4"/>
     </row>
-    <row r="209" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" ht="15.75" customHeight="1" spans="1:16">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -3587,7 +4203,7 @@
       <c r="O209" s="4"/>
       <c r="P209" s="4"/>
     </row>
-    <row r="210" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" ht="15.75" customHeight="1" spans="1:16">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -3602,7 +4218,7 @@
       <c r="O210" s="4"/>
       <c r="P210" s="4"/>
     </row>
-    <row r="211" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" ht="15.75" customHeight="1" spans="1:16">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -3617,7 +4233,7 @@
       <c r="O211" s="4"/>
       <c r="P211" s="4"/>
     </row>
-    <row r="212" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" ht="15.75" customHeight="1" spans="1:16">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -3632,7 +4248,7 @@
       <c r="O212" s="4"/>
       <c r="P212" s="4"/>
     </row>
-    <row r="213" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" ht="15.75" customHeight="1" spans="1:16">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -3647,7 +4263,7 @@
       <c r="O213" s="4"/>
       <c r="P213" s="4"/>
     </row>
-    <row r="214" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" ht="15.75" customHeight="1" spans="1:16">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -3662,7 +4278,7 @@
       <c r="O214" s="4"/>
       <c r="P214" s="4"/>
     </row>
-    <row r="215" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" ht="15.75" customHeight="1" spans="1:16">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -3677,7 +4293,7 @@
       <c r="O215" s="4"/>
       <c r="P215" s="4"/>
     </row>
-    <row r="216" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" ht="15.75" customHeight="1" spans="1:16">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
@@ -3692,7 +4308,7 @@
       <c r="O216" s="4"/>
       <c r="P216" s="4"/>
     </row>
-    <row r="217" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" ht="15.75" customHeight="1" spans="1:16">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
@@ -3707,7 +4323,7 @@
       <c r="O217" s="4"/>
       <c r="P217" s="4"/>
     </row>
-    <row r="218" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" ht="15.75" customHeight="1" spans="1:16">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -3722,7 +4338,7 @@
       <c r="O218" s="4"/>
       <c r="P218" s="4"/>
     </row>
-    <row r="219" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" ht="15.75" customHeight="1" spans="1:16">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -3737,7 +4353,7 @@
       <c r="O219" s="4"/>
       <c r="P219" s="4"/>
     </row>
-    <row r="220" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" ht="15.75" customHeight="1" spans="1:16">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -3752,7 +4368,7 @@
       <c r="O220" s="4"/>
       <c r="P220" s="4"/>
     </row>
-    <row r="221" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" ht="15.75" customHeight="1" spans="1:16">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
@@ -3767,7 +4383,7 @@
       <c r="O221" s="4"/>
       <c r="P221" s="4"/>
     </row>
-    <row r="222" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" ht="15.75" customHeight="1" spans="1:16">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
@@ -3782,7 +4398,7 @@
       <c r="O222" s="4"/>
       <c r="P222" s="4"/>
     </row>
-    <row r="223" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" ht="15.75" customHeight="1" spans="1:16">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -3797,7 +4413,7 @@
       <c r="O223" s="4"/>
       <c r="P223" s="4"/>
     </row>
-    <row r="224" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" ht="15.75" customHeight="1" spans="1:16">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
@@ -3812,7 +4428,7 @@
       <c r="O224" s="4"/>
       <c r="P224" s="4"/>
     </row>
-    <row r="225" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" ht="15.75" customHeight="1" spans="1:16">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
@@ -3827,7 +4443,7 @@
       <c r="O225" s="4"/>
       <c r="P225" s="4"/>
     </row>
-    <row r="226" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" ht="15.75" customHeight="1" spans="1:16">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
@@ -3842,7 +4458,7 @@
       <c r="O226" s="4"/>
       <c r="P226" s="4"/>
     </row>
-    <row r="227" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" ht="15.75" customHeight="1" spans="1:16">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
@@ -3857,7 +4473,7 @@
       <c r="O227" s="4"/>
       <c r="P227" s="4"/>
     </row>
-    <row r="228" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" ht="15.75" customHeight="1" spans="1:16">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
@@ -3872,7 +4488,7 @@
       <c r="O228" s="4"/>
       <c r="P228" s="4"/>
     </row>
-    <row r="229" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" ht="15.75" customHeight="1" spans="1:16">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
@@ -3887,7 +4503,7 @@
       <c r="O229" s="4"/>
       <c r="P229" s="4"/>
     </row>
-    <row r="230" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" ht="15.75" customHeight="1" spans="1:16">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
@@ -3902,7 +4518,7 @@
       <c r="O230" s="4"/>
       <c r="P230" s="4"/>
     </row>
-    <row r="231" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" ht="15.75" customHeight="1" spans="1:16">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
@@ -3917,7 +4533,7 @@
       <c r="O231" s="4"/>
       <c r="P231" s="4"/>
     </row>
-    <row r="232" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" ht="15.75" customHeight="1" spans="1:16">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
@@ -3932,7 +4548,7 @@
       <c r="O232" s="4"/>
       <c r="P232" s="4"/>
     </row>
-    <row r="233" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" ht="15.75" customHeight="1" spans="1:16">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
@@ -3947,7 +4563,7 @@
       <c r="O233" s="4"/>
       <c r="P233" s="4"/>
     </row>
-    <row r="234" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" ht="15.75" customHeight="1" spans="1:16">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
@@ -3962,7 +4578,7 @@
       <c r="O234" s="4"/>
       <c r="P234" s="4"/>
     </row>
-    <row r="235" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" ht="15.75" customHeight="1" spans="1:16">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
@@ -3977,7 +4593,7 @@
       <c r="O235" s="4"/>
       <c r="P235" s="4"/>
     </row>
-    <row r="236" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" ht="15.75" customHeight="1" spans="1:16">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
@@ -3992,7 +4608,7 @@
       <c r="O236" s="4"/>
       <c r="P236" s="4"/>
     </row>
-    <row r="237" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" ht="15.75" customHeight="1" spans="1:16">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
@@ -4007,7 +4623,7 @@
       <c r="O237" s="4"/>
       <c r="P237" s="4"/>
     </row>
-    <row r="238" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" ht="15.75" customHeight="1" spans="1:16">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
@@ -4022,7 +4638,7 @@
       <c r="O238" s="4"/>
       <c r="P238" s="4"/>
     </row>
-    <row r="239" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" ht="15.75" customHeight="1" spans="1:16">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
@@ -4037,7 +4653,7 @@
       <c r="O239" s="4"/>
       <c r="P239" s="4"/>
     </row>
-    <row r="240" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" ht="15.75" customHeight="1" spans="1:16">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
@@ -4052,7 +4668,7 @@
       <c r="O240" s="4"/>
       <c r="P240" s="4"/>
     </row>
-    <row r="241" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" ht="15.75" customHeight="1" spans="1:16">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
@@ -4067,7 +4683,7 @@
       <c r="O241" s="4"/>
       <c r="P241" s="4"/>
     </row>
-    <row r="242" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" ht="15.75" customHeight="1" spans="1:16">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
@@ -4082,7 +4698,7 @@
       <c r="O242" s="4"/>
       <c r="P242" s="4"/>
     </row>
-    <row r="243" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" ht="15.75" customHeight="1" spans="1:16">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
@@ -4097,7 +4713,7 @@
       <c r="O243" s="4"/>
       <c r="P243" s="4"/>
     </row>
-    <row r="244" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" ht="15.75" customHeight="1" spans="1:16">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
@@ -4112,7 +4728,7 @@
       <c r="O244" s="4"/>
       <c r="P244" s="4"/>
     </row>
-    <row r="245" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" ht="15.75" customHeight="1" spans="1:16">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
@@ -4127,7 +4743,7 @@
       <c r="O245" s="4"/>
       <c r="P245" s="4"/>
     </row>
-    <row r="246" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" ht="15.75" customHeight="1" spans="1:16">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
@@ -4142,7 +4758,7 @@
       <c r="O246" s="4"/>
       <c r="P246" s="4"/>
     </row>
-    <row r="247" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" ht="15.75" customHeight="1" spans="1:16">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -4157,7 +4773,7 @@
       <c r="O247" s="4"/>
       <c r="P247" s="4"/>
     </row>
-    <row r="248" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" ht="15.75" customHeight="1" spans="1:16">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
@@ -4172,7 +4788,7 @@
       <c r="O248" s="4"/>
       <c r="P248" s="4"/>
     </row>
-    <row r="249" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" ht="15.75" customHeight="1" spans="1:16">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
@@ -4187,7 +4803,7 @@
       <c r="O249" s="4"/>
       <c r="P249" s="4"/>
     </row>
-    <row r="250" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" ht="15.75" customHeight="1" spans="1:16">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
@@ -4202,7 +4818,7 @@
       <c r="O250" s="4"/>
       <c r="P250" s="4"/>
     </row>
-    <row r="251" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" ht="15.75" customHeight="1" spans="1:16">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
@@ -4217,7 +4833,7 @@
       <c r="O251" s="4"/>
       <c r="P251" s="4"/>
     </row>
-    <row r="252" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" ht="15.75" customHeight="1" spans="1:16">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
@@ -4232,7 +4848,7 @@
       <c r="O252" s="4"/>
       <c r="P252" s="4"/>
     </row>
-    <row r="253" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" ht="15.75" customHeight="1" spans="1:16">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
@@ -4247,7 +4863,7 @@
       <c r="O253" s="4"/>
       <c r="P253" s="4"/>
     </row>
-    <row r="254" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" ht="15.75" customHeight="1" spans="1:16">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
@@ -4262,7 +4878,7 @@
       <c r="O254" s="4"/>
       <c r="P254" s="4"/>
     </row>
-    <row r="255" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" ht="15.75" customHeight="1" spans="1:16">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
@@ -4277,7 +4893,7 @@
       <c r="O255" s="4"/>
       <c r="P255" s="4"/>
     </row>
-    <row r="256" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" ht="15.75" customHeight="1" spans="1:16">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
@@ -4292,7 +4908,7 @@
       <c r="O256" s="4"/>
       <c r="P256" s="4"/>
     </row>
-    <row r="257" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" ht="15.75" customHeight="1" spans="1:16">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
@@ -4307,7 +4923,7 @@
       <c r="O257" s="4"/>
       <c r="P257" s="4"/>
     </row>
-    <row r="258" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" ht="15.75" customHeight="1" spans="1:16">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
@@ -4322,7 +4938,7 @@
       <c r="O258" s="4"/>
       <c r="P258" s="4"/>
     </row>
-    <row r="259" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" ht="15.75" customHeight="1" spans="1:16">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
@@ -4337,7 +4953,7 @@
       <c r="O259" s="4"/>
       <c r="P259" s="4"/>
     </row>
-    <row r="260" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" ht="15.75" customHeight="1" spans="1:16">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
@@ -4352,7 +4968,7 @@
       <c r="O260" s="4"/>
       <c r="P260" s="4"/>
     </row>
-    <row r="261" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" ht="15.75" customHeight="1" spans="1:16">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
@@ -4367,7 +4983,7 @@
       <c r="O261" s="4"/>
       <c r="P261" s="4"/>
     </row>
-    <row r="262" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" ht="15.75" customHeight="1" spans="1:16">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
@@ -4382,7 +4998,7 @@
       <c r="O262" s="4"/>
       <c r="P262" s="4"/>
     </row>
-    <row r="263" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" ht="15.75" customHeight="1" spans="1:16">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
@@ -4397,7 +5013,7 @@
       <c r="O263" s="4"/>
       <c r="P263" s="4"/>
     </row>
-    <row r="264" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" ht="15.75" customHeight="1" spans="1:16">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
@@ -4412,7 +5028,7 @@
       <c r="O264" s="4"/>
       <c r="P264" s="4"/>
     </row>
-    <row r="265" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" ht="15.75" customHeight="1" spans="1:16">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
@@ -4427,7 +5043,7 @@
       <c r="O265" s="4"/>
       <c r="P265" s="4"/>
     </row>
-    <row r="266" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" ht="15.75" customHeight="1" spans="1:16">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
@@ -4442,7 +5058,7 @@
       <c r="O266" s="4"/>
       <c r="P266" s="4"/>
     </row>
-    <row r="267" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" ht="15.75" customHeight="1" spans="1:16">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
@@ -4457,7 +5073,7 @@
       <c r="O267" s="4"/>
       <c r="P267" s="4"/>
     </row>
-    <row r="268" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" ht="15.75" customHeight="1" spans="1:16">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
@@ -4472,7 +5088,7 @@
       <c r="O268" s="4"/>
       <c r="P268" s="4"/>
     </row>
-    <row r="269" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" ht="15.75" customHeight="1" spans="1:16">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
@@ -4487,7 +5103,7 @@
       <c r="O269" s="4"/>
       <c r="P269" s="4"/>
     </row>
-    <row r="270" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" ht="15.75" customHeight="1" spans="1:16">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
@@ -4502,7 +5118,7 @@
       <c r="O270" s="4"/>
       <c r="P270" s="4"/>
     </row>
-    <row r="271" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" ht="15.75" customHeight="1" spans="1:16">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
@@ -4517,7 +5133,7 @@
       <c r="O271" s="4"/>
       <c r="P271" s="4"/>
     </row>
-    <row r="272" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" ht="15.75" customHeight="1" spans="1:16">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
@@ -4532,7 +5148,7 @@
       <c r="O272" s="4"/>
       <c r="P272" s="4"/>
     </row>
-    <row r="273" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" ht="15.75" customHeight="1" spans="1:16">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
@@ -4547,7 +5163,7 @@
       <c r="O273" s="4"/>
       <c r="P273" s="4"/>
     </row>
-    <row r="274" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" ht="15.75" customHeight="1" spans="1:16">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
@@ -4562,7 +5178,7 @@
       <c r="O274" s="4"/>
       <c r="P274" s="4"/>
     </row>
-    <row r="275" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" ht="15.75" customHeight="1" spans="1:16">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
@@ -4577,7 +5193,7 @@
       <c r="O275" s="4"/>
       <c r="P275" s="4"/>
     </row>
-    <row r="276" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" ht="15.75" customHeight="1" spans="1:16">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
@@ -4592,7 +5208,7 @@
       <c r="O276" s="4"/>
       <c r="P276" s="4"/>
     </row>
-    <row r="277" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" ht="15.75" customHeight="1" spans="1:16">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
@@ -4607,7 +5223,7 @@
       <c r="O277" s="4"/>
       <c r="P277" s="4"/>
     </row>
-    <row r="278" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" ht="15.75" customHeight="1" spans="1:16">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
@@ -4622,7 +5238,7 @@
       <c r="O278" s="4"/>
       <c r="P278" s="4"/>
     </row>
-    <row r="279" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" ht="15.75" customHeight="1" spans="1:16">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
@@ -4637,7 +5253,7 @@
       <c r="O279" s="4"/>
       <c r="P279" s="4"/>
     </row>
-    <row r="280" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" ht="15.75" customHeight="1" spans="1:16">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
@@ -4652,7 +5268,7 @@
       <c r="O280" s="4"/>
       <c r="P280" s="4"/>
     </row>
-    <row r="281" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" ht="15.75" customHeight="1" spans="1:16">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
@@ -4667,7 +5283,7 @@
       <c r="O281" s="4"/>
       <c r="P281" s="4"/>
     </row>
-    <row r="282" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" ht="15.75" customHeight="1" spans="1:16">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
@@ -4682,7 +5298,7 @@
       <c r="O282" s="4"/>
       <c r="P282" s="4"/>
     </row>
-    <row r="283" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" ht="15.75" customHeight="1" spans="1:16">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
@@ -4697,7 +5313,7 @@
       <c r="O283" s="4"/>
       <c r="P283" s="4"/>
     </row>
-    <row r="284" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" ht="15.75" customHeight="1" spans="1:16">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
@@ -4712,7 +5328,7 @@
       <c r="O284" s="4"/>
       <c r="P284" s="4"/>
     </row>
-    <row r="285" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" ht="15.75" customHeight="1" spans="1:16">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
@@ -4727,7 +5343,7 @@
       <c r="O285" s="4"/>
       <c r="P285" s="4"/>
     </row>
-    <row r="286" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" ht="15.75" customHeight="1" spans="1:16">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
@@ -4742,7 +5358,7 @@
       <c r="O286" s="4"/>
       <c r="P286" s="4"/>
     </row>
-    <row r="287" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" ht="15.75" customHeight="1" spans="1:16">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
@@ -4757,7 +5373,7 @@
       <c r="O287" s="4"/>
       <c r="P287" s="4"/>
     </row>
-    <row r="288" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" ht="15.75" customHeight="1" spans="1:16">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
@@ -4772,7 +5388,7 @@
       <c r="O288" s="4"/>
       <c r="P288" s="4"/>
     </row>
-    <row r="289" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" ht="15.75" customHeight="1" spans="1:16">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
@@ -4787,7 +5403,7 @@
       <c r="O289" s="4"/>
       <c r="P289" s="4"/>
     </row>
-    <row r="290" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" ht="15.75" customHeight="1" spans="1:16">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
@@ -4802,7 +5418,7 @@
       <c r="O290" s="4"/>
       <c r="P290" s="4"/>
     </row>
-    <row r="291" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" ht="15.75" customHeight="1" spans="1:16">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
@@ -4817,7 +5433,7 @@
       <c r="O291" s="4"/>
       <c r="P291" s="4"/>
     </row>
-    <row r="292" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" ht="15.75" customHeight="1" spans="1:16">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
@@ -4832,7 +5448,7 @@
       <c r="O292" s="4"/>
       <c r="P292" s="4"/>
     </row>
-    <row r="293" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" ht="15.75" customHeight="1" spans="1:16">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
@@ -4847,7 +5463,7 @@
       <c r="O293" s="4"/>
       <c r="P293" s="4"/>
     </row>
-    <row r="294" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" ht="15.75" customHeight="1" spans="1:16">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
@@ -4862,7 +5478,7 @@
       <c r="O294" s="4"/>
       <c r="P294" s="4"/>
     </row>
-    <row r="295" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" ht="15.75" customHeight="1" spans="1:16">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
@@ -4877,7 +5493,7 @@
       <c r="O295" s="4"/>
       <c r="P295" s="4"/>
     </row>
-    <row r="296" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" ht="15.75" customHeight="1" spans="1:16">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
@@ -4892,7 +5508,7 @@
       <c r="O296" s="4"/>
       <c r="P296" s="4"/>
     </row>
-    <row r="297" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" ht="15.75" customHeight="1" spans="1:16">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
@@ -4907,7 +5523,7 @@
       <c r="O297" s="4"/>
       <c r="P297" s="4"/>
     </row>
-    <row r="298" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" ht="15.75" customHeight="1" spans="1:16">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
@@ -4922,7 +5538,7 @@
       <c r="O298" s="4"/>
       <c r="P298" s="4"/>
     </row>
-    <row r="299" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" ht="15.75" customHeight="1" spans="1:16">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
@@ -4937,7 +5553,7 @@
       <c r="O299" s="4"/>
       <c r="P299" s="4"/>
     </row>
-    <row r="300" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" ht="15.75" customHeight="1" spans="1:16">
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
@@ -4952,7 +5568,7 @@
       <c r="O300" s="4"/>
       <c r="P300" s="4"/>
     </row>
-    <row r="301" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" ht="15.75" customHeight="1" spans="1:16">
       <c r="A301" s="4"/>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
@@ -4967,7 +5583,7 @@
       <c r="O301" s="4"/>
       <c r="P301" s="4"/>
     </row>
-    <row r="302" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" ht="15.75" customHeight="1" spans="1:16">
       <c r="A302" s="4"/>
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
@@ -4982,7 +5598,7 @@
       <c r="O302" s="4"/>
       <c r="P302" s="4"/>
     </row>
-    <row r="303" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" ht="15.75" customHeight="1" spans="1:16">
       <c r="A303" s="4"/>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
@@ -4997,7 +5613,7 @@
       <c r="O303" s="4"/>
       <c r="P303" s="4"/>
     </row>
-    <row r="304" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" ht="15.75" customHeight="1" spans="1:16">
       <c r="A304" s="4"/>
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
@@ -5012,7 +5628,7 @@
       <c r="O304" s="4"/>
       <c r="P304" s="4"/>
     </row>
-    <row r="305" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" ht="15.75" customHeight="1" spans="1:16">
       <c r="A305" s="4"/>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
@@ -5027,7 +5643,7 @@
       <c r="O305" s="4"/>
       <c r="P305" s="4"/>
     </row>
-    <row r="306" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" ht="15.75" customHeight="1" spans="1:16">
       <c r="A306" s="4"/>
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
@@ -5042,7 +5658,7 @@
       <c r="O306" s="4"/>
       <c r="P306" s="4"/>
     </row>
-    <row r="307" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" ht="15.75" customHeight="1" spans="1:16">
       <c r="A307" s="4"/>
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
@@ -5057,7 +5673,7 @@
       <c r="O307" s="4"/>
       <c r="P307" s="4"/>
     </row>
-    <row r="308" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" ht="15.75" customHeight="1" spans="1:16">
       <c r="A308" s="4"/>
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
@@ -5072,7 +5688,7 @@
       <c r="O308" s="4"/>
       <c r="P308" s="4"/>
     </row>
-    <row r="309" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" ht="15.75" customHeight="1" spans="1:16">
       <c r="A309" s="4"/>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
@@ -5087,7 +5703,7 @@
       <c r="O309" s="4"/>
       <c r="P309" s="4"/>
     </row>
-    <row r="310" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" ht="15.75" customHeight="1" spans="1:16">
       <c r="A310" s="4"/>
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
@@ -5102,7 +5718,7 @@
       <c r="O310" s="4"/>
       <c r="P310" s="4"/>
     </row>
-    <row r="311" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" ht="15.75" customHeight="1" spans="1:16">
       <c r="A311" s="4"/>
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
@@ -5117,7 +5733,7 @@
       <c r="O311" s="4"/>
       <c r="P311" s="4"/>
     </row>
-    <row r="312" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" ht="15.75" customHeight="1" spans="1:16">
       <c r="A312" s="4"/>
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
@@ -5132,7 +5748,7 @@
       <c r="O312" s="4"/>
       <c r="P312" s="4"/>
     </row>
-    <row r="313" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" ht="15.75" customHeight="1" spans="1:16">
       <c r="A313" s="4"/>
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
@@ -5147,7 +5763,7 @@
       <c r="O313" s="4"/>
       <c r="P313" s="4"/>
     </row>
-    <row r="314" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" ht="15.75" customHeight="1" spans="1:16">
       <c r="A314" s="4"/>
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
@@ -5162,7 +5778,7 @@
       <c r="O314" s="4"/>
       <c r="P314" s="4"/>
     </row>
-    <row r="315" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" ht="15.75" customHeight="1" spans="1:16">
       <c r="A315" s="4"/>
       <c r="B315" s="4"/>
       <c r="C315" s="4"/>
@@ -5177,7 +5793,7 @@
       <c r="O315" s="4"/>
       <c r="P315" s="4"/>
     </row>
-    <row r="316" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" ht="15.75" customHeight="1" spans="1:16">
       <c r="A316" s="4"/>
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
@@ -5192,7 +5808,7 @@
       <c r="O316" s="4"/>
       <c r="P316" s="4"/>
     </row>
-    <row r="317" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" ht="15.75" customHeight="1" spans="1:16">
       <c r="A317" s="4"/>
       <c r="B317" s="4"/>
       <c r="C317" s="4"/>
@@ -5207,7 +5823,7 @@
       <c r="O317" s="4"/>
       <c r="P317" s="4"/>
     </row>
-    <row r="318" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" ht="15.75" customHeight="1" spans="1:16">
       <c r="A318" s="4"/>
       <c r="B318" s="4"/>
       <c r="C318" s="4"/>
@@ -5222,7 +5838,7 @@
       <c r="O318" s="4"/>
       <c r="P318" s="4"/>
     </row>
-    <row r="319" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" ht="15.75" customHeight="1" spans="1:16">
       <c r="A319" s="4"/>
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
@@ -5237,7 +5853,7 @@
       <c r="O319" s="4"/>
       <c r="P319" s="4"/>
     </row>
-    <row r="320" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" ht="15.75" customHeight="1" spans="1:16">
       <c r="A320" s="4"/>
       <c r="B320" s="4"/>
       <c r="C320" s="4"/>
@@ -5252,7 +5868,7 @@
       <c r="O320" s="4"/>
       <c r="P320" s="4"/>
     </row>
-    <row r="321" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" ht="15.75" customHeight="1" spans="1:16">
       <c r="A321" s="4"/>
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
@@ -5267,7 +5883,7 @@
       <c r="O321" s="4"/>
       <c r="P321" s="4"/>
     </row>
-    <row r="322" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" ht="15.75" customHeight="1" spans="1:16">
       <c r="A322" s="4"/>
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
@@ -5282,7 +5898,7 @@
       <c r="O322" s="4"/>
       <c r="P322" s="4"/>
     </row>
-    <row r="323" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" ht="15.75" customHeight="1" spans="1:16">
       <c r="A323" s="4"/>
       <c r="B323" s="4"/>
       <c r="C323" s="4"/>
@@ -5297,7 +5913,7 @@
       <c r="O323" s="4"/>
       <c r="P323" s="4"/>
     </row>
-    <row r="324" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" ht="15.75" customHeight="1" spans="1:16">
       <c r="A324" s="4"/>
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
@@ -5312,7 +5928,7 @@
       <c r="O324" s="4"/>
       <c r="P324" s="4"/>
     </row>
-    <row r="325" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" ht="15.75" customHeight="1" spans="1:16">
       <c r="A325" s="4"/>
       <c r="B325" s="4"/>
       <c r="C325" s="4"/>
@@ -5327,7 +5943,7 @@
       <c r="O325" s="4"/>
       <c r="P325" s="4"/>
     </row>
-    <row r="326" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" ht="15.75" customHeight="1" spans="1:16">
       <c r="A326" s="4"/>
       <c r="B326" s="4"/>
       <c r="C326" s="4"/>
@@ -5342,7 +5958,7 @@
       <c r="O326" s="4"/>
       <c r="P326" s="4"/>
     </row>
-    <row r="327" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" ht="15.75" customHeight="1" spans="1:16">
       <c r="A327" s="4"/>
       <c r="B327" s="4"/>
       <c r="C327" s="4"/>
@@ -5357,7 +5973,7 @@
       <c r="O327" s="4"/>
       <c r="P327" s="4"/>
     </row>
-    <row r="328" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" ht="15.75" customHeight="1" spans="1:16">
       <c r="A328" s="4"/>
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
@@ -5372,7 +5988,7 @@
       <c r="O328" s="4"/>
       <c r="P328" s="4"/>
     </row>
-    <row r="329" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" ht="15.75" customHeight="1" spans="1:16">
       <c r="A329" s="4"/>
       <c r="B329" s="4"/>
       <c r="C329" s="4"/>
@@ -5387,7 +6003,7 @@
       <c r="O329" s="4"/>
       <c r="P329" s="4"/>
     </row>
-    <row r="330" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" ht="15.75" customHeight="1" spans="1:16">
       <c r="A330" s="4"/>
       <c r="B330" s="4"/>
       <c r="C330" s="4"/>
@@ -5402,7 +6018,7 @@
       <c r="O330" s="4"/>
       <c r="P330" s="4"/>
     </row>
-    <row r="331" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" ht="15.75" customHeight="1" spans="1:16">
       <c r="A331" s="4"/>
       <c r="B331" s="4"/>
       <c r="C331" s="4"/>
@@ -5417,7 +6033,7 @@
       <c r="O331" s="4"/>
       <c r="P331" s="4"/>
     </row>
-    <row r="332" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" ht="15.75" customHeight="1" spans="1:16">
       <c r="A332" s="4"/>
       <c r="B332" s="4"/>
       <c r="C332" s="4"/>
@@ -5432,7 +6048,7 @@
       <c r="O332" s="4"/>
       <c r="P332" s="4"/>
     </row>
-    <row r="333" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" ht="15.75" customHeight="1" spans="1:16">
       <c r="A333" s="4"/>
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
@@ -5447,7 +6063,7 @@
       <c r="O333" s="4"/>
       <c r="P333" s="4"/>
     </row>
-    <row r="334" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" ht="15.75" customHeight="1" spans="1:16">
       <c r="A334" s="4"/>
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
@@ -5462,7 +6078,7 @@
       <c r="O334" s="4"/>
       <c r="P334" s="4"/>
     </row>
-    <row r="335" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" ht="15.75" customHeight="1" spans="1:16">
       <c r="A335" s="4"/>
       <c r="B335" s="4"/>
       <c r="C335" s="4"/>
@@ -5477,7 +6093,7 @@
       <c r="O335" s="4"/>
       <c r="P335" s="4"/>
     </row>
-    <row r="336" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" ht="15.75" customHeight="1" spans="1:16">
       <c r="A336" s="4"/>
       <c r="B336" s="4"/>
       <c r="C336" s="4"/>
@@ -5492,7 +6108,7 @@
       <c r="O336" s="4"/>
       <c r="P336" s="4"/>
     </row>
-    <row r="337" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" ht="15.75" customHeight="1" spans="1:16">
       <c r="A337" s="4"/>
       <c r="B337" s="4"/>
       <c r="C337" s="4"/>
@@ -5507,7 +6123,7 @@
       <c r="O337" s="4"/>
       <c r="P337" s="4"/>
     </row>
-    <row r="338" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" ht="15.75" customHeight="1" spans="1:16">
       <c r="A338" s="4"/>
       <c r="B338" s="4"/>
       <c r="C338" s="4"/>
@@ -5522,7 +6138,7 @@
       <c r="O338" s="4"/>
       <c r="P338" s="4"/>
     </row>
-    <row r="339" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" ht="15.75" customHeight="1" spans="1:16">
       <c r="A339" s="4"/>
       <c r="B339" s="4"/>
       <c r="C339" s="4"/>
@@ -5537,7 +6153,7 @@
       <c r="O339" s="4"/>
       <c r="P339" s="4"/>
     </row>
-    <row r="340" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" ht="15.75" customHeight="1" spans="1:16">
       <c r="A340" s="4"/>
       <c r="B340" s="4"/>
       <c r="C340" s="4"/>
@@ -5552,7 +6168,7 @@
       <c r="O340" s="4"/>
       <c r="P340" s="4"/>
     </row>
-    <row r="341" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" ht="15.75" customHeight="1" spans="1:16">
       <c r="A341" s="4"/>
       <c r="B341" s="4"/>
       <c r="C341" s="4"/>
@@ -5567,7 +6183,7 @@
       <c r="O341" s="4"/>
       <c r="P341" s="4"/>
     </row>
-    <row r="342" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" ht="15.75" customHeight="1" spans="1:16">
       <c r="A342" s="4"/>
       <c r="B342" s="4"/>
       <c r="C342" s="4"/>
@@ -5582,7 +6198,7 @@
       <c r="O342" s="4"/>
       <c r="P342" s="4"/>
     </row>
-    <row r="343" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" ht="15.75" customHeight="1" spans="1:16">
       <c r="A343" s="4"/>
       <c r="B343" s="4"/>
       <c r="C343" s="4"/>
@@ -5597,7 +6213,7 @@
       <c r="O343" s="4"/>
       <c r="P343" s="4"/>
     </row>
-    <row r="344" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" ht="15.75" customHeight="1" spans="1:16">
       <c r="A344" s="4"/>
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
@@ -5612,7 +6228,7 @@
       <c r="O344" s="4"/>
       <c r="P344" s="4"/>
     </row>
-    <row r="345" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" ht="15.75" customHeight="1" spans="1:16">
       <c r="A345" s="4"/>
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
@@ -5627,7 +6243,7 @@
       <c r="O345" s="4"/>
       <c r="P345" s="4"/>
     </row>
-    <row r="346" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" ht="15.75" customHeight="1" spans="1:16">
       <c r="A346" s="4"/>
       <c r="B346" s="4"/>
       <c r="C346" s="4"/>
@@ -5642,7 +6258,7 @@
       <c r="O346" s="4"/>
       <c r="P346" s="4"/>
     </row>
-    <row r="347" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" ht="15.75" customHeight="1" spans="1:16">
       <c r="A347" s="4"/>
       <c r="B347" s="4"/>
       <c r="C347" s="4"/>
@@ -5657,7 +6273,7 @@
       <c r="O347" s="4"/>
       <c r="P347" s="4"/>
     </row>
-    <row r="348" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" ht="15.75" customHeight="1" spans="1:16">
       <c r="A348" s="4"/>
       <c r="B348" s="4"/>
       <c r="C348" s="4"/>
@@ -5672,7 +6288,7 @@
       <c r="O348" s="4"/>
       <c r="P348" s="4"/>
     </row>
-    <row r="349" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" ht="15.75" customHeight="1" spans="1:16">
       <c r="A349" s="4"/>
       <c r="B349" s="4"/>
       <c r="C349" s="4"/>
@@ -5687,7 +6303,7 @@
       <c r="O349" s="4"/>
       <c r="P349" s="4"/>
     </row>
-    <row r="350" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" ht="15.75" customHeight="1" spans="1:16">
       <c r="A350" s="4"/>
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
@@ -5702,7 +6318,7 @@
       <c r="O350" s="4"/>
       <c r="P350" s="4"/>
     </row>
-    <row r="351" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" ht="15.75" customHeight="1" spans="1:16">
       <c r="A351" s="4"/>
       <c r="B351" s="4"/>
       <c r="C351" s="4"/>
@@ -5717,7 +6333,7 @@
       <c r="O351" s="4"/>
       <c r="P351" s="4"/>
     </row>
-    <row r="352" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" ht="15.75" customHeight="1" spans="1:16">
       <c r="A352" s="4"/>
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
@@ -5732,7 +6348,7 @@
       <c r="O352" s="4"/>
       <c r="P352" s="4"/>
     </row>
-    <row r="353" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" ht="15.75" customHeight="1" spans="1:16">
       <c r="A353" s="4"/>
       <c r="B353" s="4"/>
       <c r="C353" s="4"/>
@@ -5747,7 +6363,7 @@
       <c r="O353" s="4"/>
       <c r="P353" s="4"/>
     </row>
-    <row r="354" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" ht="15.75" customHeight="1" spans="1:16">
       <c r="A354" s="4"/>
       <c r="B354" s="4"/>
       <c r="C354" s="4"/>
@@ -5762,7 +6378,7 @@
       <c r="O354" s="4"/>
       <c r="P354" s="4"/>
     </row>
-    <row r="355" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" ht="15.75" customHeight="1" spans="1:16">
       <c r="A355" s="4"/>
       <c r="B355" s="4"/>
       <c r="C355" s="4"/>
@@ -5777,7 +6393,7 @@
       <c r="O355" s="4"/>
       <c r="P355" s="4"/>
     </row>
-    <row r="356" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" ht="15.75" customHeight="1" spans="1:16">
       <c r="A356" s="4"/>
       <c r="B356" s="4"/>
       <c r="C356" s="4"/>
@@ -5792,7 +6408,7 @@
       <c r="O356" s="4"/>
       <c r="P356" s="4"/>
     </row>
-    <row r="357" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" ht="15.75" customHeight="1" spans="1:16">
       <c r="A357" s="4"/>
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
@@ -5807,7 +6423,7 @@
       <c r="O357" s="4"/>
       <c r="P357" s="4"/>
     </row>
-    <row r="358" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" ht="15.75" customHeight="1" spans="1:16">
       <c r="A358" s="4"/>
       <c r="B358" s="4"/>
       <c r="C358" s="4"/>
@@ -5822,7 +6438,7 @@
       <c r="O358" s="4"/>
       <c r="P358" s="4"/>
     </row>
-    <row r="359" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" ht="15.75" customHeight="1" spans="1:16">
       <c r="A359" s="4"/>
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
@@ -5837,7 +6453,7 @@
       <c r="O359" s="4"/>
       <c r="P359" s="4"/>
     </row>
-    <row r="360" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" ht="15.75" customHeight="1" spans="1:16">
       <c r="A360" s="4"/>
       <c r="B360" s="4"/>
       <c r="C360" s="4"/>
@@ -5852,7 +6468,7 @@
       <c r="O360" s="4"/>
       <c r="P360" s="4"/>
     </row>
-    <row r="361" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" ht="15.75" customHeight="1" spans="1:16">
       <c r="A361" s="4"/>
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
@@ -5867,7 +6483,7 @@
       <c r="O361" s="4"/>
       <c r="P361" s="4"/>
     </row>
-    <row r="362" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" ht="15.75" customHeight="1" spans="1:16">
       <c r="A362" s="4"/>
       <c r="B362" s="4"/>
       <c r="C362" s="4"/>
@@ -5882,7 +6498,7 @@
       <c r="O362" s="4"/>
       <c r="P362" s="4"/>
     </row>
-    <row r="363" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" ht="15.75" customHeight="1" spans="1:16">
       <c r="A363" s="4"/>
       <c r="B363" s="4"/>
       <c r="C363" s="4"/>
@@ -5897,7 +6513,7 @@
       <c r="O363" s="4"/>
       <c r="P363" s="4"/>
     </row>
-    <row r="364" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" ht="15.75" customHeight="1" spans="1:16">
       <c r="A364" s="4"/>
       <c r="B364" s="4"/>
       <c r="C364" s="4"/>
@@ -5912,7 +6528,7 @@
       <c r="O364" s="4"/>
       <c r="P364" s="4"/>
     </row>
-    <row r="365" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" ht="15.75" customHeight="1" spans="1:16">
       <c r="A365" s="4"/>
       <c r="B365" s="4"/>
       <c r="C365" s="4"/>
@@ -5927,7 +6543,7 @@
       <c r="O365" s="4"/>
       <c r="P365" s="4"/>
     </row>
-    <row r="366" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" ht="15.75" customHeight="1" spans="1:16">
       <c r="A366" s="4"/>
       <c r="B366" s="4"/>
       <c r="C366" s="4"/>
@@ -5942,7 +6558,7 @@
       <c r="O366" s="4"/>
       <c r="P366" s="4"/>
     </row>
-    <row r="367" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" ht="15.75" customHeight="1" spans="1:16">
       <c r="A367" s="4"/>
       <c r="B367" s="4"/>
       <c r="C367" s="4"/>
@@ -5957,7 +6573,7 @@
       <c r="O367" s="4"/>
       <c r="P367" s="4"/>
     </row>
-    <row r="368" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" ht="15.75" customHeight="1" spans="1:16">
       <c r="A368" s="4"/>
       <c r="B368" s="4"/>
       <c r="C368" s="4"/>
@@ -5972,7 +6588,7 @@
       <c r="O368" s="4"/>
       <c r="P368" s="4"/>
     </row>
-    <row r="369" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" ht="15.75" customHeight="1" spans="1:16">
       <c r="A369" s="4"/>
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
@@ -5987,7 +6603,7 @@
       <c r="O369" s="4"/>
       <c r="P369" s="4"/>
     </row>
-    <row r="370" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" ht="15.75" customHeight="1" spans="1:16">
       <c r="A370" s="4"/>
       <c r="B370" s="4"/>
       <c r="C370" s="4"/>
@@ -6002,7 +6618,7 @@
       <c r="O370" s="4"/>
       <c r="P370" s="4"/>
     </row>
-    <row r="371" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" ht="15.75" customHeight="1" spans="1:16">
       <c r="A371" s="4"/>
       <c r="B371" s="4"/>
       <c r="C371" s="4"/>
@@ -6017,7 +6633,7 @@
       <c r="O371" s="4"/>
       <c r="P371" s="4"/>
     </row>
-    <row r="372" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" ht="15.75" customHeight="1" spans="1:16">
       <c r="A372" s="4"/>
       <c r="B372" s="4"/>
       <c r="C372" s="4"/>
@@ -6032,7 +6648,7 @@
       <c r="O372" s="4"/>
       <c r="P372" s="4"/>
     </row>
-    <row r="373" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" ht="15.75" customHeight="1" spans="1:16">
       <c r="A373" s="4"/>
       <c r="B373" s="4"/>
       <c r="C373" s="4"/>
@@ -6047,7 +6663,7 @@
       <c r="O373" s="4"/>
       <c r="P373" s="4"/>
     </row>
-    <row r="374" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" ht="15.75" customHeight="1" spans="1:16">
       <c r="A374" s="4"/>
       <c r="B374" s="4"/>
       <c r="C374" s="4"/>
@@ -6062,7 +6678,7 @@
       <c r="O374" s="4"/>
       <c r="P374" s="4"/>
     </row>
-    <row r="375" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" ht="15.75" customHeight="1" spans="1:16">
       <c r="A375" s="4"/>
       <c r="B375" s="4"/>
       <c r="C375" s="4"/>
@@ -6077,7 +6693,7 @@
       <c r="O375" s="4"/>
       <c r="P375" s="4"/>
     </row>
-    <row r="376" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" ht="15.75" customHeight="1" spans="1:16">
       <c r="A376" s="4"/>
       <c r="B376" s="4"/>
       <c r="C376" s="4"/>
@@ -6092,7 +6708,7 @@
       <c r="O376" s="4"/>
       <c r="P376" s="4"/>
     </row>
-    <row r="377" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" ht="15.75" customHeight="1" spans="1:16">
       <c r="A377" s="4"/>
       <c r="B377" s="4"/>
       <c r="C377" s="4"/>
@@ -6107,7 +6723,7 @@
       <c r="O377" s="4"/>
       <c r="P377" s="4"/>
     </row>
-    <row r="378" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" ht="15.75" customHeight="1" spans="1:16">
       <c r="A378" s="4"/>
       <c r="B378" s="4"/>
       <c r="C378" s="4"/>
@@ -6122,7 +6738,7 @@
       <c r="O378" s="4"/>
       <c r="P378" s="4"/>
     </row>
-    <row r="379" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" ht="15.75" customHeight="1" spans="1:16">
       <c r="A379" s="4"/>
       <c r="B379" s="4"/>
       <c r="C379" s="4"/>
@@ -6137,7 +6753,7 @@
       <c r="O379" s="4"/>
       <c r="P379" s="4"/>
     </row>
-    <row r="380" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" ht="15.75" customHeight="1" spans="1:16">
       <c r="A380" s="4"/>
       <c r="B380" s="4"/>
       <c r="C380" s="4"/>
@@ -6152,7 +6768,7 @@
       <c r="O380" s="4"/>
       <c r="P380" s="4"/>
     </row>
-    <row r="381" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" ht="15.75" customHeight="1" spans="1:16">
       <c r="A381" s="4"/>
       <c r="B381" s="4"/>
       <c r="C381" s="4"/>
@@ -6167,7 +6783,7 @@
       <c r="O381" s="4"/>
       <c r="P381" s="4"/>
     </row>
-    <row r="382" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" ht="15.75" customHeight="1" spans="1:16">
       <c r="A382" s="4"/>
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
@@ -6182,7 +6798,7 @@
       <c r="O382" s="4"/>
       <c r="P382" s="4"/>
     </row>
-    <row r="383" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" ht="15.75" customHeight="1" spans="1:16">
       <c r="A383" s="4"/>
       <c r="B383" s="4"/>
       <c r="C383" s="4"/>
@@ -6197,7 +6813,7 @@
       <c r="O383" s="4"/>
       <c r="P383" s="4"/>
     </row>
-    <row r="384" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" ht="15.75" customHeight="1" spans="1:16">
       <c r="A384" s="4"/>
       <c r="B384" s="4"/>
       <c r="C384" s="4"/>
@@ -6212,7 +6828,7 @@
       <c r="O384" s="4"/>
       <c r="P384" s="4"/>
     </row>
-    <row r="385" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" ht="15.75" customHeight="1" spans="1:16">
       <c r="A385" s="4"/>
       <c r="B385" s="4"/>
       <c r="C385" s="4"/>
@@ -6227,7 +6843,7 @@
       <c r="O385" s="4"/>
       <c r="P385" s="4"/>
     </row>
-    <row r="386" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" ht="15.75" customHeight="1" spans="1:16">
       <c r="A386" s="4"/>
       <c r="B386" s="4"/>
       <c r="C386" s="4"/>
@@ -6242,7 +6858,7 @@
       <c r="O386" s="4"/>
       <c r="P386" s="4"/>
     </row>
-    <row r="387" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" ht="15.75" customHeight="1" spans="1:16">
       <c r="A387" s="4"/>
       <c r="B387" s="4"/>
       <c r="C387" s="4"/>
@@ -6257,7 +6873,7 @@
       <c r="O387" s="4"/>
       <c r="P387" s="4"/>
     </row>
-    <row r="388" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" ht="15.75" customHeight="1" spans="1:16">
       <c r="A388" s="4"/>
       <c r="B388" s="4"/>
       <c r="C388" s="4"/>
@@ -6272,7 +6888,7 @@
       <c r="O388" s="4"/>
       <c r="P388" s="4"/>
     </row>
-    <row r="389" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" ht="15.75" customHeight="1" spans="1:16">
       <c r="A389" s="4"/>
       <c r="B389" s="4"/>
       <c r="C389" s="4"/>
@@ -6287,7 +6903,7 @@
       <c r="O389" s="4"/>
       <c r="P389" s="4"/>
     </row>
-    <row r="390" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" ht="15.75" customHeight="1" spans="1:16">
       <c r="A390" s="4"/>
       <c r="B390" s="4"/>
       <c r="C390" s="4"/>
@@ -6302,7 +6918,7 @@
       <c r="O390" s="4"/>
       <c r="P390" s="4"/>
     </row>
-    <row r="391" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" ht="15.75" customHeight="1" spans="1:16">
       <c r="A391" s="4"/>
       <c r="B391" s="4"/>
       <c r="C391" s="4"/>
@@ -6317,7 +6933,7 @@
       <c r="O391" s="4"/>
       <c r="P391" s="4"/>
     </row>
-    <row r="392" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" ht="15.75" customHeight="1" spans="1:16">
       <c r="A392" s="4"/>
       <c r="B392" s="4"/>
       <c r="C392" s="4"/>
@@ -6332,7 +6948,7 @@
       <c r="O392" s="4"/>
       <c r="P392" s="4"/>
     </row>
-    <row r="393" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" ht="15.75" customHeight="1" spans="1:16">
       <c r="A393" s="4"/>
       <c r="B393" s="4"/>
       <c r="C393" s="4"/>
@@ -6347,7 +6963,7 @@
       <c r="O393" s="4"/>
       <c r="P393" s="4"/>
     </row>
-    <row r="394" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" ht="15.75" customHeight="1" spans="1:16">
       <c r="A394" s="4"/>
       <c r="B394" s="4"/>
       <c r="C394" s="4"/>
@@ -6362,7 +6978,7 @@
       <c r="O394" s="4"/>
       <c r="P394" s="4"/>
     </row>
-    <row r="395" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" ht="15.75" customHeight="1" spans="1:16">
       <c r="A395" s="4"/>
       <c r="B395" s="4"/>
       <c r="C395" s="4"/>
@@ -6377,7 +6993,7 @@
       <c r="O395" s="4"/>
       <c r="P395" s="4"/>
     </row>
-    <row r="396" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" ht="15.75" customHeight="1" spans="1:16">
       <c r="A396" s="4"/>
       <c r="B396" s="4"/>
       <c r="C396" s="4"/>
@@ -6392,7 +7008,7 @@
       <c r="O396" s="4"/>
       <c r="P396" s="4"/>
     </row>
-    <row r="397" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" ht="15.75" customHeight="1" spans="1:16">
       <c r="A397" s="4"/>
       <c r="B397" s="4"/>
       <c r="C397" s="4"/>
@@ -6407,7 +7023,7 @@
       <c r="O397" s="4"/>
       <c r="P397" s="4"/>
     </row>
-    <row r="398" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" ht="15.75" customHeight="1" spans="1:16">
       <c r="A398" s="4"/>
       <c r="B398" s="4"/>
       <c r="C398" s="4"/>
@@ -6422,7 +7038,7 @@
       <c r="O398" s="4"/>
       <c r="P398" s="4"/>
     </row>
-    <row r="399" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" ht="15.75" customHeight="1" spans="1:16">
       <c r="A399" s="4"/>
       <c r="B399" s="4"/>
       <c r="C399" s="4"/>
@@ -6437,7 +7053,7 @@
       <c r="O399" s="4"/>
       <c r="P399" s="4"/>
     </row>
-    <row r="400" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" ht="15.75" customHeight="1" spans="1:16">
       <c r="A400" s="4"/>
       <c r="B400" s="4"/>
       <c r="C400" s="4"/>
@@ -6452,7 +7068,7 @@
       <c r="O400" s="4"/>
       <c r="P400" s="4"/>
     </row>
-    <row r="401" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" ht="15.75" customHeight="1" spans="1:16">
       <c r="A401" s="4"/>
       <c r="B401" s="4"/>
       <c r="C401" s="4"/>
@@ -6467,7 +7083,7 @@
       <c r="O401" s="4"/>
       <c r="P401" s="4"/>
     </row>
-    <row r="402" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" ht="15.75" customHeight="1" spans="1:16">
       <c r="A402" s="4"/>
       <c r="B402" s="4"/>
       <c r="C402" s="4"/>
@@ -6482,7 +7098,7 @@
       <c r="O402" s="4"/>
       <c r="P402" s="4"/>
     </row>
-    <row r="403" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" ht="15.75" customHeight="1" spans="1:16">
       <c r="A403" s="4"/>
       <c r="B403" s="4"/>
       <c r="C403" s="4"/>
@@ -6497,7 +7113,7 @@
       <c r="O403" s="4"/>
       <c r="P403" s="4"/>
     </row>
-    <row r="404" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" ht="15.75" customHeight="1" spans="1:16">
       <c r="A404" s="4"/>
       <c r="B404" s="4"/>
       <c r="C404" s="4"/>
@@ -6512,7 +7128,7 @@
       <c r="O404" s="4"/>
       <c r="P404" s="4"/>
     </row>
-    <row r="405" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" ht="15.75" customHeight="1" spans="1:16">
       <c r="A405" s="4"/>
       <c r="B405" s="4"/>
       <c r="C405" s="4"/>
@@ -6527,7 +7143,7 @@
       <c r="O405" s="4"/>
       <c r="P405" s="4"/>
     </row>
-    <row r="406" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" ht="15.75" customHeight="1" spans="1:16">
       <c r="A406" s="4"/>
       <c r="B406" s="4"/>
       <c r="C406" s="4"/>
@@ -6542,7 +7158,7 @@
       <c r="O406" s="4"/>
       <c r="P406" s="4"/>
     </row>
-    <row r="407" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" ht="15.75" customHeight="1" spans="1:16">
       <c r="A407" s="4"/>
       <c r="B407" s="4"/>
       <c r="C407" s="4"/>
@@ -6557,7 +7173,7 @@
       <c r="O407" s="4"/>
       <c r="P407" s="4"/>
     </row>
-    <row r="408" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" ht="15.75" customHeight="1" spans="1:16">
       <c r="A408" s="4"/>
       <c r="B408" s="4"/>
       <c r="C408" s="4"/>
@@ -6572,7 +7188,7 @@
       <c r="O408" s="4"/>
       <c r="P408" s="4"/>
     </row>
-    <row r="409" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" ht="15.75" customHeight="1" spans="1:16">
       <c r="A409" s="4"/>
       <c r="B409" s="4"/>
       <c r="C409" s="4"/>
@@ -6587,7 +7203,7 @@
       <c r="O409" s="4"/>
       <c r="P409" s="4"/>
     </row>
-    <row r="410" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" ht="15.75" customHeight="1" spans="1:16">
       <c r="A410" s="4"/>
       <c r="B410" s="4"/>
       <c r="C410" s="4"/>
@@ -6602,7 +7218,7 @@
       <c r="O410" s="4"/>
       <c r="P410" s="4"/>
     </row>
-    <row r="411" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" ht="15.75" customHeight="1" spans="1:16">
       <c r="A411" s="4"/>
       <c r="B411" s="4"/>
       <c r="C411" s="4"/>
@@ -6617,7 +7233,7 @@
       <c r="O411" s="4"/>
       <c r="P411" s="4"/>
     </row>
-    <row r="412" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" ht="15.75" customHeight="1" spans="1:16">
       <c r="A412" s="4"/>
       <c r="B412" s="4"/>
       <c r="C412" s="4"/>
@@ -6632,7 +7248,7 @@
       <c r="O412" s="4"/>
       <c r="P412" s="4"/>
     </row>
-    <row r="413" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" ht="15.75" customHeight="1" spans="1:16">
       <c r="A413" s="4"/>
       <c r="B413" s="4"/>
       <c r="C413" s="4"/>
@@ -6647,7 +7263,7 @@
       <c r="O413" s="4"/>
       <c r="P413" s="4"/>
     </row>
-    <row r="414" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" ht="15.75" customHeight="1" spans="1:16">
       <c r="A414" s="4"/>
       <c r="B414" s="4"/>
       <c r="C414" s="4"/>
@@ -6662,7 +7278,7 @@
       <c r="O414" s="4"/>
       <c r="P414" s="4"/>
     </row>
-    <row r="415" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" ht="15.75" customHeight="1" spans="1:16">
       <c r="A415" s="4"/>
       <c r="B415" s="4"/>
       <c r="C415" s="4"/>
@@ -6677,7 +7293,7 @@
       <c r="O415" s="4"/>
       <c r="P415" s="4"/>
     </row>
-    <row r="416" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" ht="15.75" customHeight="1" spans="1:16">
       <c r="A416" s="4"/>
       <c r="B416" s="4"/>
       <c r="C416" s="4"/>
@@ -6692,7 +7308,7 @@
       <c r="O416" s="4"/>
       <c r="P416" s="4"/>
     </row>
-    <row r="417" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" ht="15.75" customHeight="1" spans="1:16">
       <c r="A417" s="4"/>
       <c r="B417" s="4"/>
       <c r="C417" s="4"/>
@@ -6707,7 +7323,7 @@
       <c r="O417" s="4"/>
       <c r="P417" s="4"/>
     </row>
-    <row r="418" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" ht="15.75" customHeight="1" spans="1:16">
       <c r="A418" s="4"/>
       <c r="B418" s="4"/>
       <c r="C418" s="4"/>
@@ -6722,7 +7338,7 @@
       <c r="O418" s="4"/>
       <c r="P418" s="4"/>
     </row>
-    <row r="419" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" ht="15.75" customHeight="1" spans="1:16">
       <c r="A419" s="4"/>
       <c r="B419" s="4"/>
       <c r="C419" s="4"/>
@@ -6737,7 +7353,7 @@
       <c r="O419" s="4"/>
       <c r="P419" s="4"/>
     </row>
-    <row r="420" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" ht="15.75" customHeight="1" spans="1:16">
       <c r="A420" s="4"/>
       <c r="B420" s="4"/>
       <c r="C420" s="4"/>
@@ -6752,7 +7368,7 @@
       <c r="O420" s="4"/>
       <c r="P420" s="4"/>
     </row>
-    <row r="421" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" ht="15.75" customHeight="1" spans="1:16">
       <c r="A421" s="4"/>
       <c r="B421" s="4"/>
       <c r="C421" s="4"/>
@@ -6767,7 +7383,7 @@
       <c r="O421" s="4"/>
       <c r="P421" s="4"/>
     </row>
-    <row r="422" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" ht="15.75" customHeight="1" spans="1:16">
       <c r="A422" s="4"/>
       <c r="B422" s="4"/>
       <c r="C422" s="4"/>
@@ -6782,7 +7398,7 @@
       <c r="O422" s="4"/>
       <c r="P422" s="4"/>
     </row>
-    <row r="423" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" ht="15.75" customHeight="1" spans="1:16">
       <c r="A423" s="4"/>
       <c r="B423" s="4"/>
       <c r="C423" s="4"/>
@@ -6797,7 +7413,7 @@
       <c r="O423" s="4"/>
       <c r="P423" s="4"/>
     </row>
-    <row r="424" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" ht="15.75" customHeight="1" spans="1:16">
       <c r="A424" s="4"/>
       <c r="B424" s="4"/>
       <c r="C424" s="4"/>
@@ -6812,7 +7428,7 @@
       <c r="O424" s="4"/>
       <c r="P424" s="4"/>
     </row>
-    <row r="425" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" ht="15.75" customHeight="1" spans="1:16">
       <c r="A425" s="4"/>
       <c r="B425" s="4"/>
       <c r="C425" s="4"/>
@@ -6827,7 +7443,7 @@
       <c r="O425" s="4"/>
       <c r="P425" s="4"/>
     </row>
-    <row r="426" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" ht="15.75" customHeight="1" spans="1:16">
       <c r="A426" s="4"/>
       <c r="B426" s="4"/>
       <c r="C426" s="4"/>
@@ -6842,7 +7458,7 @@
       <c r="O426" s="4"/>
       <c r="P426" s="4"/>
     </row>
-    <row r="427" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" ht="15.75" customHeight="1" spans="1:16">
       <c r="A427" s="4"/>
       <c r="B427" s="4"/>
       <c r="C427" s="4"/>
@@ -6857,7 +7473,7 @@
       <c r="O427" s="4"/>
       <c r="P427" s="4"/>
     </row>
-    <row r="428" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" ht="15.75" customHeight="1" spans="1:16">
       <c r="A428" s="4"/>
       <c r="B428" s="4"/>
       <c r="C428" s="4"/>
@@ -6872,7 +7488,7 @@
       <c r="O428" s="4"/>
       <c r="P428" s="4"/>
     </row>
-    <row r="429" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" ht="15.75" customHeight="1" spans="1:16">
       <c r="A429" s="4"/>
       <c r="B429" s="4"/>
       <c r="C429" s="4"/>
@@ -6887,7 +7503,7 @@
       <c r="O429" s="4"/>
       <c r="P429" s="4"/>
     </row>
-    <row r="430" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" ht="15.75" customHeight="1" spans="1:16">
       <c r="A430" s="4"/>
       <c r="B430" s="4"/>
       <c r="C430" s="4"/>
@@ -6902,7 +7518,7 @@
       <c r="O430" s="4"/>
       <c r="P430" s="4"/>
     </row>
-    <row r="431" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" ht="15.75" customHeight="1" spans="1:16">
       <c r="A431" s="4"/>
       <c r="B431" s="4"/>
       <c r="C431" s="4"/>
@@ -6917,7 +7533,7 @@
       <c r="O431" s="4"/>
       <c r="P431" s="4"/>
     </row>
-    <row r="432" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" ht="15.75" customHeight="1" spans="1:16">
       <c r="A432" s="4"/>
       <c r="B432" s="4"/>
       <c r="C432" s="4"/>
@@ -6932,7 +7548,7 @@
       <c r="O432" s="4"/>
       <c r="P432" s="4"/>
     </row>
-    <row r="433" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" ht="15.75" customHeight="1" spans="1:16">
       <c r="A433" s="4"/>
       <c r="B433" s="4"/>
       <c r="C433" s="4"/>
@@ -6947,7 +7563,7 @@
       <c r="O433" s="4"/>
       <c r="P433" s="4"/>
     </row>
-    <row r="434" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" ht="15.75" customHeight="1" spans="1:16">
       <c r="A434" s="4"/>
       <c r="B434" s="4"/>
       <c r="C434" s="4"/>
@@ -6962,7 +7578,7 @@
       <c r="O434" s="4"/>
       <c r="P434" s="4"/>
     </row>
-    <row r="435" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" ht="15.75" customHeight="1" spans="1:16">
       <c r="A435" s="4"/>
       <c r="B435" s="4"/>
       <c r="C435" s="4"/>
@@ -6977,7 +7593,7 @@
       <c r="O435" s="4"/>
       <c r="P435" s="4"/>
     </row>
-    <row r="436" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" ht="15.75" customHeight="1" spans="1:16">
       <c r="A436" s="4"/>
       <c r="B436" s="4"/>
       <c r="C436" s="4"/>
@@ -6992,7 +7608,7 @@
       <c r="O436" s="4"/>
       <c r="P436" s="4"/>
     </row>
-    <row r="437" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" ht="15.75" customHeight="1" spans="1:16">
       <c r="A437" s="4"/>
       <c r="B437" s="4"/>
       <c r="C437" s="4"/>
@@ -7007,7 +7623,7 @@
       <c r="O437" s="4"/>
       <c r="P437" s="4"/>
     </row>
-    <row r="438" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" ht="15.75" customHeight="1" spans="1:16">
       <c r="A438" s="4"/>
       <c r="B438" s="4"/>
       <c r="C438" s="4"/>
@@ -7022,7 +7638,7 @@
       <c r="O438" s="4"/>
       <c r="P438" s="4"/>
     </row>
-    <row r="439" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" ht="15.75" customHeight="1" spans="1:16">
       <c r="A439" s="4"/>
       <c r="B439" s="4"/>
       <c r="C439" s="4"/>
@@ -7037,7 +7653,7 @@
       <c r="O439" s="4"/>
       <c r="P439" s="4"/>
     </row>
-    <row r="440" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" ht="15.75" customHeight="1" spans="1:16">
       <c r="A440" s="4"/>
       <c r="B440" s="4"/>
       <c r="C440" s="4"/>
@@ -7052,7 +7668,7 @@
       <c r="O440" s="4"/>
       <c r="P440" s="4"/>
     </row>
-    <row r="441" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" ht="15.75" customHeight="1" spans="1:16">
       <c r="A441" s="4"/>
       <c r="B441" s="4"/>
       <c r="C441" s="4"/>
@@ -7067,7 +7683,7 @@
       <c r="O441" s="4"/>
       <c r="P441" s="4"/>
     </row>
-    <row r="442" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" ht="15.75" customHeight="1" spans="1:16">
       <c r="A442" s="4"/>
       <c r="B442" s="4"/>
       <c r="C442" s="4"/>
@@ -7082,7 +7698,7 @@
       <c r="O442" s="4"/>
       <c r="P442" s="4"/>
     </row>
-    <row r="443" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" ht="15.75" customHeight="1" spans="1:16">
       <c r="A443" s="4"/>
       <c r="B443" s="4"/>
       <c r="C443" s="4"/>
@@ -7097,7 +7713,7 @@
       <c r="O443" s="4"/>
       <c r="P443" s="4"/>
     </row>
-    <row r="444" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" ht="15.75" customHeight="1" spans="1:16">
       <c r="A444" s="4"/>
       <c r="B444" s="4"/>
       <c r="C444" s="4"/>
@@ -7112,7 +7728,7 @@
       <c r="O444" s="4"/>
       <c r="P444" s="4"/>
     </row>
-    <row r="445" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" ht="15.75" customHeight="1" spans="1:16">
       <c r="A445" s="4"/>
       <c r="B445" s="4"/>
       <c r="C445" s="4"/>
@@ -7127,7 +7743,7 @@
       <c r="O445" s="4"/>
       <c r="P445" s="4"/>
     </row>
-    <row r="446" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" ht="15.75" customHeight="1" spans="1:16">
       <c r="A446" s="4"/>
       <c r="B446" s="4"/>
       <c r="C446" s="4"/>
@@ -7142,7 +7758,7 @@
       <c r="O446" s="4"/>
       <c r="P446" s="4"/>
     </row>
-    <row r="447" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" ht="15.75" customHeight="1" spans="1:16">
       <c r="A447" s="4"/>
       <c r="B447" s="4"/>
       <c r="C447" s="4"/>
@@ -7157,7 +7773,7 @@
       <c r="O447" s="4"/>
       <c r="P447" s="4"/>
     </row>
-    <row r="448" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" ht="15.75" customHeight="1" spans="1:16">
       <c r="A448" s="4"/>
       <c r="B448" s="4"/>
       <c r="C448" s="4"/>
@@ -7172,7 +7788,7 @@
       <c r="O448" s="4"/>
       <c r="P448" s="4"/>
     </row>
-    <row r="449" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" ht="15.75" customHeight="1" spans="1:16">
       <c r="A449" s="4"/>
       <c r="B449" s="4"/>
       <c r="C449" s="4"/>
@@ -7187,7 +7803,7 @@
       <c r="O449" s="4"/>
       <c r="P449" s="4"/>
     </row>
-    <row r="450" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" ht="15.75" customHeight="1" spans="1:16">
       <c r="A450" s="4"/>
       <c r="B450" s="4"/>
       <c r="C450" s="4"/>
@@ -7202,7 +7818,7 @@
       <c r="O450" s="4"/>
       <c r="P450" s="4"/>
     </row>
-    <row r="451" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" ht="15.75" customHeight="1" spans="1:16">
       <c r="A451" s="4"/>
       <c r="B451" s="4"/>
       <c r="C451" s="4"/>
@@ -7217,7 +7833,7 @@
       <c r="O451" s="4"/>
       <c r="P451" s="4"/>
     </row>
-    <row r="452" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" ht="15.75" customHeight="1" spans="1:16">
       <c r="A452" s="4"/>
       <c r="B452" s="4"/>
       <c r="C452" s="4"/>
@@ -7232,7 +7848,7 @@
       <c r="O452" s="4"/>
       <c r="P452" s="4"/>
     </row>
-    <row r="453" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" ht="15.75" customHeight="1" spans="1:16">
       <c r="A453" s="4"/>
       <c r="B453" s="4"/>
       <c r="C453" s="4"/>
@@ -7247,7 +7863,7 @@
       <c r="O453" s="4"/>
       <c r="P453" s="4"/>
     </row>
-    <row r="454" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" ht="15.75" customHeight="1" spans="1:16">
       <c r="A454" s="4"/>
       <c r="B454" s="4"/>
       <c r="C454" s="4"/>
@@ -7262,7 +7878,7 @@
       <c r="O454" s="4"/>
       <c r="P454" s="4"/>
     </row>
-    <row r="455" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" ht="15.75" customHeight="1" spans="1:16">
       <c r="A455" s="4"/>
       <c r="B455" s="4"/>
       <c r="C455" s="4"/>
@@ -7277,7 +7893,7 @@
       <c r="O455" s="4"/>
       <c r="P455" s="4"/>
     </row>
-    <row r="456" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" ht="15.75" customHeight="1" spans="1:16">
       <c r="A456" s="4"/>
       <c r="B456" s="4"/>
       <c r="C456" s="4"/>
@@ -7292,7 +7908,7 @@
       <c r="O456" s="4"/>
       <c r="P456" s="4"/>
     </row>
-    <row r="457" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" ht="15.75" customHeight="1" spans="1:16">
       <c r="A457" s="4"/>
       <c r="B457" s="4"/>
       <c r="C457" s="4"/>
@@ -7307,7 +7923,7 @@
       <c r="O457" s="4"/>
       <c r="P457" s="4"/>
     </row>
-    <row r="458" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" ht="15.75" customHeight="1" spans="1:16">
       <c r="A458" s="4"/>
       <c r="B458" s="4"/>
       <c r="C458" s="4"/>
@@ -7322,7 +7938,7 @@
       <c r="O458" s="4"/>
       <c r="P458" s="4"/>
     </row>
-    <row r="459" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" ht="15.75" customHeight="1" spans="1:16">
       <c r="A459" s="4"/>
       <c r="B459" s="4"/>
       <c r="C459" s="4"/>
@@ -7337,7 +7953,7 @@
       <c r="O459" s="4"/>
       <c r="P459" s="4"/>
     </row>
-    <row r="460" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" ht="15.75" customHeight="1" spans="1:16">
       <c r="A460" s="4"/>
       <c r="B460" s="4"/>
       <c r="C460" s="4"/>
@@ -7352,7 +7968,7 @@
       <c r="O460" s="4"/>
       <c r="P460" s="4"/>
     </row>
-    <row r="461" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" ht="15.75" customHeight="1" spans="1:16">
       <c r="A461" s="4"/>
       <c r="B461" s="4"/>
       <c r="C461" s="4"/>
@@ -7367,7 +7983,7 @@
       <c r="O461" s="4"/>
       <c r="P461" s="4"/>
     </row>
-    <row r="462" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" ht="15.75" customHeight="1" spans="1:16">
       <c r="A462" s="4"/>
       <c r="B462" s="4"/>
       <c r="C462" s="4"/>
@@ -7382,7 +7998,7 @@
       <c r="O462" s="4"/>
       <c r="P462" s="4"/>
     </row>
-    <row r="463" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" ht="15.75" customHeight="1" spans="1:16">
       <c r="A463" s="4"/>
       <c r="B463" s="4"/>
       <c r="C463" s="4"/>
@@ -7397,7 +8013,7 @@
       <c r="O463" s="4"/>
       <c r="P463" s="4"/>
     </row>
-    <row r="464" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" ht="15.75" customHeight="1" spans="1:16">
       <c r="A464" s="4"/>
       <c r="B464" s="4"/>
       <c r="C464" s="4"/>
@@ -7412,7 +8028,7 @@
       <c r="O464" s="4"/>
       <c r="P464" s="4"/>
     </row>
-    <row r="465" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" ht="15.75" customHeight="1" spans="1:16">
       <c r="A465" s="4"/>
       <c r="B465" s="4"/>
       <c r="C465" s="4"/>
@@ -7427,7 +8043,7 @@
       <c r="O465" s="4"/>
       <c r="P465" s="4"/>
     </row>
-    <row r="466" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" ht="15.75" customHeight="1" spans="1:16">
       <c r="A466" s="4"/>
       <c r="B466" s="4"/>
       <c r="C466" s="4"/>
@@ -7442,7 +8058,7 @@
       <c r="O466" s="4"/>
       <c r="P466" s="4"/>
     </row>
-    <row r="467" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" ht="15.75" customHeight="1" spans="1:16">
       <c r="A467" s="4"/>
       <c r="B467" s="4"/>
       <c r="C467" s="4"/>
@@ -7457,7 +8073,7 @@
       <c r="O467" s="4"/>
       <c r="P467" s="4"/>
     </row>
-    <row r="468" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" ht="15.75" customHeight="1" spans="1:16">
       <c r="A468" s="4"/>
       <c r="B468" s="4"/>
       <c r="C468" s="4"/>
@@ -7472,7 +8088,7 @@
       <c r="O468" s="4"/>
       <c r="P468" s="4"/>
     </row>
-    <row r="469" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" ht="15.75" customHeight="1" spans="1:16">
       <c r="A469" s="4"/>
       <c r="B469" s="4"/>
       <c r="C469" s="4"/>
@@ -7487,7 +8103,7 @@
       <c r="O469" s="4"/>
       <c r="P469" s="4"/>
     </row>
-    <row r="470" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" ht="15.75" customHeight="1" spans="1:16">
       <c r="A470" s="4"/>
       <c r="B470" s="4"/>
       <c r="C470" s="4"/>
@@ -7502,7 +8118,7 @@
       <c r="O470" s="4"/>
       <c r="P470" s="4"/>
     </row>
-    <row r="471" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" ht="15.75" customHeight="1" spans="1:16">
       <c r="A471" s="4"/>
       <c r="B471" s="4"/>
       <c r="C471" s="4"/>
@@ -7517,7 +8133,7 @@
       <c r="O471" s="4"/>
       <c r="P471" s="4"/>
     </row>
-    <row r="472" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" ht="15.75" customHeight="1" spans="1:16">
       <c r="A472" s="4"/>
       <c r="B472" s="4"/>
       <c r="C472" s="4"/>
@@ -7532,7 +8148,7 @@
       <c r="O472" s="4"/>
       <c r="P472" s="4"/>
     </row>
-    <row r="473" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" ht="15.75" customHeight="1" spans="1:16">
       <c r="A473" s="4"/>
       <c r="B473" s="4"/>
       <c r="C473" s="4"/>
@@ -7547,7 +8163,7 @@
       <c r="O473" s="4"/>
       <c r="P473" s="4"/>
     </row>
-    <row r="474" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" ht="15.75" customHeight="1" spans="1:16">
       <c r="A474" s="4"/>
       <c r="B474" s="4"/>
       <c r="C474" s="4"/>
@@ -7562,7 +8178,7 @@
       <c r="O474" s="4"/>
       <c r="P474" s="4"/>
     </row>
-    <row r="475" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" ht="15.75" customHeight="1" spans="1:16">
       <c r="A475" s="4"/>
       <c r="B475" s="4"/>
       <c r="C475" s="4"/>
@@ -7577,7 +8193,7 @@
       <c r="O475" s="4"/>
       <c r="P475" s="4"/>
     </row>
-    <row r="476" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" ht="15.75" customHeight="1" spans="1:16">
       <c r="A476" s="4"/>
       <c r="B476" s="4"/>
       <c r="C476" s="4"/>
@@ -7592,7 +8208,7 @@
       <c r="O476" s="4"/>
       <c r="P476" s="4"/>
     </row>
-    <row r="477" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" ht="15.75" customHeight="1" spans="1:16">
       <c r="A477" s="4"/>
       <c r="B477" s="4"/>
       <c r="C477" s="4"/>
@@ -7607,7 +8223,7 @@
       <c r="O477" s="4"/>
       <c r="P477" s="4"/>
     </row>
-    <row r="478" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" ht="15.75" customHeight="1" spans="1:16">
       <c r="A478" s="4"/>
       <c r="B478" s="4"/>
       <c r="C478" s="4"/>
@@ -7622,7 +8238,7 @@
       <c r="O478" s="4"/>
       <c r="P478" s="4"/>
     </row>
-    <row r="479" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" ht="15.75" customHeight="1" spans="1:16">
       <c r="A479" s="4"/>
       <c r="B479" s="4"/>
       <c r="C479" s="4"/>
@@ -7637,7 +8253,7 @@
       <c r="O479" s="4"/>
       <c r="P479" s="4"/>
     </row>
-    <row r="480" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" ht="15.75" customHeight="1" spans="1:16">
       <c r="A480" s="4"/>
       <c r="B480" s="4"/>
       <c r="C480" s="4"/>
@@ -7652,7 +8268,7 @@
       <c r="O480" s="4"/>
       <c r="P480" s="4"/>
     </row>
-    <row r="481" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" ht="15.75" customHeight="1" spans="1:16">
       <c r="A481" s="4"/>
       <c r="B481" s="4"/>
       <c r="C481" s="4"/>
@@ -7667,7 +8283,7 @@
       <c r="O481" s="4"/>
       <c r="P481" s="4"/>
     </row>
-    <row r="482" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" ht="15.75" customHeight="1" spans="1:16">
       <c r="A482" s="4"/>
       <c r="B482" s="4"/>
       <c r="C482" s="4"/>
@@ -7682,7 +8298,7 @@
       <c r="O482" s="4"/>
       <c r="P482" s="4"/>
     </row>
-    <row r="483" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" ht="15.75" customHeight="1" spans="1:16">
       <c r="A483" s="4"/>
       <c r="B483" s="4"/>
       <c r="C483" s="4"/>
@@ -7697,7 +8313,7 @@
       <c r="O483" s="4"/>
       <c r="P483" s="4"/>
     </row>
-    <row r="484" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" ht="15.75" customHeight="1" spans="1:16">
       <c r="A484" s="4"/>
       <c r="B484" s="4"/>
       <c r="C484" s="4"/>
@@ -7712,7 +8328,7 @@
       <c r="O484" s="4"/>
       <c r="P484" s="4"/>
     </row>
-    <row r="485" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" ht="15.75" customHeight="1" spans="1:16">
       <c r="A485" s="4"/>
       <c r="B485" s="4"/>
       <c r="C485" s="4"/>
@@ -7727,7 +8343,7 @@
       <c r="O485" s="4"/>
       <c r="P485" s="4"/>
     </row>
-    <row r="486" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" ht="15.75" customHeight="1" spans="1:16">
       <c r="A486" s="4"/>
       <c r="B486" s="4"/>
       <c r="C486" s="4"/>
@@ -7742,7 +8358,7 @@
       <c r="O486" s="4"/>
       <c r="P486" s="4"/>
     </row>
-    <row r="487" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" ht="15.75" customHeight="1" spans="1:16">
       <c r="A487" s="4"/>
       <c r="B487" s="4"/>
       <c r="C487" s="4"/>
@@ -7757,7 +8373,7 @@
       <c r="O487" s="4"/>
       <c r="P487" s="4"/>
     </row>
-    <row r="488" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" ht="15.75" customHeight="1" spans="1:16">
       <c r="A488" s="4"/>
       <c r="B488" s="4"/>
       <c r="C488" s="4"/>
@@ -7772,7 +8388,7 @@
       <c r="O488" s="4"/>
       <c r="P488" s="4"/>
     </row>
-    <row r="489" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" ht="15.75" customHeight="1" spans="1:16">
       <c r="A489" s="4"/>
       <c r="B489" s="4"/>
       <c r="C489" s="4"/>
@@ -7787,7 +8403,7 @@
       <c r="O489" s="4"/>
       <c r="P489" s="4"/>
     </row>
-    <row r="490" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" ht="15.75" customHeight="1" spans="1:16">
       <c r="A490" s="4"/>
       <c r="B490" s="4"/>
       <c r="C490" s="4"/>
@@ -7802,7 +8418,7 @@
       <c r="O490" s="4"/>
       <c r="P490" s="4"/>
     </row>
-    <row r="491" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" ht="15.75" customHeight="1" spans="1:16">
       <c r="A491" s="4"/>
       <c r="B491" s="4"/>
       <c r="C491" s="4"/>
@@ -7817,7 +8433,7 @@
       <c r="O491" s="4"/>
       <c r="P491" s="4"/>
     </row>
-    <row r="492" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" ht="15.75" customHeight="1" spans="1:16">
       <c r="A492" s="4"/>
       <c r="B492" s="4"/>
       <c r="C492" s="4"/>
@@ -7832,7 +8448,7 @@
       <c r="O492" s="4"/>
       <c r="P492" s="4"/>
     </row>
-    <row r="493" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" ht="15.75" customHeight="1" spans="1:16">
       <c r="A493" s="4"/>
       <c r="B493" s="4"/>
       <c r="C493" s="4"/>
@@ -7847,7 +8463,7 @@
       <c r="O493" s="4"/>
       <c r="P493" s="4"/>
     </row>
-    <row r="494" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" ht="15.75" customHeight="1" spans="1:16">
       <c r="A494" s="4"/>
       <c r="B494" s="4"/>
       <c r="C494" s="4"/>
@@ -7862,7 +8478,7 @@
       <c r="O494" s="4"/>
       <c r="P494" s="4"/>
     </row>
-    <row r="495" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" ht="15.75" customHeight="1" spans="1:16">
       <c r="A495" s="4"/>
       <c r="B495" s="4"/>
       <c r="C495" s="4"/>
@@ -7877,7 +8493,7 @@
       <c r="O495" s="4"/>
       <c r="P495" s="4"/>
     </row>
-    <row r="496" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" ht="15.75" customHeight="1" spans="1:16">
       <c r="A496" s="4"/>
       <c r="B496" s="4"/>
       <c r="C496" s="4"/>
@@ -7892,7 +8508,7 @@
       <c r="O496" s="4"/>
       <c r="P496" s="4"/>
     </row>
-    <row r="497" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" ht="15.75" customHeight="1" spans="1:16">
       <c r="A497" s="4"/>
       <c r="B497" s="4"/>
       <c r="C497" s="4"/>
@@ -7907,7 +8523,7 @@
       <c r="O497" s="4"/>
       <c r="P497" s="4"/>
     </row>
-    <row r="498" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" ht="15.75" customHeight="1" spans="1:16">
       <c r="A498" s="4"/>
       <c r="B498" s="4"/>
       <c r="C498" s="4"/>
@@ -7922,7 +8538,7 @@
       <c r="O498" s="4"/>
       <c r="P498" s="4"/>
     </row>
-    <row r="499" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" ht="15.75" customHeight="1" spans="1:16">
       <c r="A499" s="4"/>
       <c r="B499" s="4"/>
       <c r="C499" s="4"/>
@@ -7937,7 +8553,7 @@
       <c r="O499" s="4"/>
       <c r="P499" s="4"/>
     </row>
-    <row r="500" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" ht="15.75" customHeight="1" spans="1:16">
       <c r="A500" s="4"/>
       <c r="B500" s="4"/>
       <c r="C500" s="4"/>
@@ -7952,7 +8568,7 @@
       <c r="O500" s="4"/>
       <c r="P500" s="4"/>
     </row>
-    <row r="501" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" ht="15.75" customHeight="1" spans="1:16">
       <c r="A501" s="4"/>
       <c r="B501" s="4"/>
       <c r="C501" s="4"/>
@@ -7967,7 +8583,7 @@
       <c r="O501" s="4"/>
       <c r="P501" s="4"/>
     </row>
-    <row r="502" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" ht="15.75" customHeight="1" spans="1:16">
       <c r="A502" s="4"/>
       <c r="B502" s="4"/>
       <c r="C502" s="4"/>
@@ -7982,7 +8598,7 @@
       <c r="O502" s="4"/>
       <c r="P502" s="4"/>
     </row>
-    <row r="503" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" ht="15.75" customHeight="1" spans="1:16">
       <c r="A503" s="4"/>
       <c r="B503" s="4"/>
       <c r="C503" s="4"/>
@@ -7997,7 +8613,7 @@
       <c r="O503" s="4"/>
       <c r="P503" s="4"/>
     </row>
-    <row r="504" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" ht="15.75" customHeight="1" spans="1:16">
       <c r="A504" s="4"/>
       <c r="B504" s="4"/>
       <c r="C504" s="4"/>
@@ -8012,7 +8628,7 @@
       <c r="O504" s="4"/>
       <c r="P504" s="4"/>
     </row>
-    <row r="505" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" ht="15.75" customHeight="1" spans="1:16">
       <c r="A505" s="4"/>
       <c r="B505" s="4"/>
       <c r="C505" s="4"/>
@@ -8027,7 +8643,7 @@
       <c r="O505" s="4"/>
       <c r="P505" s="4"/>
     </row>
-    <row r="506" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" ht="15.75" customHeight="1" spans="1:16">
       <c r="A506" s="4"/>
       <c r="B506" s="4"/>
       <c r="C506" s="4"/>
@@ -8042,7 +8658,7 @@
       <c r="O506" s="4"/>
       <c r="P506" s="4"/>
     </row>
-    <row r="507" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" ht="15.75" customHeight="1" spans="1:16">
       <c r="A507" s="4"/>
       <c r="B507" s="4"/>
       <c r="C507" s="4"/>
@@ -8057,7 +8673,7 @@
       <c r="O507" s="4"/>
       <c r="P507" s="4"/>
     </row>
-    <row r="508" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" ht="15.75" customHeight="1" spans="1:16">
       <c r="A508" s="4"/>
       <c r="B508" s="4"/>
       <c r="C508" s="4"/>
@@ -8072,7 +8688,7 @@
       <c r="O508" s="4"/>
       <c r="P508" s="4"/>
     </row>
-    <row r="509" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" ht="15.75" customHeight="1" spans="1:16">
       <c r="A509" s="4"/>
       <c r="B509" s="4"/>
       <c r="C509" s="4"/>
@@ -8087,7 +8703,7 @@
       <c r="O509" s="4"/>
       <c r="P509" s="4"/>
     </row>
-    <row r="510" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" ht="15.75" customHeight="1" spans="1:16">
       <c r="A510" s="4"/>
       <c r="B510" s="4"/>
       <c r="C510" s="4"/>
@@ -8102,7 +8718,7 @@
       <c r="O510" s="4"/>
       <c r="P510" s="4"/>
     </row>
-    <row r="511" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" ht="15.75" customHeight="1" spans="1:16">
       <c r="A511" s="4"/>
       <c r="B511" s="4"/>
       <c r="C511" s="4"/>
@@ -8117,7 +8733,7 @@
       <c r="O511" s="4"/>
       <c r="P511" s="4"/>
     </row>
-    <row r="512" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" ht="15.75" customHeight="1" spans="1:16">
       <c r="A512" s="4"/>
       <c r="B512" s="4"/>
       <c r="C512" s="4"/>
@@ -8132,7 +8748,7 @@
       <c r="O512" s="4"/>
       <c r="P512" s="4"/>
     </row>
-    <row r="513" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" ht="15.75" customHeight="1" spans="1:16">
       <c r="A513" s="4"/>
       <c r="B513" s="4"/>
       <c r="C513" s="4"/>
@@ -8147,7 +8763,7 @@
       <c r="O513" s="4"/>
       <c r="P513" s="4"/>
     </row>
-    <row r="514" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" ht="15.75" customHeight="1" spans="1:16">
       <c r="A514" s="4"/>
       <c r="B514" s="4"/>
       <c r="C514" s="4"/>
@@ -8162,7 +8778,7 @@
       <c r="O514" s="4"/>
       <c r="P514" s="4"/>
     </row>
-    <row r="515" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" ht="15.75" customHeight="1" spans="1:16">
       <c r="A515" s="4"/>
       <c r="B515" s="4"/>
       <c r="C515" s="4"/>
@@ -8177,7 +8793,7 @@
       <c r="O515" s="4"/>
       <c r="P515" s="4"/>
     </row>
-    <row r="516" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" ht="15.75" customHeight="1" spans="1:16">
       <c r="A516" s="4"/>
       <c r="B516" s="4"/>
       <c r="C516" s="4"/>
@@ -8192,7 +8808,7 @@
       <c r="O516" s="4"/>
       <c r="P516" s="4"/>
     </row>
-    <row r="517" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" ht="15.75" customHeight="1" spans="1:16">
       <c r="A517" s="4"/>
       <c r="B517" s="4"/>
       <c r="C517" s="4"/>
@@ -8207,7 +8823,7 @@
       <c r="O517" s="4"/>
       <c r="P517" s="4"/>
     </row>
-    <row r="518" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" ht="15.75" customHeight="1" spans="1:16">
       <c r="A518" s="4"/>
       <c r="B518" s="4"/>
       <c r="C518" s="4"/>
@@ -8222,7 +8838,7 @@
       <c r="O518" s="4"/>
       <c r="P518" s="4"/>
     </row>
-    <row r="519" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" ht="15.75" customHeight="1" spans="1:16">
       <c r="A519" s="4"/>
       <c r="B519" s="4"/>
       <c r="C519" s="4"/>
@@ -8237,7 +8853,7 @@
       <c r="O519" s="4"/>
       <c r="P519" s="4"/>
     </row>
-    <row r="520" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" ht="15.75" customHeight="1" spans="1:16">
       <c r="A520" s="4"/>
       <c r="B520" s="4"/>
       <c r="C520" s="4"/>
@@ -8252,7 +8868,7 @@
       <c r="O520" s="4"/>
       <c r="P520" s="4"/>
     </row>
-    <row r="521" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" ht="15.75" customHeight="1" spans="1:16">
       <c r="A521" s="4"/>
       <c r="B521" s="4"/>
       <c r="C521" s="4"/>
@@ -8267,7 +8883,7 @@
       <c r="O521" s="4"/>
       <c r="P521" s="4"/>
     </row>
-    <row r="522" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" ht="15.75" customHeight="1" spans="1:16">
       <c r="A522" s="4"/>
       <c r="B522" s="4"/>
       <c r="C522" s="4"/>
@@ -8282,7 +8898,7 @@
       <c r="O522" s="4"/>
       <c r="P522" s="4"/>
     </row>
-    <row r="523" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" ht="15.75" customHeight="1" spans="1:16">
       <c r="A523" s="4"/>
       <c r="B523" s="4"/>
       <c r="C523" s="4"/>
@@ -8297,7 +8913,7 @@
       <c r="O523" s="4"/>
       <c r="P523" s="4"/>
     </row>
-    <row r="524" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" ht="15.75" customHeight="1" spans="1:16">
       <c r="A524" s="4"/>
       <c r="B524" s="4"/>
       <c r="C524" s="4"/>
@@ -8312,7 +8928,7 @@
       <c r="O524" s="4"/>
       <c r="P524" s="4"/>
     </row>
-    <row r="525" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" ht="15.75" customHeight="1" spans="1:16">
       <c r="A525" s="4"/>
       <c r="B525" s="4"/>
       <c r="C525" s="4"/>
@@ -8327,7 +8943,7 @@
       <c r="O525" s="4"/>
       <c r="P525" s="4"/>
     </row>
-    <row r="526" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" ht="15.75" customHeight="1" spans="1:16">
       <c r="A526" s="4"/>
       <c r="B526" s="4"/>
       <c r="C526" s="4"/>
@@ -8342,7 +8958,7 @@
       <c r="O526" s="4"/>
       <c r="P526" s="4"/>
     </row>
-    <row r="527" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" ht="15.75" customHeight="1" spans="1:16">
       <c r="A527" s="4"/>
       <c r="B527" s="4"/>
       <c r="C527" s="4"/>
@@ -8357,7 +8973,7 @@
       <c r="O527" s="4"/>
       <c r="P527" s="4"/>
     </row>
-    <row r="528" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" ht="15.75" customHeight="1" spans="1:16">
       <c r="A528" s="4"/>
       <c r="B528" s="4"/>
       <c r="C528" s="4"/>
@@ -8372,7 +8988,7 @@
       <c r="O528" s="4"/>
       <c r="P528" s="4"/>
     </row>
-    <row r="529" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" ht="15.75" customHeight="1" spans="1:16">
       <c r="A529" s="4"/>
       <c r="B529" s="4"/>
       <c r="C529" s="4"/>
@@ -8387,7 +9003,7 @@
       <c r="O529" s="4"/>
       <c r="P529" s="4"/>
     </row>
-    <row r="530" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" ht="15.75" customHeight="1" spans="1:16">
       <c r="A530" s="4"/>
       <c r="B530" s="4"/>
       <c r="C530" s="4"/>
@@ -8402,7 +9018,7 @@
       <c r="O530" s="4"/>
       <c r="P530" s="4"/>
     </row>
-    <row r="531" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" ht="15.75" customHeight="1" spans="1:16">
       <c r="A531" s="4"/>
       <c r="B531" s="4"/>
       <c r="C531" s="4"/>
@@ -8417,7 +9033,7 @@
       <c r="O531" s="4"/>
       <c r="P531" s="4"/>
     </row>
-    <row r="532" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" ht="15.75" customHeight="1" spans="1:16">
       <c r="A532" s="4"/>
       <c r="B532" s="4"/>
       <c r="C532" s="4"/>
@@ -8432,7 +9048,7 @@
       <c r="O532" s="4"/>
       <c r="P532" s="4"/>
     </row>
-    <row r="533" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" ht="15.75" customHeight="1" spans="1:16">
       <c r="A533" s="4"/>
       <c r="B533" s="4"/>
       <c r="C533" s="4"/>
@@ -8447,7 +9063,7 @@
       <c r="O533" s="4"/>
       <c r="P533" s="4"/>
     </row>
-    <row r="534" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" ht="15.75" customHeight="1" spans="1:16">
       <c r="A534" s="4"/>
       <c r="B534" s="4"/>
       <c r="C534" s="4"/>
@@ -8462,7 +9078,7 @@
       <c r="O534" s="4"/>
       <c r="P534" s="4"/>
     </row>
-    <row r="535" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" ht="15.75" customHeight="1" spans="1:16">
       <c r="A535" s="4"/>
       <c r="B535" s="4"/>
       <c r="C535" s="4"/>
@@ -8477,7 +9093,7 @@
       <c r="O535" s="4"/>
       <c r="P535" s="4"/>
     </row>
-    <row r="536" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" ht="15.75" customHeight="1" spans="1:16">
       <c r="A536" s="4"/>
       <c r="B536" s="4"/>
       <c r="C536" s="4"/>
@@ -8492,7 +9108,7 @@
       <c r="O536" s="4"/>
       <c r="P536" s="4"/>
     </row>
-    <row r="537" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" ht="15.75" customHeight="1" spans="1:16">
       <c r="A537" s="4"/>
       <c r="B537" s="4"/>
       <c r="C537" s="4"/>
@@ -8507,7 +9123,7 @@
       <c r="O537" s="4"/>
       <c r="P537" s="4"/>
     </row>
-    <row r="538" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" ht="15.75" customHeight="1" spans="1:16">
       <c r="A538" s="4"/>
       <c r="B538" s="4"/>
       <c r="C538" s="4"/>
@@ -8522,7 +9138,7 @@
       <c r="O538" s="4"/>
       <c r="P538" s="4"/>
     </row>
-    <row r="539" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" ht="15.75" customHeight="1" spans="1:16">
       <c r="A539" s="4"/>
       <c r="B539" s="4"/>
       <c r="C539" s="4"/>
@@ -8537,7 +9153,7 @@
       <c r="O539" s="4"/>
       <c r="P539" s="4"/>
     </row>
-    <row r="540" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" ht="15.75" customHeight="1" spans="1:16">
       <c r="A540" s="4"/>
       <c r="B540" s="4"/>
       <c r="C540" s="4"/>
@@ -8552,7 +9168,7 @@
       <c r="O540" s="4"/>
       <c r="P540" s="4"/>
     </row>
-    <row r="541" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" ht="15.75" customHeight="1" spans="1:16">
       <c r="A541" s="4"/>
       <c r="B541" s="4"/>
       <c r="C541" s="4"/>
@@ -8567,7 +9183,7 @@
       <c r="O541" s="4"/>
       <c r="P541" s="4"/>
     </row>
-    <row r="542" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" ht="15.75" customHeight="1" spans="1:16">
       <c r="A542" s="4"/>
       <c r="B542" s="4"/>
       <c r="C542" s="4"/>
@@ -8582,7 +9198,7 @@
       <c r="O542" s="4"/>
       <c r="P542" s="4"/>
     </row>
-    <row r="543" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" ht="15.75" customHeight="1" spans="1:16">
       <c r="A543" s="4"/>
       <c r="B543" s="4"/>
       <c r="C543" s="4"/>
@@ -8597,7 +9213,7 @@
       <c r="O543" s="4"/>
       <c r="P543" s="4"/>
     </row>
-    <row r="544" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" ht="15.75" customHeight="1" spans="1:16">
       <c r="A544" s="4"/>
       <c r="B544" s="4"/>
       <c r="C544" s="4"/>
@@ -8612,7 +9228,7 @@
       <c r="O544" s="4"/>
       <c r="P544" s="4"/>
     </row>
-    <row r="545" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" ht="15.75" customHeight="1" spans="1:16">
       <c r="A545" s="4"/>
       <c r="B545" s="4"/>
       <c r="C545" s="4"/>
@@ -8627,7 +9243,7 @@
       <c r="O545" s="4"/>
       <c r="P545" s="4"/>
     </row>
-    <row r="546" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" ht="15.75" customHeight="1" spans="1:16">
       <c r="A546" s="4"/>
       <c r="B546" s="4"/>
       <c r="C546" s="4"/>
@@ -8642,7 +9258,7 @@
       <c r="O546" s="4"/>
       <c r="P546" s="4"/>
     </row>
-    <row r="547" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" ht="15.75" customHeight="1" spans="1:16">
       <c r="A547" s="4"/>
       <c r="B547" s="4"/>
       <c r="C547" s="4"/>
@@ -8657,7 +9273,7 @@
       <c r="O547" s="4"/>
       <c r="P547" s="4"/>
     </row>
-    <row r="548" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" ht="15.75" customHeight="1" spans="1:16">
       <c r="A548" s="4"/>
       <c r="B548" s="4"/>
       <c r="C548" s="4"/>
@@ -8672,7 +9288,7 @@
       <c r="O548" s="4"/>
       <c r="P548" s="4"/>
     </row>
-    <row r="549" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" ht="15.75" customHeight="1" spans="1:16">
       <c r="A549" s="4"/>
       <c r="B549" s="4"/>
       <c r="C549" s="4"/>
@@ -8687,7 +9303,7 @@
       <c r="O549" s="4"/>
       <c r="P549" s="4"/>
     </row>
-    <row r="550" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" ht="15.75" customHeight="1" spans="1:16">
       <c r="A550" s="4"/>
       <c r="B550" s="4"/>
       <c r="C550" s="4"/>
@@ -8702,7 +9318,7 @@
       <c r="O550" s="4"/>
       <c r="P550" s="4"/>
     </row>
-    <row r="551" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" ht="15.75" customHeight="1" spans="1:16">
       <c r="A551" s="4"/>
       <c r="B551" s="4"/>
       <c r="C551" s="4"/>
@@ -8717,7 +9333,7 @@
       <c r="O551" s="4"/>
       <c r="P551" s="4"/>
     </row>
-    <row r="552" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" ht="15.75" customHeight="1" spans="1:16">
       <c r="A552" s="4"/>
       <c r="B552" s="4"/>
       <c r="C552" s="4"/>
@@ -8732,7 +9348,7 @@
       <c r="O552" s="4"/>
       <c r="P552" s="4"/>
     </row>
-    <row r="553" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" ht="15.75" customHeight="1" spans="1:16">
       <c r="A553" s="4"/>
       <c r="B553" s="4"/>
       <c r="C553" s="4"/>
@@ -8747,7 +9363,7 @@
       <c r="O553" s="4"/>
       <c r="P553" s="4"/>
     </row>
-    <row r="554" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" ht="15.75" customHeight="1" spans="1:16">
       <c r="A554" s="4"/>
       <c r="B554" s="4"/>
       <c r="C554" s="4"/>
@@ -8762,7 +9378,7 @@
       <c r="O554" s="4"/>
       <c r="P554" s="4"/>
     </row>
-    <row r="555" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" ht="15.75" customHeight="1" spans="1:16">
       <c r="A555" s="4"/>
       <c r="B555" s="4"/>
       <c r="C555" s="4"/>
@@ -8777,7 +9393,7 @@
       <c r="O555" s="4"/>
       <c r="P555" s="4"/>
     </row>
-    <row r="556" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" ht="15.75" customHeight="1" spans="1:16">
       <c r="A556" s="4"/>
       <c r="B556" s="4"/>
       <c r="C556" s="4"/>
@@ -8792,7 +9408,7 @@
       <c r="O556" s="4"/>
       <c r="P556" s="4"/>
     </row>
-    <row r="557" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" ht="15.75" customHeight="1" spans="1:16">
       <c r="A557" s="4"/>
       <c r="B557" s="4"/>
       <c r="C557" s="4"/>
@@ -8807,7 +9423,7 @@
       <c r="O557" s="4"/>
       <c r="P557" s="4"/>
     </row>
-    <row r="558" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" ht="15.75" customHeight="1" spans="1:16">
       <c r="A558" s="4"/>
       <c r="B558" s="4"/>
       <c r="C558" s="4"/>
@@ -8822,7 +9438,7 @@
       <c r="O558" s="4"/>
       <c r="P558" s="4"/>
     </row>
-    <row r="559" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" ht="15.75" customHeight="1" spans="1:16">
       <c r="A559" s="4"/>
       <c r="B559" s="4"/>
       <c r="C559" s="4"/>
@@ -8837,7 +9453,7 @@
       <c r="O559" s="4"/>
       <c r="P559" s="4"/>
     </row>
-    <row r="560" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" ht="15.75" customHeight="1" spans="1:16">
       <c r="A560" s="4"/>
       <c r="B560" s="4"/>
       <c r="C560" s="4"/>
@@ -8852,7 +9468,7 @@
       <c r="O560" s="4"/>
       <c r="P560" s="4"/>
     </row>
-    <row r="561" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" ht="15.75" customHeight="1" spans="1:16">
       <c r="A561" s="4"/>
       <c r="B561" s="4"/>
       <c r="C561" s="4"/>
@@ -8867,7 +9483,7 @@
       <c r="O561" s="4"/>
       <c r="P561" s="4"/>
     </row>
-    <row r="562" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" ht="15.75" customHeight="1" spans="1:16">
       <c r="A562" s="4"/>
       <c r="B562" s="4"/>
       <c r="C562" s="4"/>
@@ -8882,7 +9498,7 @@
       <c r="O562" s="4"/>
       <c r="P562" s="4"/>
     </row>
-    <row r="563" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" ht="15.75" customHeight="1" spans="1:16">
       <c r="A563" s="4"/>
       <c r="B563" s="4"/>
       <c r="C563" s="4"/>
@@ -8897,7 +9513,7 @@
       <c r="O563" s="4"/>
       <c r="P563" s="4"/>
     </row>
-    <row r="564" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" ht="15.75" customHeight="1" spans="1:16">
       <c r="A564" s="4"/>
       <c r="B564" s="4"/>
       <c r="C564" s="4"/>
@@ -8912,7 +9528,7 @@
       <c r="O564" s="4"/>
       <c r="P564" s="4"/>
     </row>
-    <row r="565" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" ht="15.75" customHeight="1" spans="1:16">
       <c r="A565" s="4"/>
       <c r="B565" s="4"/>
       <c r="C565" s="4"/>
@@ -8927,7 +9543,7 @@
       <c r="O565" s="4"/>
       <c r="P565" s="4"/>
     </row>
-    <row r="566" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" ht="15.75" customHeight="1" spans="1:16">
       <c r="A566" s="4"/>
       <c r="B566" s="4"/>
       <c r="C566" s="4"/>
@@ -8942,7 +9558,7 @@
       <c r="O566" s="4"/>
       <c r="P566" s="4"/>
     </row>
-    <row r="567" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" ht="15.75" customHeight="1" spans="1:16">
       <c r="A567" s="4"/>
       <c r="B567" s="4"/>
       <c r="C567" s="4"/>
@@ -8957,7 +9573,7 @@
       <c r="O567" s="4"/>
       <c r="P567" s="4"/>
     </row>
-    <row r="568" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" ht="15.75" customHeight="1" spans="1:16">
       <c r="A568" s="4"/>
       <c r="B568" s="4"/>
       <c r="C568" s="4"/>
@@ -8972,7 +9588,7 @@
       <c r="O568" s="4"/>
       <c r="P568" s="4"/>
     </row>
-    <row r="569" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" ht="15.75" customHeight="1" spans="1:16">
       <c r="A569" s="4"/>
       <c r="B569" s="4"/>
       <c r="C569" s="4"/>
@@ -8987,7 +9603,7 @@
       <c r="O569" s="4"/>
       <c r="P569" s="4"/>
     </row>
-    <row r="570" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" ht="15.75" customHeight="1" spans="1:16">
       <c r="A570" s="4"/>
       <c r="B570" s="4"/>
       <c r="C570" s="4"/>
@@ -9002,7 +9618,7 @@
       <c r="O570" s="4"/>
       <c r="P570" s="4"/>
     </row>
-    <row r="571" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" ht="15.75" customHeight="1" spans="1:16">
       <c r="A571" s="4"/>
       <c r="B571" s="4"/>
       <c r="C571" s="4"/>
@@ -9017,7 +9633,7 @@
       <c r="O571" s="4"/>
       <c r="P571" s="4"/>
     </row>
-    <row r="572" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" ht="15.75" customHeight="1" spans="1:16">
       <c r="A572" s="4"/>
       <c r="B572" s="4"/>
       <c r="C572" s="4"/>
@@ -9032,7 +9648,7 @@
       <c r="O572" s="4"/>
       <c r="P572" s="4"/>
     </row>
-    <row r="573" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" ht="15.75" customHeight="1" spans="1:16">
       <c r="A573" s="4"/>
       <c r="B573" s="4"/>
       <c r="C573" s="4"/>
@@ -9047,7 +9663,7 @@
       <c r="O573" s="4"/>
       <c r="P573" s="4"/>
     </row>
-    <row r="574" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" ht="15.75" customHeight="1" spans="1:16">
       <c r="A574" s="4"/>
       <c r="B574" s="4"/>
       <c r="C574" s="4"/>
@@ -9062,7 +9678,7 @@
       <c r="O574" s="4"/>
       <c r="P574" s="4"/>
     </row>
-    <row r="575" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" ht="15.75" customHeight="1" spans="1:16">
       <c r="A575" s="4"/>
       <c r="B575" s="4"/>
       <c r="C575" s="4"/>
@@ -9077,7 +9693,7 @@
       <c r="O575" s="4"/>
       <c r="P575" s="4"/>
     </row>
-    <row r="576" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" ht="15.75" customHeight="1" spans="1:16">
       <c r="A576" s="4"/>
       <c r="B576" s="4"/>
       <c r="C576" s="4"/>
@@ -9092,7 +9708,7 @@
       <c r="O576" s="4"/>
       <c r="P576" s="4"/>
     </row>
-    <row r="577" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" ht="15.75" customHeight="1" spans="1:16">
       <c r="A577" s="4"/>
       <c r="B577" s="4"/>
       <c r="C577" s="4"/>
@@ -9107,7 +9723,7 @@
       <c r="O577" s="4"/>
       <c r="P577" s="4"/>
     </row>
-    <row r="578" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" ht="15.75" customHeight="1" spans="1:16">
       <c r="A578" s="4"/>
       <c r="B578" s="4"/>
       <c r="C578" s="4"/>
@@ -9122,7 +9738,7 @@
       <c r="O578" s="4"/>
       <c r="P578" s="4"/>
     </row>
-    <row r="579" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" ht="15.75" customHeight="1" spans="1:16">
       <c r="A579" s="4"/>
       <c r="B579" s="4"/>
       <c r="C579" s="4"/>
@@ -9137,7 +9753,7 @@
       <c r="O579" s="4"/>
       <c r="P579" s="4"/>
     </row>
-    <row r="580" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" ht="15.75" customHeight="1" spans="1:16">
       <c r="A580" s="4"/>
       <c r="B580" s="4"/>
       <c r="C580" s="4"/>
@@ -9152,7 +9768,7 @@
       <c r="O580" s="4"/>
       <c r="P580" s="4"/>
     </row>
-    <row r="581" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" ht="15.75" customHeight="1" spans="1:16">
       <c r="A581" s="4"/>
       <c r="B581" s="4"/>
       <c r="C581" s="4"/>
@@ -9167,7 +9783,7 @@
       <c r="O581" s="4"/>
       <c r="P581" s="4"/>
     </row>
-    <row r="582" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" ht="15.75" customHeight="1" spans="1:16">
       <c r="A582" s="4"/>
       <c r="B582" s="4"/>
       <c r="C582" s="4"/>
@@ -9182,7 +9798,7 @@
       <c r="O582" s="4"/>
       <c r="P582" s="4"/>
     </row>
-    <row r="583" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" ht="15.75" customHeight="1" spans="1:16">
       <c r="A583" s="4"/>
       <c r="B583" s="4"/>
       <c r="C583" s="4"/>
@@ -9197,7 +9813,7 @@
       <c r="O583" s="4"/>
       <c r="P583" s="4"/>
     </row>
-    <row r="584" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" ht="15.75" customHeight="1" spans="1:16">
       <c r="A584" s="4"/>
       <c r="B584" s="4"/>
       <c r="C584" s="4"/>
@@ -9212,7 +9828,7 @@
       <c r="O584" s="4"/>
       <c r="P584" s="4"/>
     </row>
-    <row r="585" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" ht="15.75" customHeight="1" spans="1:16">
       <c r="A585" s="4"/>
       <c r="B585" s="4"/>
       <c r="C585" s="4"/>
@@ -9227,7 +9843,7 @@
       <c r="O585" s="4"/>
       <c r="P585" s="4"/>
     </row>
-    <row r="586" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" ht="15.75" customHeight="1" spans="1:16">
       <c r="A586" s="4"/>
       <c r="B586" s="4"/>
       <c r="C586" s="4"/>
@@ -9242,7 +9858,7 @@
       <c r="O586" s="4"/>
       <c r="P586" s="4"/>
     </row>
-    <row r="587" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" ht="15.75" customHeight="1" spans="1:16">
       <c r="A587" s="4"/>
       <c r="B587" s="4"/>
       <c r="C587" s="4"/>
@@ -9257,7 +9873,7 @@
       <c r="O587" s="4"/>
       <c r="P587" s="4"/>
     </row>
-    <row r="588" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" ht="15.75" customHeight="1" spans="1:16">
       <c r="A588" s="4"/>
       <c r="B588" s="4"/>
       <c r="C588" s="4"/>
@@ -9272,7 +9888,7 @@
       <c r="O588" s="4"/>
       <c r="P588" s="4"/>
     </row>
-    <row r="589" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" ht="15.75" customHeight="1" spans="1:16">
       <c r="A589" s="4"/>
       <c r="B589" s="4"/>
       <c r="C589" s="4"/>
@@ -9287,7 +9903,7 @@
       <c r="O589" s="4"/>
       <c r="P589" s="4"/>
     </row>
-    <row r="590" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" ht="15.75" customHeight="1" spans="1:16">
       <c r="A590" s="4"/>
       <c r="B590" s="4"/>
       <c r="C590" s="4"/>
@@ -9302,7 +9918,7 @@
       <c r="O590" s="4"/>
       <c r="P590" s="4"/>
     </row>
-    <row r="591" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" ht="15.75" customHeight="1" spans="1:16">
       <c r="A591" s="4"/>
       <c r="B591" s="4"/>
       <c r="C591" s="4"/>
@@ -9317,7 +9933,7 @@
       <c r="O591" s="4"/>
       <c r="P591" s="4"/>
     </row>
-    <row r="592" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" ht="15.75" customHeight="1" spans="1:16">
       <c r="A592" s="4"/>
       <c r="B592" s="4"/>
       <c r="C592" s="4"/>
@@ -9332,7 +9948,7 @@
       <c r="O592" s="4"/>
       <c r="P592" s="4"/>
     </row>
-    <row r="593" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" ht="15.75" customHeight="1" spans="1:16">
       <c r="A593" s="4"/>
       <c r="B593" s="4"/>
       <c r="C593" s="4"/>
@@ -9347,7 +9963,7 @@
       <c r="O593" s="4"/>
       <c r="P593" s="4"/>
     </row>
-    <row r="594" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" ht="15.75" customHeight="1" spans="1:16">
       <c r="A594" s="4"/>
       <c r="B594" s="4"/>
       <c r="C594" s="4"/>
@@ -9362,7 +9978,7 @@
       <c r="O594" s="4"/>
       <c r="P594" s="4"/>
     </row>
-    <row r="595" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" ht="15.75" customHeight="1" spans="1:16">
       <c r="A595" s="4"/>
       <c r="B595" s="4"/>
       <c r="C595" s="4"/>
@@ -9377,7 +9993,7 @@
       <c r="O595" s="4"/>
       <c r="P595" s="4"/>
     </row>
-    <row r="596" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" ht="15.75" customHeight="1" spans="1:16">
       <c r="A596" s="4"/>
       <c r="B596" s="4"/>
       <c r="C596" s="4"/>
@@ -9392,7 +10008,7 @@
       <c r="O596" s="4"/>
       <c r="P596" s="4"/>
     </row>
-    <row r="597" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" ht="15.75" customHeight="1" spans="1:16">
       <c r="A597" s="4"/>
       <c r="B597" s="4"/>
       <c r="C597" s="4"/>
@@ -9407,7 +10023,7 @@
       <c r="O597" s="4"/>
       <c r="P597" s="4"/>
     </row>
-    <row r="598" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" ht="15.75" customHeight="1" spans="1:16">
       <c r="A598" s="4"/>
       <c r="B598" s="4"/>
       <c r="C598" s="4"/>
@@ -9422,7 +10038,7 @@
       <c r="O598" s="4"/>
       <c r="P598" s="4"/>
     </row>
-    <row r="599" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" ht="15.75" customHeight="1" spans="1:16">
       <c r="A599" s="4"/>
       <c r="B599" s="4"/>
       <c r="C599" s="4"/>
@@ -9437,7 +10053,7 @@
       <c r="O599" s="4"/>
       <c r="P599" s="4"/>
     </row>
-    <row r="600" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" ht="15.75" customHeight="1" spans="1:16">
       <c r="A600" s="4"/>
       <c r="B600" s="4"/>
       <c r="C600" s="4"/>
@@ -9452,7 +10068,7 @@
       <c r="O600" s="4"/>
       <c r="P600" s="4"/>
     </row>
-    <row r="601" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" ht="15.75" customHeight="1" spans="1:16">
       <c r="A601" s="4"/>
       <c r="B601" s="4"/>
       <c r="C601" s="4"/>
@@ -9467,7 +10083,7 @@
       <c r="O601" s="4"/>
       <c r="P601" s="4"/>
     </row>
-    <row r="602" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" ht="15.75" customHeight="1" spans="1:16">
       <c r="A602" s="4"/>
       <c r="B602" s="4"/>
       <c r="C602" s="4"/>
@@ -9482,7 +10098,7 @@
       <c r="O602" s="4"/>
       <c r="P602" s="4"/>
     </row>
-    <row r="603" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" ht="15.75" customHeight="1" spans="1:16">
       <c r="A603" s="4"/>
       <c r="B603" s="4"/>
       <c r="C603" s="4"/>
@@ -9497,7 +10113,7 @@
       <c r="O603" s="4"/>
       <c r="P603" s="4"/>
     </row>
-    <row r="604" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" ht="15.75" customHeight="1" spans="1:16">
       <c r="A604" s="4"/>
       <c r="B604" s="4"/>
       <c r="C604" s="4"/>
@@ -9512,7 +10128,7 @@
       <c r="O604" s="4"/>
       <c r="P604" s="4"/>
     </row>
-    <row r="605" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" ht="15.75" customHeight="1" spans="1:16">
       <c r="A605" s="4"/>
       <c r="B605" s="4"/>
       <c r="C605" s="4"/>
@@ -9527,7 +10143,7 @@
       <c r="O605" s="4"/>
       <c r="P605" s="4"/>
     </row>
-    <row r="606" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" ht="15.75" customHeight="1" spans="1:16">
       <c r="A606" s="4"/>
       <c r="B606" s="4"/>
       <c r="C606" s="4"/>
@@ -9542,7 +10158,7 @@
       <c r="O606" s="4"/>
       <c r="P606" s="4"/>
     </row>
-    <row r="607" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" ht="15.75" customHeight="1" spans="1:16">
       <c r="A607" s="4"/>
       <c r="B607" s="4"/>
       <c r="C607" s="4"/>
@@ -9557,7 +10173,7 @@
       <c r="O607" s="4"/>
       <c r="P607" s="4"/>
     </row>
-    <row r="608" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" ht="15.75" customHeight="1" spans="1:16">
       <c r="A608" s="4"/>
       <c r="B608" s="4"/>
       <c r="C608" s="4"/>
@@ -9572,7 +10188,7 @@
       <c r="O608" s="4"/>
       <c r="P608" s="4"/>
     </row>
-    <row r="609" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" ht="15.75" customHeight="1" spans="1:16">
       <c r="A609" s="4"/>
       <c r="B609" s="4"/>
       <c r="C609" s="4"/>
@@ -9587,7 +10203,7 @@
       <c r="O609" s="4"/>
       <c r="P609" s="4"/>
     </row>
-    <row r="610" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" ht="15.75" customHeight="1" spans="1:16">
       <c r="A610" s="4"/>
       <c r="B610" s="4"/>
       <c r="C610" s="4"/>
@@ -9602,7 +10218,7 @@
       <c r="O610" s="4"/>
       <c r="P610" s="4"/>
     </row>
-    <row r="611" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" ht="15.75" customHeight="1" spans="1:16">
       <c r="A611" s="4"/>
       <c r="B611" s="4"/>
       <c r="C611" s="4"/>
@@ -9617,7 +10233,7 @@
       <c r="O611" s="4"/>
       <c r="P611" s="4"/>
     </row>
-    <row r="612" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" ht="15.75" customHeight="1" spans="1:16">
       <c r="A612" s="4"/>
       <c r="B612" s="4"/>
       <c r="C612" s="4"/>
@@ -9632,7 +10248,7 @@
       <c r="O612" s="4"/>
       <c r="P612" s="4"/>
     </row>
-    <row r="613" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" ht="15.75" customHeight="1" spans="1:16">
       <c r="A613" s="4"/>
       <c r="B613" s="4"/>
       <c r="C613" s="4"/>
@@ -9647,7 +10263,7 @@
       <c r="O613" s="4"/>
       <c r="P613" s="4"/>
     </row>
-    <row r="614" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" ht="15.75" customHeight="1" spans="1:16">
       <c r="A614" s="4"/>
       <c r="B614" s="4"/>
       <c r="C614" s="4"/>
@@ -9662,7 +10278,7 @@
       <c r="O614" s="4"/>
       <c r="P614" s="4"/>
     </row>
-    <row r="615" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" ht="15.75" customHeight="1" spans="1:16">
       <c r="A615" s="4"/>
       <c r="B615" s="4"/>
       <c r="C615" s="4"/>
@@ -9677,7 +10293,7 @@
       <c r="O615" s="4"/>
       <c r="P615" s="4"/>
     </row>
-    <row r="616" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" ht="15.75" customHeight="1" spans="1:16">
       <c r="A616" s="4"/>
       <c r="B616" s="4"/>
       <c r="C616" s="4"/>
@@ -9692,7 +10308,7 @@
       <c r="O616" s="4"/>
       <c r="P616" s="4"/>
     </row>
-    <row r="617" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" ht="15.75" customHeight="1" spans="1:16">
       <c r="A617" s="4"/>
       <c r="B617" s="4"/>
       <c r="C617" s="4"/>
@@ -9707,7 +10323,7 @@
       <c r="O617" s="4"/>
       <c r="P617" s="4"/>
     </row>
-    <row r="618" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" ht="15.75" customHeight="1" spans="1:16">
       <c r="A618" s="4"/>
       <c r="B618" s="4"/>
       <c r="C618" s="4"/>
@@ -9722,7 +10338,7 @@
       <c r="O618" s="4"/>
       <c r="P618" s="4"/>
     </row>
-    <row r="619" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" ht="15.75" customHeight="1" spans="1:16">
       <c r="A619" s="4"/>
       <c r="B619" s="4"/>
       <c r="C619" s="4"/>
@@ -9737,7 +10353,7 @@
       <c r="O619" s="4"/>
       <c r="P619" s="4"/>
     </row>
-    <row r="620" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" ht="15.75" customHeight="1" spans="1:16">
       <c r="A620" s="4"/>
       <c r="B620" s="4"/>
       <c r="C620" s="4"/>
@@ -9752,7 +10368,7 @@
       <c r="O620" s="4"/>
       <c r="P620" s="4"/>
     </row>
-    <row r="621" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" ht="15.75" customHeight="1" spans="1:16">
       <c r="A621" s="4"/>
       <c r="B621" s="4"/>
       <c r="C621" s="4"/>
@@ -9767,7 +10383,7 @@
       <c r="O621" s="4"/>
       <c r="P621" s="4"/>
     </row>
-    <row r="622" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" ht="15.75" customHeight="1" spans="1:16">
       <c r="A622" s="4"/>
       <c r="B622" s="4"/>
       <c r="C622" s="4"/>
@@ -9782,7 +10398,7 @@
       <c r="O622" s="4"/>
       <c r="P622" s="4"/>
     </row>
-    <row r="623" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" ht="15.75" customHeight="1" spans="1:16">
       <c r="A623" s="4"/>
       <c r="B623" s="4"/>
       <c r="C623" s="4"/>
@@ -9797,7 +10413,7 @@
       <c r="O623" s="4"/>
       <c r="P623" s="4"/>
     </row>
-    <row r="624" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" ht="15.75" customHeight="1" spans="1:16">
       <c r="A624" s="4"/>
       <c r="B624" s="4"/>
       <c r="C624" s="4"/>
@@ -9812,7 +10428,7 @@
       <c r="O624" s="4"/>
       <c r="P624" s="4"/>
     </row>
-    <row r="625" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" ht="15.75" customHeight="1" spans="1:16">
       <c r="A625" s="4"/>
       <c r="B625" s="4"/>
       <c r="C625" s="4"/>
@@ -9827,7 +10443,7 @@
       <c r="O625" s="4"/>
       <c r="P625" s="4"/>
     </row>
-    <row r="626" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" ht="15.75" customHeight="1" spans="1:16">
       <c r="A626" s="4"/>
       <c r="B626" s="4"/>
       <c r="C626" s="4"/>
@@ -9842,7 +10458,7 @@
       <c r="O626" s="4"/>
       <c r="P626" s="4"/>
     </row>
-    <row r="627" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" ht="15.75" customHeight="1" spans="1:16">
       <c r="A627" s="4"/>
       <c r="B627" s="4"/>
       <c r="C627" s="4"/>
@@ -9857,7 +10473,7 @@
       <c r="O627" s="4"/>
       <c r="P627" s="4"/>
     </row>
-    <row r="628" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" ht="15.75" customHeight="1" spans="1:16">
       <c r="A628" s="4"/>
       <c r="B628" s="4"/>
       <c r="C628" s="4"/>
@@ -9872,7 +10488,7 @@
       <c r="O628" s="4"/>
       <c r="P628" s="4"/>
     </row>
-    <row r="629" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" ht="15.75" customHeight="1" spans="1:16">
       <c r="A629" s="4"/>
       <c r="B629" s="4"/>
       <c r="C629" s="4"/>
@@ -9887,7 +10503,7 @@
       <c r="O629" s="4"/>
       <c r="P629" s="4"/>
     </row>
-    <row r="630" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" ht="15.75" customHeight="1" spans="1:16">
       <c r="A630" s="4"/>
       <c r="B630" s="4"/>
       <c r="C630" s="4"/>
@@ -9902,7 +10518,7 @@
       <c r="O630" s="4"/>
       <c r="P630" s="4"/>
     </row>
-    <row r="631" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" ht="15.75" customHeight="1" spans="1:16">
       <c r="A631" s="4"/>
       <c r="B631" s="4"/>
       <c r="C631" s="4"/>
@@ -9917,7 +10533,7 @@
       <c r="O631" s="4"/>
       <c r="P631" s="4"/>
     </row>
-    <row r="632" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" ht="15.75" customHeight="1" spans="1:16">
       <c r="A632" s="4"/>
       <c r="B632" s="4"/>
       <c r="C632" s="4"/>
@@ -9932,7 +10548,7 @@
       <c r="O632" s="4"/>
       <c r="P632" s="4"/>
     </row>
-    <row r="633" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" ht="15.75" customHeight="1" spans="1:16">
       <c r="A633" s="4"/>
       <c r="B633" s="4"/>
       <c r="C633" s="4"/>
@@ -9947,7 +10563,7 @@
       <c r="O633" s="4"/>
       <c r="P633" s="4"/>
     </row>
-    <row r="634" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" ht="15.75" customHeight="1" spans="1:16">
       <c r="A634" s="4"/>
       <c r="B634" s="4"/>
       <c r="C634" s="4"/>
@@ -9962,7 +10578,7 @@
       <c r="O634" s="4"/>
       <c r="P634" s="4"/>
     </row>
-    <row r="635" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" ht="15.75" customHeight="1" spans="1:16">
       <c r="A635" s="4"/>
       <c r="B635" s="4"/>
       <c r="C635" s="4"/>
@@ -9977,7 +10593,7 @@
       <c r="O635" s="4"/>
       <c r="P635" s="4"/>
     </row>
-    <row r="636" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" ht="15.75" customHeight="1" spans="1:16">
       <c r="A636" s="4"/>
       <c r="B636" s="4"/>
       <c r="C636" s="4"/>
@@ -9992,7 +10608,7 @@
       <c r="O636" s="4"/>
       <c r="P636" s="4"/>
     </row>
-    <row r="637" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" ht="15.75" customHeight="1" spans="1:16">
       <c r="A637" s="4"/>
       <c r="B637" s="4"/>
       <c r="C637" s="4"/>
@@ -10007,7 +10623,7 @@
       <c r="O637" s="4"/>
       <c r="P637" s="4"/>
     </row>
-    <row r="638" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" ht="15.75" customHeight="1" spans="1:16">
       <c r="A638" s="4"/>
       <c r="B638" s="4"/>
       <c r="C638" s="4"/>
@@ -10022,7 +10638,7 @@
       <c r="O638" s="4"/>
       <c r="P638" s="4"/>
     </row>
-    <row r="639" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" ht="15.75" customHeight="1" spans="1:16">
       <c r="A639" s="4"/>
       <c r="B639" s="4"/>
       <c r="C639" s="4"/>
@@ -10037,7 +10653,7 @@
       <c r="O639" s="4"/>
       <c r="P639" s="4"/>
     </row>
-    <row r="640" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" ht="15.75" customHeight="1" spans="1:16">
       <c r="A640" s="4"/>
       <c r="B640" s="4"/>
       <c r="C640" s="4"/>
@@ -10052,7 +10668,7 @@
       <c r="O640" s="4"/>
       <c r="P640" s="4"/>
     </row>
-    <row r="641" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" ht="15.75" customHeight="1" spans="1:16">
       <c r="A641" s="4"/>
       <c r="B641" s="4"/>
       <c r="C641" s="4"/>
@@ -10067,7 +10683,7 @@
       <c r="O641" s="4"/>
       <c r="P641" s="4"/>
     </row>
-    <row r="642" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" ht="15.75" customHeight="1" spans="1:16">
       <c r="A642" s="4"/>
       <c r="B642" s="4"/>
       <c r="C642" s="4"/>
@@ -10082,7 +10698,7 @@
       <c r="O642" s="4"/>
       <c r="P642" s="4"/>
     </row>
-    <row r="643" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" ht="15.75" customHeight="1" spans="1:16">
       <c r="A643" s="4"/>
       <c r="B643" s="4"/>
       <c r="C643" s="4"/>
@@ -10097,7 +10713,7 @@
       <c r="O643" s="4"/>
       <c r="P643" s="4"/>
     </row>
-    <row r="644" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" ht="15.75" customHeight="1" spans="1:16">
       <c r="A644" s="4"/>
       <c r="B644" s="4"/>
       <c r="C644" s="4"/>
@@ -10112,7 +10728,7 @@
       <c r="O644" s="4"/>
       <c r="P644" s="4"/>
     </row>
-    <row r="645" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" ht="15.75" customHeight="1" spans="1:16">
       <c r="A645" s="4"/>
       <c r="B645" s="4"/>
       <c r="C645" s="4"/>
@@ -10127,7 +10743,7 @@
       <c r="O645" s="4"/>
       <c r="P645" s="4"/>
     </row>
-    <row r="646" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" ht="15.75" customHeight="1" spans="1:16">
       <c r="A646" s="4"/>
       <c r="B646" s="4"/>
       <c r="C646" s="4"/>
@@ -10142,7 +10758,7 @@
       <c r="O646" s="4"/>
       <c r="P646" s="4"/>
     </row>
-    <row r="647" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" ht="15.75" customHeight="1" spans="1:16">
       <c r="A647" s="4"/>
       <c r="B647" s="4"/>
       <c r="C647" s="4"/>
@@ -10157,7 +10773,7 @@
       <c r="O647" s="4"/>
       <c r="P647" s="4"/>
     </row>
-    <row r="648" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" ht="15.75" customHeight="1" spans="1:16">
       <c r="A648" s="4"/>
       <c r="B648" s="4"/>
       <c r="C648" s="4"/>
@@ -10172,7 +10788,7 @@
       <c r="O648" s="4"/>
       <c r="P648" s="4"/>
     </row>
-    <row r="649" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" ht="15.75" customHeight="1" spans="1:16">
       <c r="A649" s="4"/>
       <c r="B649" s="4"/>
       <c r="C649" s="4"/>
@@ -10187,7 +10803,7 @@
       <c r="O649" s="4"/>
       <c r="P649" s="4"/>
     </row>
-    <row r="650" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" ht="15.75" customHeight="1" spans="1:16">
       <c r="A650" s="4"/>
       <c r="B650" s="4"/>
       <c r="C650" s="4"/>
@@ -10202,7 +10818,7 @@
       <c r="O650" s="4"/>
       <c r="P650" s="4"/>
     </row>
-    <row r="651" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" ht="15.75" customHeight="1" spans="1:16">
       <c r="A651" s="4"/>
       <c r="B651" s="4"/>
       <c r="C651" s="4"/>
@@ -10217,7 +10833,7 @@
       <c r="O651" s="4"/>
       <c r="P651" s="4"/>
     </row>
-    <row r="652" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" ht="15.75" customHeight="1" spans="1:16">
       <c r="A652" s="4"/>
       <c r="B652" s="4"/>
       <c r="C652" s="4"/>
@@ -10232,7 +10848,7 @@
       <c r="O652" s="4"/>
       <c r="P652" s="4"/>
     </row>
-    <row r="653" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" ht="15.75" customHeight="1" spans="1:16">
       <c r="A653" s="4"/>
       <c r="B653" s="4"/>
       <c r="C653" s="4"/>
@@ -10247,7 +10863,7 @@
       <c r="O653" s="4"/>
       <c r="P653" s="4"/>
     </row>
-    <row r="654" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" ht="15.75" customHeight="1" spans="1:16">
       <c r="A654" s="4"/>
       <c r="B654" s="4"/>
       <c r="C654" s="4"/>
@@ -10262,7 +10878,7 @@
       <c r="O654" s="4"/>
       <c r="P654" s="4"/>
     </row>
-    <row r="655" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" ht="15.75" customHeight="1" spans="1:16">
       <c r="A655" s="4"/>
       <c r="B655" s="4"/>
       <c r="C655" s="4"/>
@@ -10277,7 +10893,7 @@
       <c r="O655" s="4"/>
       <c r="P655" s="4"/>
     </row>
-    <row r="656" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" ht="15.75" customHeight="1" spans="1:16">
       <c r="A656" s="4"/>
       <c r="B656" s="4"/>
       <c r="C656" s="4"/>
@@ -10292,7 +10908,7 @@
       <c r="O656" s="4"/>
       <c r="P656" s="4"/>
     </row>
-    <row r="657" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" ht="15.75" customHeight="1" spans="1:16">
       <c r="A657" s="4"/>
       <c r="B657" s="4"/>
       <c r="C657" s="4"/>
@@ -10307,7 +10923,7 @@
       <c r="O657" s="4"/>
       <c r="P657" s="4"/>
     </row>
-    <row r="658" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" ht="15.75" customHeight="1" spans="1:16">
       <c r="A658" s="4"/>
       <c r="B658" s="4"/>
       <c r="C658" s="4"/>
@@ -10322,7 +10938,7 @@
       <c r="O658" s="4"/>
       <c r="P658" s="4"/>
     </row>
-    <row r="659" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" ht="15.75" customHeight="1" spans="1:16">
       <c r="A659" s="4"/>
       <c r="B659" s="4"/>
       <c r="C659" s="4"/>
@@ -10337,7 +10953,7 @@
       <c r="O659" s="4"/>
       <c r="P659" s="4"/>
     </row>
-    <row r="660" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" ht="15.75" customHeight="1" spans="1:16">
       <c r="A660" s="4"/>
       <c r="B660" s="4"/>
       <c r="C660" s="4"/>
@@ -10352,7 +10968,7 @@
       <c r="O660" s="4"/>
       <c r="P660" s="4"/>
     </row>
-    <row r="661" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" ht="15.75" customHeight="1" spans="1:16">
       <c r="A661" s="4"/>
       <c r="B661" s="4"/>
       <c r="C661" s="4"/>
@@ -10367,7 +10983,7 @@
       <c r="O661" s="4"/>
       <c r="P661" s="4"/>
     </row>
-    <row r="662" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" ht="15.75" customHeight="1" spans="1:16">
       <c r="A662" s="4"/>
       <c r="B662" s="4"/>
       <c r="C662" s="4"/>
@@ -10382,7 +10998,7 @@
       <c r="O662" s="4"/>
       <c r="P662" s="4"/>
     </row>
-    <row r="663" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" ht="15.75" customHeight="1" spans="1:16">
       <c r="A663" s="4"/>
       <c r="B663" s="4"/>
       <c r="C663" s="4"/>
@@ -10397,7 +11013,7 @@
       <c r="O663" s="4"/>
       <c r="P663" s="4"/>
     </row>
-    <row r="664" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" ht="15.75" customHeight="1" spans="1:16">
       <c r="A664" s="4"/>
       <c r="B664" s="4"/>
       <c r="C664" s="4"/>
@@ -10412,7 +11028,7 @@
       <c r="O664" s="4"/>
       <c r="P664" s="4"/>
     </row>
-    <row r="665" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" ht="15.75" customHeight="1" spans="1:16">
       <c r="A665" s="4"/>
       <c r="B665" s="4"/>
       <c r="C665" s="4"/>
@@ -10427,7 +11043,7 @@
       <c r="O665" s="4"/>
       <c r="P665" s="4"/>
     </row>
-    <row r="666" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" ht="15.75" customHeight="1" spans="1:16">
       <c r="A666" s="4"/>
       <c r="B666" s="4"/>
       <c r="C666" s="4"/>
@@ -10442,7 +11058,7 @@
       <c r="O666" s="4"/>
       <c r="P666" s="4"/>
     </row>
-    <row r="667" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" ht="15.75" customHeight="1" spans="1:16">
       <c r="A667" s="4"/>
       <c r="B667" s="4"/>
       <c r="C667" s="4"/>
@@ -10457,7 +11073,7 @@
       <c r="O667" s="4"/>
       <c r="P667" s="4"/>
     </row>
-    <row r="668" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="668" ht="15.75" customHeight="1" spans="1:16">
       <c r="A668" s="4"/>
       <c r="B668" s="4"/>
       <c r="C668" s="4"/>
@@ -10472,7 +11088,7 @@
       <c r="O668" s="4"/>
       <c r="P668" s="4"/>
     </row>
-    <row r="669" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="669" ht="15.75" customHeight="1" spans="1:16">
       <c r="A669" s="4"/>
       <c r="B669" s="4"/>
       <c r="C669" s="4"/>
@@ -10487,7 +11103,7 @@
       <c r="O669" s="4"/>
       <c r="P669" s="4"/>
     </row>
-    <row r="670" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" ht="15.75" customHeight="1" spans="1:16">
       <c r="A670" s="4"/>
       <c r="B670" s="4"/>
       <c r="C670" s="4"/>
@@ -10502,7 +11118,7 @@
       <c r="O670" s="4"/>
       <c r="P670" s="4"/>
     </row>
-    <row r="671" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" ht="15.75" customHeight="1" spans="1:16">
       <c r="A671" s="4"/>
       <c r="B671" s="4"/>
       <c r="C671" s="4"/>
@@ -10517,7 +11133,7 @@
       <c r="O671" s="4"/>
       <c r="P671" s="4"/>
     </row>
-    <row r="672" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" ht="15.75" customHeight="1" spans="1:16">
       <c r="A672" s="4"/>
       <c r="B672" s="4"/>
       <c r="C672" s="4"/>
@@ -10532,7 +11148,7 @@
       <c r="O672" s="4"/>
       <c r="P672" s="4"/>
     </row>
-    <row r="673" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" ht="15.75" customHeight="1" spans="1:16">
       <c r="A673" s="4"/>
       <c r="B673" s="4"/>
       <c r="C673" s="4"/>
@@ -10547,7 +11163,7 @@
       <c r="O673" s="4"/>
       <c r="P673" s="4"/>
     </row>
-    <row r="674" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="674" ht="15.75" customHeight="1" spans="1:16">
       <c r="A674" s="4"/>
       <c r="B674" s="4"/>
       <c r="C674" s="4"/>
@@ -10562,7 +11178,7 @@
       <c r="O674" s="4"/>
       <c r="P674" s="4"/>
     </row>
-    <row r="675" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="675" ht="15.75" customHeight="1" spans="1:16">
       <c r="A675" s="4"/>
       <c r="B675" s="4"/>
       <c r="C675" s="4"/>
@@ -10577,7 +11193,7 @@
       <c r="O675" s="4"/>
       <c r="P675" s="4"/>
     </row>
-    <row r="676" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" ht="15.75" customHeight="1" spans="1:16">
       <c r="A676" s="4"/>
       <c r="B676" s="4"/>
       <c r="C676" s="4"/>
@@ -10592,7 +11208,7 @@
       <c r="O676" s="4"/>
       <c r="P676" s="4"/>
     </row>
-    <row r="677" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" ht="15.75" customHeight="1" spans="1:16">
       <c r="A677" s="4"/>
       <c r="B677" s="4"/>
       <c r="C677" s="4"/>
@@ -10607,7 +11223,7 @@
       <c r="O677" s="4"/>
       <c r="P677" s="4"/>
     </row>
-    <row r="678" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="678" ht="15.75" customHeight="1" spans="1:16">
       <c r="A678" s="4"/>
       <c r="B678" s="4"/>
       <c r="C678" s="4"/>
@@ -10622,7 +11238,7 @@
       <c r="O678" s="4"/>
       <c r="P678" s="4"/>
     </row>
-    <row r="679" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" ht="15.75" customHeight="1" spans="1:16">
       <c r="A679" s="4"/>
       <c r="B679" s="4"/>
       <c r="C679" s="4"/>
@@ -10637,7 +11253,7 @@
       <c r="O679" s="4"/>
       <c r="P679" s="4"/>
     </row>
-    <row r="680" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="680" ht="15.75" customHeight="1" spans="1:16">
       <c r="A680" s="4"/>
       <c r="B680" s="4"/>
       <c r="C680" s="4"/>
@@ -10652,7 +11268,7 @@
       <c r="O680" s="4"/>
       <c r="P680" s="4"/>
     </row>
-    <row r="681" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" ht="15.75" customHeight="1" spans="1:16">
       <c r="A681" s="4"/>
       <c r="B681" s="4"/>
       <c r="C681" s="4"/>
@@ -10667,7 +11283,7 @@
       <c r="O681" s="4"/>
       <c r="P681" s="4"/>
     </row>
-    <row r="682" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" ht="15.75" customHeight="1" spans="1:16">
       <c r="A682" s="4"/>
       <c r="B682" s="4"/>
       <c r="C682" s="4"/>
@@ -10682,7 +11298,7 @@
       <c r="O682" s="4"/>
       <c r="P682" s="4"/>
     </row>
-    <row r="683" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" ht="15.75" customHeight="1" spans="1:16">
       <c r="A683" s="4"/>
       <c r="B683" s="4"/>
       <c r="C683" s="4"/>
@@ -10697,7 +11313,7 @@
       <c r="O683" s="4"/>
       <c r="P683" s="4"/>
     </row>
-    <row r="684" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="684" ht="15.75" customHeight="1" spans="1:16">
       <c r="A684" s="4"/>
       <c r="B684" s="4"/>
       <c r="C684" s="4"/>
@@ -10712,7 +11328,7 @@
       <c r="O684" s="4"/>
       <c r="P684" s="4"/>
     </row>
-    <row r="685" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" ht="15.75" customHeight="1" spans="1:16">
       <c r="A685" s="4"/>
       <c r="B685" s="4"/>
       <c r="C685" s="4"/>
@@ -10727,7 +11343,7 @@
       <c r="O685" s="4"/>
       <c r="P685" s="4"/>
     </row>
-    <row r="686" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" ht="15.75" customHeight="1" spans="1:16">
       <c r="A686" s="4"/>
       <c r="B686" s="4"/>
       <c r="C686" s="4"/>
@@ -10742,7 +11358,7 @@
       <c r="O686" s="4"/>
       <c r="P686" s="4"/>
     </row>
-    <row r="687" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="687" ht="15.75" customHeight="1" spans="1:16">
       <c r="A687" s="4"/>
       <c r="B687" s="4"/>
       <c r="C687" s="4"/>
@@ -10757,7 +11373,7 @@
       <c r="O687" s="4"/>
       <c r="P687" s="4"/>
     </row>
-    <row r="688" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" ht="15.75" customHeight="1" spans="1:16">
       <c r="A688" s="4"/>
       <c r="B688" s="4"/>
       <c r="C688" s="4"/>
@@ -10772,7 +11388,7 @@
       <c r="O688" s="4"/>
       <c r="P688" s="4"/>
     </row>
-    <row r="689" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="689" ht="15.75" customHeight="1" spans="1:16">
       <c r="A689" s="4"/>
       <c r="B689" s="4"/>
       <c r="C689" s="4"/>
@@ -10787,7 +11403,7 @@
       <c r="O689" s="4"/>
       <c r="P689" s="4"/>
     </row>
-    <row r="690" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="690" ht="15.75" customHeight="1" spans="1:16">
       <c r="A690" s="4"/>
       <c r="B690" s="4"/>
       <c r="C690" s="4"/>
@@ -10802,7 +11418,7 @@
       <c r="O690" s="4"/>
       <c r="P690" s="4"/>
     </row>
-    <row r="691" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="691" ht="15.75" customHeight="1" spans="1:16">
       <c r="A691" s="4"/>
       <c r="B691" s="4"/>
       <c r="C691" s="4"/>
@@ -10817,7 +11433,7 @@
       <c r="O691" s="4"/>
       <c r="P691" s="4"/>
     </row>
-    <row r="692" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="692" ht="15.75" customHeight="1" spans="1:16">
       <c r="A692" s="4"/>
       <c r="B692" s="4"/>
       <c r="C692" s="4"/>
@@ -10832,7 +11448,7 @@
       <c r="O692" s="4"/>
       <c r="P692" s="4"/>
     </row>
-    <row r="693" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="693" ht="15.75" customHeight="1" spans="1:16">
       <c r="A693" s="4"/>
       <c r="B693" s="4"/>
       <c r="C693" s="4"/>
@@ -10847,7 +11463,7 @@
       <c r="O693" s="4"/>
       <c r="P693" s="4"/>
     </row>
-    <row r="694" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="694" ht="15.75" customHeight="1" spans="1:16">
       <c r="A694" s="4"/>
       <c r="B694" s="4"/>
       <c r="C694" s="4"/>
@@ -10862,7 +11478,7 @@
       <c r="O694" s="4"/>
       <c r="P694" s="4"/>
     </row>
-    <row r="695" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="695" ht="15.75" customHeight="1" spans="1:16">
       <c r="A695" s="4"/>
       <c r="B695" s="4"/>
       <c r="C695" s="4"/>
@@ -10877,7 +11493,7 @@
       <c r="O695" s="4"/>
       <c r="P695" s="4"/>
     </row>
-    <row r="696" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="696" ht="15.75" customHeight="1" spans="1:16">
       <c r="A696" s="4"/>
       <c r="B696" s="4"/>
       <c r="C696" s="4"/>
@@ -10892,7 +11508,7 @@
       <c r="O696" s="4"/>
       <c r="P696" s="4"/>
     </row>
-    <row r="697" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="697" ht="15.75" customHeight="1" spans="1:16">
       <c r="A697" s="4"/>
       <c r="B697" s="4"/>
       <c r="C697" s="4"/>
@@ -10907,7 +11523,7 @@
       <c r="O697" s="4"/>
       <c r="P697" s="4"/>
     </row>
-    <row r="698" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="698" ht="15.75" customHeight="1" spans="1:16">
       <c r="A698" s="4"/>
       <c r="B698" s="4"/>
       <c r="C698" s="4"/>
@@ -10922,7 +11538,7 @@
       <c r="O698" s="4"/>
       <c r="P698" s="4"/>
     </row>
-    <row r="699" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="699" ht="15.75" customHeight="1" spans="1:16">
       <c r="A699" s="4"/>
       <c r="B699" s="4"/>
       <c r="C699" s="4"/>
@@ -10937,7 +11553,7 @@
       <c r="O699" s="4"/>
       <c r="P699" s="4"/>
     </row>
-    <row r="700" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="700" ht="15.75" customHeight="1" spans="1:16">
       <c r="A700" s="4"/>
       <c r="B700" s="4"/>
       <c r="C700" s="4"/>
@@ -10952,7 +11568,7 @@
       <c r="O700" s="4"/>
       <c r="P700" s="4"/>
     </row>
-    <row r="701" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="701" ht="15.75" customHeight="1" spans="1:16">
       <c r="A701" s="4"/>
       <c r="B701" s="4"/>
       <c r="C701" s="4"/>
@@ -10967,7 +11583,7 @@
       <c r="O701" s="4"/>
       <c r="P701" s="4"/>
     </row>
-    <row r="702" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="702" ht="15.75" customHeight="1" spans="1:16">
       <c r="A702" s="4"/>
       <c r="B702" s="4"/>
       <c r="C702" s="4"/>
@@ -10982,7 +11598,7 @@
       <c r="O702" s="4"/>
       <c r="P702" s="4"/>
     </row>
-    <row r="703" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="703" ht="15.75" customHeight="1" spans="1:16">
       <c r="A703" s="4"/>
       <c r="B703" s="4"/>
       <c r="C703" s="4"/>
@@ -10997,7 +11613,7 @@
       <c r="O703" s="4"/>
       <c r="P703" s="4"/>
     </row>
-    <row r="704" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="704" ht="15.75" customHeight="1" spans="1:16">
       <c r="A704" s="4"/>
       <c r="B704" s="4"/>
       <c r="C704" s="4"/>
@@ -11012,7 +11628,7 @@
       <c r="O704" s="4"/>
       <c r="P704" s="4"/>
     </row>
-    <row r="705" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="705" ht="15.75" customHeight="1" spans="1:16">
       <c r="A705" s="4"/>
       <c r="B705" s="4"/>
       <c r="C705" s="4"/>
@@ -11027,7 +11643,7 @@
       <c r="O705" s="4"/>
       <c r="P705" s="4"/>
     </row>
-    <row r="706" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="706" ht="15.75" customHeight="1" spans="1:16">
       <c r="A706" s="4"/>
       <c r="B706" s="4"/>
       <c r="C706" s="4"/>
@@ -11042,7 +11658,7 @@
       <c r="O706" s="4"/>
       <c r="P706" s="4"/>
     </row>
-    <row r="707" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="707" ht="15.75" customHeight="1" spans="1:16">
       <c r="A707" s="4"/>
       <c r="B707" s="4"/>
       <c r="C707" s="4"/>
@@ -11057,7 +11673,7 @@
       <c r="O707" s="4"/>
       <c r="P707" s="4"/>
     </row>
-    <row r="708" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="708" ht="15.75" customHeight="1" spans="1:16">
       <c r="A708" s="4"/>
       <c r="B708" s="4"/>
       <c r="C708" s="4"/>
@@ -11072,7 +11688,7 @@
       <c r="O708" s="4"/>
       <c r="P708" s="4"/>
     </row>
-    <row r="709" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="709" ht="15.75" customHeight="1" spans="1:16">
       <c r="A709" s="4"/>
       <c r="B709" s="4"/>
       <c r="C709" s="4"/>
@@ -11087,7 +11703,7 @@
       <c r="O709" s="4"/>
       <c r="P709" s="4"/>
     </row>
-    <row r="710" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="710" ht="15.75" customHeight="1" spans="1:16">
       <c r="A710" s="4"/>
       <c r="B710" s="4"/>
       <c r="C710" s="4"/>
@@ -11102,7 +11718,7 @@
       <c r="O710" s="4"/>
       <c r="P710" s="4"/>
     </row>
-    <row r="711" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="711" ht="15.75" customHeight="1" spans="1:16">
       <c r="A711" s="4"/>
       <c r="B711" s="4"/>
       <c r="C711" s="4"/>
@@ -11117,7 +11733,7 @@
       <c r="O711" s="4"/>
       <c r="P711" s="4"/>
     </row>
-    <row r="712" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="712" ht="15.75" customHeight="1" spans="1:16">
       <c r="A712" s="4"/>
       <c r="B712" s="4"/>
       <c r="C712" s="4"/>
@@ -11132,7 +11748,7 @@
       <c r="O712" s="4"/>
       <c r="P712" s="4"/>
     </row>
-    <row r="713" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="713" ht="15.75" customHeight="1" spans="1:16">
       <c r="A713" s="4"/>
       <c r="B713" s="4"/>
       <c r="C713" s="4"/>
@@ -11147,7 +11763,7 @@
       <c r="O713" s="4"/>
       <c r="P713" s="4"/>
     </row>
-    <row r="714" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="714" ht="15.75" customHeight="1" spans="1:16">
       <c r="A714" s="4"/>
       <c r="B714" s="4"/>
       <c r="C714" s="4"/>
@@ -11162,7 +11778,7 @@
       <c r="O714" s="4"/>
       <c r="P714" s="4"/>
     </row>
-    <row r="715" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="715" ht="15.75" customHeight="1" spans="1:16">
       <c r="A715" s="4"/>
       <c r="B715" s="4"/>
       <c r="C715" s="4"/>
@@ -11177,7 +11793,7 @@
       <c r="O715" s="4"/>
       <c r="P715" s="4"/>
     </row>
-    <row r="716" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="716" ht="15.75" customHeight="1" spans="1:16">
       <c r="A716" s="4"/>
       <c r="B716" s="4"/>
       <c r="C716" s="4"/>
@@ -11192,7 +11808,7 @@
       <c r="O716" s="4"/>
       <c r="P716" s="4"/>
     </row>
-    <row r="717" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="717" ht="15.75" customHeight="1" spans="1:16">
       <c r="A717" s="4"/>
       <c r="B717" s="4"/>
       <c r="C717" s="4"/>
@@ -11207,7 +11823,7 @@
       <c r="O717" s="4"/>
       <c r="P717" s="4"/>
     </row>
-    <row r="718" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="718" ht="15.75" customHeight="1" spans="1:16">
       <c r="A718" s="4"/>
       <c r="B718" s="4"/>
       <c r="C718" s="4"/>
@@ -11222,7 +11838,7 @@
       <c r="O718" s="4"/>
       <c r="P718" s="4"/>
     </row>
-    <row r="719" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="719" ht="15.75" customHeight="1" spans="1:16">
       <c r="A719" s="4"/>
       <c r="B719" s="4"/>
       <c r="C719" s="4"/>
@@ -11237,7 +11853,7 @@
       <c r="O719" s="4"/>
       <c r="P719" s="4"/>
     </row>
-    <row r="720" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="720" ht="15.75" customHeight="1" spans="1:16">
       <c r="A720" s="4"/>
       <c r="B720" s="4"/>
       <c r="C720" s="4"/>
@@ -11252,7 +11868,7 @@
       <c r="O720" s="4"/>
       <c r="P720" s="4"/>
     </row>
-    <row r="721" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="721" ht="15.75" customHeight="1" spans="1:16">
       <c r="A721" s="4"/>
       <c r="B721" s="4"/>
       <c r="C721" s="4"/>
@@ -11267,7 +11883,7 @@
       <c r="O721" s="4"/>
       <c r="P721" s="4"/>
     </row>
-    <row r="722" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="722" ht="15.75" customHeight="1" spans="1:16">
       <c r="A722" s="4"/>
       <c r="B722" s="4"/>
       <c r="C722" s="4"/>
@@ -11282,7 +11898,7 @@
       <c r="O722" s="4"/>
       <c r="P722" s="4"/>
     </row>
-    <row r="723" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="723" ht="15.75" customHeight="1" spans="1:16">
       <c r="A723" s="4"/>
       <c r="B723" s="4"/>
       <c r="C723" s="4"/>
@@ -11297,7 +11913,7 @@
       <c r="O723" s="4"/>
       <c r="P723" s="4"/>
     </row>
-    <row r="724" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="724" ht="15.75" customHeight="1" spans="1:16">
       <c r="A724" s="4"/>
       <c r="B724" s="4"/>
       <c r="C724" s="4"/>
@@ -11312,7 +11928,7 @@
       <c r="O724" s="4"/>
       <c r="P724" s="4"/>
     </row>
-    <row r="725" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="725" ht="15.75" customHeight="1" spans="1:16">
       <c r="A725" s="4"/>
       <c r="B725" s="4"/>
       <c r="C725" s="4"/>
@@ -11327,7 +11943,7 @@
       <c r="O725" s="4"/>
       <c r="P725" s="4"/>
     </row>
-    <row r="726" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="726" ht="15.75" customHeight="1" spans="1:16">
       <c r="A726" s="4"/>
       <c r="B726" s="4"/>
       <c r="C726" s="4"/>
@@ -11342,7 +11958,7 @@
       <c r="O726" s="4"/>
       <c r="P726" s="4"/>
     </row>
-    <row r="727" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="727" ht="15.75" customHeight="1" spans="1:16">
       <c r="A727" s="4"/>
       <c r="B727" s="4"/>
       <c r="C727" s="4"/>
@@ -11357,7 +11973,7 @@
       <c r="O727" s="4"/>
       <c r="P727" s="4"/>
     </row>
-    <row r="728" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="728" ht="15.75" customHeight="1" spans="1:16">
       <c r="A728" s="4"/>
       <c r="B728" s="4"/>
       <c r="C728" s="4"/>
@@ -11372,7 +11988,7 @@
       <c r="O728" s="4"/>
       <c r="P728" s="4"/>
     </row>
-    <row r="729" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="729" ht="15.75" customHeight="1" spans="1:16">
       <c r="A729" s="4"/>
       <c r="B729" s="4"/>
       <c r="C729" s="4"/>
@@ -11387,7 +12003,7 @@
       <c r="O729" s="4"/>
       <c r="P729" s="4"/>
     </row>
-    <row r="730" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="730" ht="15.75" customHeight="1" spans="1:16">
       <c r="A730" s="4"/>
       <c r="B730" s="4"/>
       <c r="C730" s="4"/>
@@ -11402,7 +12018,7 @@
       <c r="O730" s="4"/>
       <c r="P730" s="4"/>
     </row>
-    <row r="731" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="731" ht="15.75" customHeight="1" spans="1:16">
       <c r="A731" s="4"/>
       <c r="B731" s="4"/>
       <c r="C731" s="4"/>
@@ -11417,7 +12033,7 @@
       <c r="O731" s="4"/>
       <c r="P731" s="4"/>
     </row>
-    <row r="732" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="732" ht="15.75" customHeight="1" spans="1:16">
       <c r="A732" s="4"/>
       <c r="B732" s="4"/>
       <c r="C732" s="4"/>
@@ -11432,7 +12048,7 @@
       <c r="O732" s="4"/>
       <c r="P732" s="4"/>
     </row>
-    <row r="733" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="733" ht="15.75" customHeight="1" spans="1:16">
       <c r="A733" s="4"/>
       <c r="B733" s="4"/>
       <c r="C733" s="4"/>
@@ -11447,7 +12063,7 @@
       <c r="O733" s="4"/>
       <c r="P733" s="4"/>
     </row>
-    <row r="734" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="734" ht="15.75" customHeight="1" spans="1:16">
       <c r="A734" s="4"/>
       <c r="B734" s="4"/>
       <c r="C734" s="4"/>
@@ -11462,7 +12078,7 @@
       <c r="O734" s="4"/>
       <c r="P734" s="4"/>
     </row>
-    <row r="735" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="735" ht="15.75" customHeight="1" spans="1:16">
       <c r="A735" s="4"/>
       <c r="B735" s="4"/>
       <c r="C735" s="4"/>
@@ -11477,7 +12093,7 @@
       <c r="O735" s="4"/>
       <c r="P735" s="4"/>
     </row>
-    <row r="736" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="736" ht="15.75" customHeight="1" spans="1:16">
       <c r="A736" s="4"/>
       <c r="B736" s="4"/>
       <c r="C736" s="4"/>
@@ -11492,7 +12108,7 @@
       <c r="O736" s="4"/>
       <c r="P736" s="4"/>
     </row>
-    <row r="737" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="737" ht="15.75" customHeight="1" spans="1:16">
       <c r="A737" s="4"/>
       <c r="B737" s="4"/>
       <c r="C737" s="4"/>
@@ -11507,7 +12123,7 @@
       <c r="O737" s="4"/>
       <c r="P737" s="4"/>
     </row>
-    <row r="738" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="738" ht="15.75" customHeight="1" spans="1:16">
       <c r="A738" s="4"/>
       <c r="B738" s="4"/>
       <c r="C738" s="4"/>
@@ -11522,7 +12138,7 @@
       <c r="O738" s="4"/>
       <c r="P738" s="4"/>
     </row>
-    <row r="739" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="739" ht="15.75" customHeight="1" spans="1:16">
       <c r="A739" s="4"/>
       <c r="B739" s="4"/>
       <c r="C739" s="4"/>
@@ -11537,7 +12153,7 @@
       <c r="O739" s="4"/>
       <c r="P739" s="4"/>
     </row>
-    <row r="740" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="740" ht="15.75" customHeight="1" spans="1:16">
       <c r="A740" s="4"/>
       <c r="B740" s="4"/>
       <c r="C740" s="4"/>
@@ -11552,7 +12168,7 @@
       <c r="O740" s="4"/>
       <c r="P740" s="4"/>
     </row>
-    <row r="741" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="741" ht="15.75" customHeight="1" spans="1:16">
       <c r="A741" s="4"/>
       <c r="B741" s="4"/>
       <c r="C741" s="4"/>
@@ -11567,7 +12183,7 @@
       <c r="O741" s="4"/>
       <c r="P741" s="4"/>
     </row>
-    <row r="742" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="742" ht="15.75" customHeight="1" spans="1:16">
       <c r="A742" s="4"/>
       <c r="B742" s="4"/>
       <c r="C742" s="4"/>
@@ -11582,7 +12198,7 @@
       <c r="O742" s="4"/>
       <c r="P742" s="4"/>
     </row>
-    <row r="743" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="743" ht="15.75" customHeight="1" spans="1:16">
       <c r="A743" s="4"/>
       <c r="B743" s="4"/>
       <c r="C743" s="4"/>
@@ -11597,7 +12213,7 @@
       <c r="O743" s="4"/>
       <c r="P743" s="4"/>
     </row>
-    <row r="744" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="744" ht="15.75" customHeight="1" spans="1:16">
       <c r="A744" s="4"/>
       <c r="B744" s="4"/>
       <c r="C744" s="4"/>
@@ -11612,7 +12228,7 @@
       <c r="O744" s="4"/>
       <c r="P744" s="4"/>
     </row>
-    <row r="745" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="745" ht="15.75" customHeight="1" spans="1:16">
       <c r="A745" s="4"/>
       <c r="B745" s="4"/>
       <c r="C745" s="4"/>
@@ -11627,7 +12243,7 @@
       <c r="O745" s="4"/>
       <c r="P745" s="4"/>
     </row>
-    <row r="746" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="746" ht="15.75" customHeight="1" spans="1:16">
       <c r="A746" s="4"/>
       <c r="B746" s="4"/>
       <c r="C746" s="4"/>
@@ -11642,7 +12258,7 @@
       <c r="O746" s="4"/>
       <c r="P746" s="4"/>
     </row>
-    <row r="747" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="747" ht="15.75" customHeight="1" spans="1:16">
       <c r="A747" s="4"/>
       <c r="B747" s="4"/>
       <c r="C747" s="4"/>
@@ -11657,7 +12273,7 @@
       <c r="O747" s="4"/>
       <c r="P747" s="4"/>
     </row>
-    <row r="748" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="748" ht="15.75" customHeight="1" spans="1:16">
       <c r="A748" s="4"/>
       <c r="B748" s="4"/>
       <c r="C748" s="4"/>
@@ -11672,7 +12288,7 @@
       <c r="O748" s="4"/>
       <c r="P748" s="4"/>
     </row>
-    <row r="749" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="749" ht="15.75" customHeight="1" spans="1:16">
       <c r="A749" s="4"/>
       <c r="B749" s="4"/>
       <c r="C749" s="4"/>
@@ -11687,7 +12303,7 @@
       <c r="O749" s="4"/>
       <c r="P749" s="4"/>
     </row>
-    <row r="750" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="750" ht="15.75" customHeight="1" spans="1:16">
       <c r="A750" s="4"/>
       <c r="B750" s="4"/>
       <c r="C750" s="4"/>
@@ -11702,7 +12318,7 @@
       <c r="O750" s="4"/>
       <c r="P750" s="4"/>
     </row>
-    <row r="751" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="751" ht="15.75" customHeight="1" spans="1:16">
       <c r="A751" s="4"/>
       <c r="B751" s="4"/>
       <c r="C751" s="4"/>
@@ -11717,7 +12333,7 @@
       <c r="O751" s="4"/>
       <c r="P751" s="4"/>
     </row>
-    <row r="752" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="752" ht="15.75" customHeight="1" spans="1:16">
       <c r="A752" s="4"/>
       <c r="B752" s="4"/>
       <c r="C752" s="4"/>
@@ -11732,7 +12348,7 @@
       <c r="O752" s="4"/>
       <c r="P752" s="4"/>
     </row>
-    <row r="753" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="753" ht="15.75" customHeight="1" spans="1:16">
       <c r="A753" s="4"/>
       <c r="B753" s="4"/>
       <c r="C753" s="4"/>
@@ -11747,7 +12363,7 @@
       <c r="O753" s="4"/>
       <c r="P753" s="4"/>
     </row>
-    <row r="754" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="754" ht="15.75" customHeight="1" spans="1:16">
       <c r="A754" s="4"/>
       <c r="B754" s="4"/>
       <c r="C754" s="4"/>
@@ -11762,7 +12378,7 @@
       <c r="O754" s="4"/>
       <c r="P754" s="4"/>
     </row>
-    <row r="755" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="755" ht="15.75" customHeight="1" spans="1:16">
       <c r="A755" s="4"/>
       <c r="B755" s="4"/>
       <c r="C755" s="4"/>
@@ -11777,7 +12393,7 @@
       <c r="O755" s="4"/>
       <c r="P755" s="4"/>
     </row>
-    <row r="756" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="756" ht="15.75" customHeight="1" spans="1:16">
       <c r="A756" s="4"/>
       <c r="B756" s="4"/>
       <c r="C756" s="4"/>
@@ -11792,7 +12408,7 @@
       <c r="O756" s="4"/>
       <c r="P756" s="4"/>
     </row>
-    <row r="757" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="757" ht="15.75" customHeight="1" spans="1:16">
       <c r="A757" s="4"/>
       <c r="B757" s="4"/>
       <c r="C757" s="4"/>
@@ -11807,7 +12423,7 @@
       <c r="O757" s="4"/>
       <c r="P757" s="4"/>
     </row>
-    <row r="758" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="758" ht="15.75" customHeight="1" spans="1:16">
       <c r="A758" s="4"/>
       <c r="B758" s="4"/>
       <c r="C758" s="4"/>
@@ -11822,7 +12438,7 @@
       <c r="O758" s="4"/>
       <c r="P758" s="4"/>
     </row>
-    <row r="759" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="759" ht="15.75" customHeight="1" spans="1:16">
       <c r="A759" s="4"/>
       <c r="B759" s="4"/>
       <c r="C759" s="4"/>
@@ -11837,7 +12453,7 @@
       <c r="O759" s="4"/>
       <c r="P759" s="4"/>
     </row>
-    <row r="760" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="760" ht="15.75" customHeight="1" spans="1:16">
       <c r="A760" s="4"/>
       <c r="B760" s="4"/>
       <c r="C760" s="4"/>
@@ -11852,7 +12468,7 @@
       <c r="O760" s="4"/>
       <c r="P760" s="4"/>
     </row>
-    <row r="761" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="761" ht="15.75" customHeight="1" spans="1:16">
       <c r="A761" s="4"/>
       <c r="B761" s="4"/>
       <c r="C761" s="4"/>
@@ -11867,7 +12483,7 @@
       <c r="O761" s="4"/>
       <c r="P761" s="4"/>
     </row>
-    <row r="762" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="762" ht="15.75" customHeight="1" spans="1:16">
       <c r="A762" s="4"/>
       <c r="B762" s="4"/>
       <c r="C762" s="4"/>
@@ -11882,7 +12498,7 @@
       <c r="O762" s="4"/>
       <c r="P762" s="4"/>
     </row>
-    <row r="763" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="763" ht="15.75" customHeight="1" spans="1:16">
       <c r="A763" s="4"/>
       <c r="B763" s="4"/>
       <c r="C763" s="4"/>
@@ -11897,7 +12513,7 @@
       <c r="O763" s="4"/>
       <c r="P763" s="4"/>
     </row>
-    <row r="764" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="764" ht="15.75" customHeight="1" spans="1:16">
       <c r="A764" s="4"/>
       <c r="B764" s="4"/>
       <c r="C764" s="4"/>
@@ -11912,7 +12528,7 @@
       <c r="O764" s="4"/>
       <c r="P764" s="4"/>
     </row>
-    <row r="765" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="765" ht="15.75" customHeight="1" spans="1:16">
       <c r="A765" s="4"/>
       <c r="B765" s="4"/>
       <c r="C765" s="4"/>
@@ -11927,7 +12543,7 @@
       <c r="O765" s="4"/>
       <c r="P765" s="4"/>
     </row>
-    <row r="766" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="766" ht="15.75" customHeight="1" spans="1:16">
       <c r="A766" s="4"/>
       <c r="B766" s="4"/>
       <c r="C766" s="4"/>
@@ -11942,7 +12558,7 @@
       <c r="O766" s="4"/>
       <c r="P766" s="4"/>
     </row>
-    <row r="767" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="767" ht="15.75" customHeight="1" spans="1:16">
       <c r="A767" s="4"/>
       <c r="B767" s="4"/>
       <c r="C767" s="4"/>
@@ -11957,7 +12573,7 @@
       <c r="O767" s="4"/>
       <c r="P767" s="4"/>
     </row>
-    <row r="768" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="768" ht="15.75" customHeight="1" spans="1:16">
       <c r="A768" s="4"/>
       <c r="B768" s="4"/>
       <c r="C768" s="4"/>
@@ -11972,7 +12588,7 @@
       <c r="O768" s="4"/>
       <c r="P768" s="4"/>
     </row>
-    <row r="769" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="769" ht="15.75" customHeight="1" spans="1:16">
       <c r="A769" s="4"/>
       <c r="B769" s="4"/>
       <c r="C769" s="4"/>
@@ -11987,7 +12603,7 @@
       <c r="O769" s="4"/>
       <c r="P769" s="4"/>
     </row>
-    <row r="770" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="770" ht="15.75" customHeight="1" spans="1:16">
       <c r="A770" s="4"/>
       <c r="B770" s="4"/>
       <c r="C770" s="4"/>
@@ -12002,7 +12618,7 @@
       <c r="O770" s="4"/>
       <c r="P770" s="4"/>
     </row>
-    <row r="771" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="771" ht="15.75" customHeight="1" spans="1:16">
       <c r="A771" s="4"/>
       <c r="B771" s="4"/>
       <c r="C771" s="4"/>
@@ -12017,7 +12633,7 @@
       <c r="O771" s="4"/>
       <c r="P771" s="4"/>
     </row>
-    <row r="772" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="772" ht="15.75" customHeight="1" spans="1:16">
       <c r="A772" s="4"/>
       <c r="B772" s="4"/>
       <c r="C772" s="4"/>
@@ -12032,7 +12648,7 @@
       <c r="O772" s="4"/>
       <c r="P772" s="4"/>
     </row>
-    <row r="773" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="773" ht="15.75" customHeight="1" spans="1:16">
       <c r="A773" s="4"/>
       <c r="B773" s="4"/>
       <c r="C773" s="4"/>
@@ -12047,7 +12663,7 @@
       <c r="O773" s="4"/>
       <c r="P773" s="4"/>
     </row>
-    <row r="774" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="774" ht="15.75" customHeight="1" spans="1:16">
       <c r="A774" s="4"/>
       <c r="B774" s="4"/>
       <c r="C774" s="4"/>
@@ -12062,7 +12678,7 @@
       <c r="O774" s="4"/>
       <c r="P774" s="4"/>
     </row>
-    <row r="775" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="775" ht="15.75" customHeight="1" spans="1:16">
       <c r="A775" s="4"/>
       <c r="B775" s="4"/>
       <c r="C775" s="4"/>
@@ -12077,7 +12693,7 @@
       <c r="O775" s="4"/>
       <c r="P775" s="4"/>
     </row>
-    <row r="776" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="776" ht="15.75" customHeight="1" spans="1:16">
       <c r="A776" s="4"/>
       <c r="B776" s="4"/>
       <c r="C776" s="4"/>
@@ -12092,7 +12708,7 @@
       <c r="O776" s="4"/>
       <c r="P776" s="4"/>
     </row>
-    <row r="777" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="777" ht="15.75" customHeight="1" spans="1:16">
       <c r="A777" s="4"/>
       <c r="B777" s="4"/>
       <c r="C777" s="4"/>
@@ -12107,7 +12723,7 @@
       <c r="O777" s="4"/>
       <c r="P777" s="4"/>
     </row>
-    <row r="778" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="778" ht="15.75" customHeight="1" spans="1:16">
       <c r="A778" s="4"/>
       <c r="B778" s="4"/>
       <c r="C778" s="4"/>
@@ -12122,7 +12738,7 @@
       <c r="O778" s="4"/>
       <c r="P778" s="4"/>
     </row>
-    <row r="779" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="779" ht="15.75" customHeight="1" spans="1:16">
       <c r="A779" s="4"/>
       <c r="B779" s="4"/>
       <c r="C779" s="4"/>
@@ -12137,7 +12753,7 @@
       <c r="O779" s="4"/>
       <c r="P779" s="4"/>
     </row>
-    <row r="780" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="780" ht="15.75" customHeight="1" spans="1:16">
       <c r="A780" s="4"/>
       <c r="B780" s="4"/>
       <c r="C780" s="4"/>
@@ -12152,7 +12768,7 @@
       <c r="O780" s="4"/>
       <c r="P780" s="4"/>
     </row>
-    <row r="781" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="781" ht="15.75" customHeight="1" spans="1:16">
       <c r="A781" s="4"/>
       <c r="B781" s="4"/>
       <c r="C781" s="4"/>
@@ -12167,7 +12783,7 @@
       <c r="O781" s="4"/>
       <c r="P781" s="4"/>
     </row>
-    <row r="782" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="782" ht="15.75" customHeight="1" spans="1:16">
       <c r="A782" s="4"/>
       <c r="B782" s="4"/>
       <c r="C782" s="4"/>
@@ -12182,7 +12798,7 @@
       <c r="O782" s="4"/>
       <c r="P782" s="4"/>
     </row>
-    <row r="783" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="783" ht="15.75" customHeight="1" spans="1:16">
       <c r="A783" s="4"/>
       <c r="B783" s="4"/>
       <c r="C783" s="4"/>
@@ -12197,7 +12813,7 @@
       <c r="O783" s="4"/>
       <c r="P783" s="4"/>
     </row>
-    <row r="784" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="784" ht="15.75" customHeight="1" spans="1:16">
       <c r="A784" s="4"/>
       <c r="B784" s="4"/>
       <c r="C784" s="4"/>
@@ -12212,7 +12828,7 @@
       <c r="O784" s="4"/>
       <c r="P784" s="4"/>
     </row>
-    <row r="785" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="785" ht="15.75" customHeight="1" spans="1:16">
       <c r="A785" s="4"/>
       <c r="B785" s="4"/>
       <c r="C785" s="4"/>
@@ -12227,7 +12843,7 @@
       <c r="O785" s="4"/>
       <c r="P785" s="4"/>
     </row>
-    <row r="786" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="786" ht="15.75" customHeight="1" spans="1:16">
       <c r="A786" s="4"/>
       <c r="B786" s="4"/>
       <c r="C786" s="4"/>
@@ -12242,7 +12858,7 @@
       <c r="O786" s="4"/>
       <c r="P786" s="4"/>
     </row>
-    <row r="787" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="787" ht="15.75" customHeight="1" spans="1:16">
       <c r="A787" s="4"/>
       <c r="B787" s="4"/>
       <c r="C787" s="4"/>
@@ -12257,7 +12873,7 @@
       <c r="O787" s="4"/>
       <c r="P787" s="4"/>
     </row>
-    <row r="788" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="788" ht="15.75" customHeight="1" spans="1:16">
       <c r="A788" s="4"/>
       <c r="B788" s="4"/>
       <c r="C788" s="4"/>
@@ -12272,7 +12888,7 @@
       <c r="O788" s="4"/>
       <c r="P788" s="4"/>
     </row>
-    <row r="789" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="789" ht="15.75" customHeight="1" spans="1:16">
       <c r="A789" s="4"/>
       <c r="B789" s="4"/>
       <c r="C789" s="4"/>
@@ -12287,7 +12903,7 @@
       <c r="O789" s="4"/>
       <c r="P789" s="4"/>
     </row>
-    <row r="790" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="790" ht="15.75" customHeight="1" spans="1:16">
       <c r="A790" s="4"/>
       <c r="B790" s="4"/>
       <c r="C790" s="4"/>
@@ -12302,7 +12918,7 @@
       <c r="O790" s="4"/>
       <c r="P790" s="4"/>
     </row>
-    <row r="791" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="791" ht="15.75" customHeight="1" spans="1:16">
       <c r="A791" s="4"/>
       <c r="B791" s="4"/>
       <c r="C791" s="4"/>
@@ -12317,7 +12933,7 @@
       <c r="O791" s="4"/>
       <c r="P791" s="4"/>
     </row>
-    <row r="792" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="792" ht="15.75" customHeight="1" spans="1:16">
       <c r="A792" s="4"/>
       <c r="B792" s="4"/>
       <c r="C792" s="4"/>
@@ -12332,7 +12948,7 @@
       <c r="O792" s="4"/>
       <c r="P792" s="4"/>
     </row>
-    <row r="793" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="793" ht="15.75" customHeight="1" spans="1:16">
       <c r="A793" s="4"/>
       <c r="B793" s="4"/>
       <c r="C793" s="4"/>
@@ -12347,7 +12963,7 @@
       <c r="O793" s="4"/>
       <c r="P793" s="4"/>
     </row>
-    <row r="794" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="794" ht="15.75" customHeight="1" spans="1:16">
       <c r="A794" s="4"/>
       <c r="B794" s="4"/>
       <c r="C794" s="4"/>
@@ -12362,7 +12978,7 @@
       <c r="O794" s="4"/>
       <c r="P794" s="4"/>
     </row>
-    <row r="795" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="795" ht="15.75" customHeight="1" spans="1:16">
       <c r="A795" s="4"/>
       <c r="B795" s="4"/>
       <c r="C795" s="4"/>
@@ -12377,7 +12993,7 @@
       <c r="O795" s="4"/>
       <c r="P795" s="4"/>
     </row>
-    <row r="796" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="796" ht="15.75" customHeight="1" spans="1:16">
       <c r="A796" s="4"/>
       <c r="B796" s="4"/>
       <c r="C796" s="4"/>
@@ -12392,7 +13008,7 @@
       <c r="O796" s="4"/>
       <c r="P796" s="4"/>
     </row>
-    <row r="797" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="797" ht="15.75" customHeight="1" spans="1:16">
       <c r="A797" s="4"/>
       <c r="B797" s="4"/>
       <c r="C797" s="4"/>
@@ -12407,7 +13023,7 @@
       <c r="O797" s="4"/>
       <c r="P797" s="4"/>
     </row>
-    <row r="798" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="798" ht="15.75" customHeight="1" spans="1:16">
       <c r="A798" s="4"/>
       <c r="B798" s="4"/>
       <c r="C798" s="4"/>
@@ -12422,7 +13038,7 @@
       <c r="O798" s="4"/>
       <c r="P798" s="4"/>
     </row>
-    <row r="799" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="799" ht="15.75" customHeight="1" spans="1:16">
       <c r="A799" s="4"/>
       <c r="B799" s="4"/>
       <c r="C799" s="4"/>
@@ -12437,7 +13053,7 @@
       <c r="O799" s="4"/>
       <c r="P799" s="4"/>
     </row>
-    <row r="800" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="800" ht="15.75" customHeight="1" spans="1:16">
       <c r="A800" s="4"/>
       <c r="B800" s="4"/>
       <c r="C800" s="4"/>
@@ -12452,7 +13068,7 @@
       <c r="O800" s="4"/>
       <c r="P800" s="4"/>
     </row>
-    <row r="801" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="801" ht="15.75" customHeight="1" spans="1:16">
       <c r="A801" s="4"/>
       <c r="B801" s="4"/>
       <c r="C801" s="4"/>
@@ -12467,7 +13083,7 @@
       <c r="O801" s="4"/>
       <c r="P801" s="4"/>
     </row>
-    <row r="802" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="802" ht="15.75" customHeight="1" spans="1:16">
       <c r="A802" s="4"/>
       <c r="B802" s="4"/>
       <c r="C802" s="4"/>
@@ -12482,7 +13098,7 @@
       <c r="O802" s="4"/>
       <c r="P802" s="4"/>
     </row>
-    <row r="803" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="803" ht="15.75" customHeight="1" spans="1:16">
       <c r="A803" s="4"/>
       <c r="B803" s="4"/>
       <c r="C803" s="4"/>
@@ -12497,7 +13113,7 @@
       <c r="O803" s="4"/>
       <c r="P803" s="4"/>
     </row>
-    <row r="804" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="804" ht="15.75" customHeight="1" spans="1:16">
       <c r="A804" s="4"/>
       <c r="B804" s="4"/>
       <c r="C804" s="4"/>
@@ -12512,7 +13128,7 @@
       <c r="O804" s="4"/>
       <c r="P804" s="4"/>
     </row>
-    <row r="805" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="805" ht="15.75" customHeight="1" spans="1:16">
       <c r="A805" s="4"/>
       <c r="B805" s="4"/>
       <c r="C805" s="4"/>
@@ -12527,7 +13143,7 @@
       <c r="O805" s="4"/>
       <c r="P805" s="4"/>
     </row>
-    <row r="806" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="806" ht="15.75" customHeight="1" spans="1:16">
       <c r="A806" s="4"/>
       <c r="B806" s="4"/>
       <c r="C806" s="4"/>
@@ -12542,7 +13158,7 @@
       <c r="O806" s="4"/>
       <c r="P806" s="4"/>
     </row>
-    <row r="807" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="807" ht="15.75" customHeight="1" spans="1:16">
       <c r="A807" s="4"/>
       <c r="B807" s="4"/>
       <c r="C807" s="4"/>
@@ -12557,7 +13173,7 @@
       <c r="O807" s="4"/>
       <c r="P807" s="4"/>
     </row>
-    <row r="808" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="808" ht="15.75" customHeight="1" spans="1:16">
       <c r="A808" s="4"/>
       <c r="B808" s="4"/>
       <c r="C808" s="4"/>
@@ -12572,7 +13188,7 @@
       <c r="O808" s="4"/>
       <c r="P808" s="4"/>
     </row>
-    <row r="809" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="809" ht="15.75" customHeight="1" spans="1:16">
       <c r="A809" s="4"/>
       <c r="B809" s="4"/>
       <c r="C809" s="4"/>
@@ -12587,7 +13203,7 @@
       <c r="O809" s="4"/>
       <c r="P809" s="4"/>
     </row>
-    <row r="810" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="810" ht="15.75" customHeight="1" spans="1:16">
       <c r="A810" s="4"/>
       <c r="B810" s="4"/>
       <c r="C810" s="4"/>
@@ -12602,7 +13218,7 @@
       <c r="O810" s="4"/>
       <c r="P810" s="4"/>
     </row>
-    <row r="811" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="811" ht="15.75" customHeight="1" spans="1:16">
       <c r="A811" s="4"/>
       <c r="B811" s="4"/>
       <c r="C811" s="4"/>
@@ -12617,7 +13233,7 @@
       <c r="O811" s="4"/>
       <c r="P811" s="4"/>
     </row>
-    <row r="812" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="812" ht="15.75" customHeight="1" spans="1:16">
       <c r="A812" s="4"/>
       <c r="B812" s="4"/>
       <c r="C812" s="4"/>
@@ -12632,7 +13248,7 @@
       <c r="O812" s="4"/>
       <c r="P812" s="4"/>
     </row>
-    <row r="813" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="813" ht="15.75" customHeight="1" spans="1:16">
       <c r="A813" s="4"/>
       <c r="B813" s="4"/>
       <c r="C813" s="4"/>
@@ -12647,7 +13263,7 @@
       <c r="O813" s="4"/>
       <c r="P813" s="4"/>
     </row>
-    <row r="814" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="814" ht="15.75" customHeight="1" spans="1:16">
       <c r="A814" s="4"/>
       <c r="B814" s="4"/>
       <c r="C814" s="4"/>
@@ -12662,7 +13278,7 @@
       <c r="O814" s="4"/>
       <c r="P814" s="4"/>
     </row>
-    <row r="815" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="815" ht="15.75" customHeight="1" spans="1:16">
       <c r="A815" s="4"/>
       <c r="B815" s="4"/>
       <c r="C815" s="4"/>
@@ -12677,7 +13293,7 @@
       <c r="O815" s="4"/>
       <c r="P815" s="4"/>
     </row>
-    <row r="816" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="816" ht="15.75" customHeight="1" spans="1:16">
       <c r="A816" s="4"/>
       <c r="B816" s="4"/>
       <c r="C816" s="4"/>
@@ -12692,7 +13308,7 @@
       <c r="O816" s="4"/>
       <c r="P816" s="4"/>
     </row>
-    <row r="817" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="817" ht="15.75" customHeight="1" spans="1:16">
       <c r="A817" s="4"/>
       <c r="B817" s="4"/>
       <c r="C817" s="4"/>
@@ -12707,7 +13323,7 @@
       <c r="O817" s="4"/>
       <c r="P817" s="4"/>
     </row>
-    <row r="818" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="818" ht="15.75" customHeight="1" spans="1:16">
       <c r="A818" s="4"/>
       <c r="B818" s="4"/>
       <c r="C818" s="4"/>
@@ -12722,7 +13338,7 @@
       <c r="O818" s="4"/>
       <c r="P818" s="4"/>
     </row>
-    <row r="819" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="819" ht="15.75" customHeight="1" spans="1:16">
       <c r="A819" s="4"/>
       <c r="B819" s="4"/>
       <c r="C819" s="4"/>
@@ -12737,7 +13353,7 @@
       <c r="O819" s="4"/>
       <c r="P819" s="4"/>
     </row>
-    <row r="820" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="820" ht="15.75" customHeight="1" spans="1:16">
       <c r="A820" s="4"/>
       <c r="B820" s="4"/>
       <c r="C820" s="4"/>
@@ -12752,7 +13368,7 @@
       <c r="O820" s="4"/>
       <c r="P820" s="4"/>
     </row>
-    <row r="821" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="821" ht="15.75" customHeight="1" spans="1:16">
       <c r="A821" s="4"/>
       <c r="B821" s="4"/>
       <c r="C821" s="4"/>
@@ -12767,7 +13383,7 @@
       <c r="O821" s="4"/>
       <c r="P821" s="4"/>
     </row>
-    <row r="822" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="822" ht="15.75" customHeight="1" spans="1:16">
       <c r="A822" s="4"/>
       <c r="B822" s="4"/>
       <c r="C822" s="4"/>
@@ -12782,7 +13398,7 @@
       <c r="O822" s="4"/>
       <c r="P822" s="4"/>
     </row>
-    <row r="823" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="823" ht="15.75" customHeight="1" spans="1:16">
       <c r="A823" s="4"/>
       <c r="B823" s="4"/>
       <c r="C823" s="4"/>
@@ -12797,7 +13413,7 @@
       <c r="O823" s="4"/>
       <c r="P823" s="4"/>
     </row>
-    <row r="824" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="824" ht="15.75" customHeight="1" spans="1:16">
       <c r="A824" s="4"/>
       <c r="B824" s="4"/>
       <c r="C824" s="4"/>
@@ -12812,7 +13428,7 @@
       <c r="O824" s="4"/>
       <c r="P824" s="4"/>
     </row>
-    <row r="825" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="825" ht="15.75" customHeight="1" spans="1:16">
       <c r="A825" s="4"/>
       <c r="B825" s="4"/>
       <c r="C825" s="4"/>
@@ -12827,7 +13443,7 @@
       <c r="O825" s="4"/>
       <c r="P825" s="4"/>
     </row>
-    <row r="826" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="826" ht="15.75" customHeight="1" spans="1:16">
       <c r="A826" s="4"/>
       <c r="B826" s="4"/>
       <c r="C826" s="4"/>
@@ -12842,7 +13458,7 @@
       <c r="O826" s="4"/>
       <c r="P826" s="4"/>
     </row>
-    <row r="827" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="827" ht="15.75" customHeight="1" spans="1:16">
       <c r="A827" s="4"/>
       <c r="B827" s="4"/>
       <c r="C827" s="4"/>
@@ -12857,7 +13473,7 @@
       <c r="O827" s="4"/>
       <c r="P827" s="4"/>
     </row>
-    <row r="828" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="828" ht="15.75" customHeight="1" spans="1:16">
       <c r="A828" s="4"/>
       <c r="B828" s="4"/>
       <c r="C828" s="4"/>
@@ -12872,7 +13488,7 @@
       <c r="O828" s="4"/>
       <c r="P828" s="4"/>
     </row>
-    <row r="829" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="829" ht="15.75" customHeight="1" spans="1:16">
       <c r="A829" s="4"/>
       <c r="B829" s="4"/>
       <c r="C829" s="4"/>
@@ -12887,7 +13503,7 @@
       <c r="O829" s="4"/>
       <c r="P829" s="4"/>
     </row>
-    <row r="830" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="830" ht="15.75" customHeight="1" spans="1:16">
       <c r="A830" s="4"/>
       <c r="B830" s="4"/>
       <c r="C830" s="4"/>
@@ -12902,7 +13518,7 @@
       <c r="O830" s="4"/>
       <c r="P830" s="4"/>
     </row>
-    <row r="831" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="831" ht="15.75" customHeight="1" spans="1:16">
       <c r="A831" s="4"/>
       <c r="B831" s="4"/>
       <c r="C831" s="4"/>
@@ -12917,7 +13533,7 @@
       <c r="O831" s="4"/>
       <c r="P831" s="4"/>
     </row>
-    <row r="832" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="832" ht="15.75" customHeight="1" spans="1:16">
       <c r="A832" s="4"/>
       <c r="B832" s="4"/>
       <c r="C832" s="4"/>
@@ -12932,7 +13548,7 @@
       <c r="O832" s="4"/>
       <c r="P832" s="4"/>
     </row>
-    <row r="833" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="833" ht="15.75" customHeight="1" spans="1:16">
       <c r="A833" s="4"/>
       <c r="B833" s="4"/>
       <c r="C833" s="4"/>
@@ -12947,7 +13563,7 @@
       <c r="O833" s="4"/>
       <c r="P833" s="4"/>
     </row>
-    <row r="834" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="834" ht="15.75" customHeight="1" spans="1:16">
       <c r="A834" s="4"/>
       <c r="B834" s="4"/>
       <c r="C834" s="4"/>
@@ -12962,7 +13578,7 @@
       <c r="O834" s="4"/>
       <c r="P834" s="4"/>
     </row>
-    <row r="835" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="835" ht="15.75" customHeight="1" spans="1:16">
       <c r="A835" s="4"/>
       <c r="B835" s="4"/>
       <c r="C835" s="4"/>
@@ -12977,7 +13593,7 @@
       <c r="O835" s="4"/>
       <c r="P835" s="4"/>
     </row>
-    <row r="836" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="836" ht="15.75" customHeight="1" spans="1:16">
       <c r="A836" s="4"/>
       <c r="B836" s="4"/>
       <c r="C836" s="4"/>
@@ -12992,7 +13608,7 @@
       <c r="O836" s="4"/>
       <c r="P836" s="4"/>
     </row>
-    <row r="837" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="837" ht="15.75" customHeight="1" spans="1:16">
       <c r="A837" s="4"/>
       <c r="B837" s="4"/>
       <c r="C837" s="4"/>
@@ -13007,7 +13623,7 @@
       <c r="O837" s="4"/>
       <c r="P837" s="4"/>
     </row>
-    <row r="838" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="838" ht="15.75" customHeight="1" spans="1:16">
       <c r="A838" s="4"/>
       <c r="B838" s="4"/>
       <c r="C838" s="4"/>
@@ -13022,7 +13638,7 @@
       <c r="O838" s="4"/>
       <c r="P838" s="4"/>
     </row>
-    <row r="839" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="839" ht="15.75" customHeight="1" spans="1:16">
       <c r="A839" s="4"/>
       <c r="B839" s="4"/>
       <c r="C839" s="4"/>
@@ -13037,7 +13653,7 @@
       <c r="O839" s="4"/>
       <c r="P839" s="4"/>
     </row>
-    <row r="840" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="840" ht="15.75" customHeight="1" spans="1:16">
       <c r="A840" s="4"/>
       <c r="B840" s="4"/>
       <c r="C840" s="4"/>
@@ -13052,7 +13668,7 @@
       <c r="O840" s="4"/>
       <c r="P840" s="4"/>
     </row>
-    <row r="841" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="841" ht="15.75" customHeight="1" spans="1:16">
       <c r="A841" s="4"/>
       <c r="B841" s="4"/>
       <c r="C841" s="4"/>
@@ -13067,7 +13683,7 @@
       <c r="O841" s="4"/>
       <c r="P841" s="4"/>
     </row>
-    <row r="842" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="842" ht="15.75" customHeight="1" spans="1:16">
       <c r="A842" s="4"/>
       <c r="B842" s="4"/>
       <c r="C842" s="4"/>
@@ -13082,7 +13698,7 @@
       <c r="O842" s="4"/>
       <c r="P842" s="4"/>
     </row>
-    <row r="843" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="843" ht="15.75" customHeight="1" spans="1:16">
       <c r="A843" s="4"/>
       <c r="B843" s="4"/>
       <c r="C843" s="4"/>
@@ -13097,7 +13713,7 @@
       <c r="O843" s="4"/>
       <c r="P843" s="4"/>
     </row>
-    <row r="844" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="844" ht="15.75" customHeight="1" spans="1:16">
       <c r="A844" s="4"/>
       <c r="B844" s="4"/>
       <c r="C844" s="4"/>
@@ -13112,7 +13728,7 @@
       <c r="O844" s="4"/>
       <c r="P844" s="4"/>
     </row>
-    <row r="845" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="845" ht="15.75" customHeight="1" spans="1:16">
       <c r="A845" s="4"/>
       <c r="B845" s="4"/>
       <c r="C845" s="4"/>
@@ -13127,7 +13743,7 @@
       <c r="O845" s="4"/>
       <c r="P845" s="4"/>
     </row>
-    <row r="846" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="846" ht="15.75" customHeight="1" spans="1:16">
       <c r="A846" s="4"/>
       <c r="B846" s="4"/>
       <c r="C846" s="4"/>
@@ -13142,7 +13758,7 @@
       <c r="O846" s="4"/>
       <c r="P846" s="4"/>
     </row>
-    <row r="847" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="847" ht="15.75" customHeight="1" spans="1:16">
       <c r="A847" s="4"/>
       <c r="B847" s="4"/>
       <c r="C847" s="4"/>
@@ -13157,7 +13773,7 @@
       <c r="O847" s="4"/>
       <c r="P847" s="4"/>
     </row>
-    <row r="848" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="848" ht="15.75" customHeight="1" spans="1:16">
       <c r="A848" s="4"/>
       <c r="B848" s="4"/>
       <c r="C848" s="4"/>
@@ -13172,7 +13788,7 @@
       <c r="O848" s="4"/>
       <c r="P848" s="4"/>
     </row>
-    <row r="849" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="849" ht="15.75" customHeight="1" spans="1:16">
       <c r="A849" s="4"/>
       <c r="B849" s="4"/>
       <c r="C849" s="4"/>
@@ -13187,7 +13803,7 @@
       <c r="O849" s="4"/>
       <c r="P849" s="4"/>
     </row>
-    <row r="850" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="850" ht="15.75" customHeight="1" spans="1:16">
       <c r="A850" s="4"/>
       <c r="B850" s="4"/>
       <c r="C850" s="4"/>
@@ -13202,7 +13818,7 @@
       <c r="O850" s="4"/>
       <c r="P850" s="4"/>
     </row>
-    <row r="851" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="851" ht="15.75" customHeight="1" spans="1:16">
       <c r="A851" s="4"/>
       <c r="B851" s="4"/>
       <c r="C851" s="4"/>
@@ -13217,7 +13833,7 @@
       <c r="O851" s="4"/>
       <c r="P851" s="4"/>
     </row>
-    <row r="852" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="852" ht="15.75" customHeight="1" spans="1:16">
       <c r="A852" s="4"/>
       <c r="B852" s="4"/>
       <c r="C852" s="4"/>
@@ -13232,7 +13848,7 @@
       <c r="O852" s="4"/>
       <c r="P852" s="4"/>
     </row>
-    <row r="853" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="853" ht="15.75" customHeight="1" spans="1:16">
       <c r="A853" s="4"/>
       <c r="B853" s="4"/>
       <c r="C853" s="4"/>
@@ -13247,7 +13863,7 @@
       <c r="O853" s="4"/>
       <c r="P853" s="4"/>
     </row>
-    <row r="854" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="854" ht="15.75" customHeight="1" spans="1:16">
       <c r="A854" s="4"/>
       <c r="B854" s="4"/>
       <c r="C854" s="4"/>
@@ -13262,7 +13878,7 @@
       <c r="O854" s="4"/>
       <c r="P854" s="4"/>
     </row>
-    <row r="855" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="855" ht="15.75" customHeight="1" spans="1:16">
       <c r="A855" s="4"/>
       <c r="B855" s="4"/>
       <c r="C855" s="4"/>
@@ -13277,7 +13893,7 @@
       <c r="O855" s="4"/>
       <c r="P855" s="4"/>
     </row>
-    <row r="856" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="856" ht="15.75" customHeight="1" spans="1:16">
       <c r="A856" s="4"/>
       <c r="B856" s="4"/>
       <c r="C856" s="4"/>
@@ -13292,7 +13908,7 @@
       <c r="O856" s="4"/>
       <c r="P856" s="4"/>
     </row>
-    <row r="857" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="857" ht="15.75" customHeight="1" spans="1:16">
       <c r="A857" s="4"/>
       <c r="B857" s="4"/>
       <c r="C857" s="4"/>
@@ -13307,7 +13923,7 @@
       <c r="O857" s="4"/>
       <c r="P857" s="4"/>
     </row>
-    <row r="858" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="858" ht="15.75" customHeight="1" spans="1:16">
       <c r="A858" s="4"/>
       <c r="B858" s="4"/>
       <c r="C858" s="4"/>
@@ -13322,7 +13938,7 @@
       <c r="O858" s="4"/>
       <c r="P858" s="4"/>
     </row>
-    <row r="859" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="859" ht="15.75" customHeight="1" spans="1:16">
       <c r="A859" s="4"/>
       <c r="B859" s="4"/>
       <c r="C859" s="4"/>
@@ -13337,7 +13953,7 @@
       <c r="O859" s="4"/>
       <c r="P859" s="4"/>
     </row>
-    <row r="860" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="860" ht="15.75" customHeight="1" spans="1:16">
       <c r="A860" s="4"/>
       <c r="B860" s="4"/>
       <c r="C860" s="4"/>
@@ -13352,7 +13968,7 @@
       <c r="O860" s="4"/>
       <c r="P860" s="4"/>
     </row>
-    <row r="861" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="861" ht="15.75" customHeight="1" spans="1:16">
       <c r="A861" s="4"/>
       <c r="B861" s="4"/>
       <c r="C861" s="4"/>
@@ -13367,7 +13983,7 @@
       <c r="O861" s="4"/>
       <c r="P861" s="4"/>
     </row>
-    <row r="862" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="862" ht="15.75" customHeight="1" spans="1:16">
       <c r="A862" s="4"/>
       <c r="B862" s="4"/>
       <c r="C862" s="4"/>
@@ -13382,7 +13998,7 @@
       <c r="O862" s="4"/>
       <c r="P862" s="4"/>
     </row>
-    <row r="863" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="863" ht="15.75" customHeight="1" spans="1:16">
       <c r="A863" s="4"/>
       <c r="B863" s="4"/>
       <c r="C863" s="4"/>
@@ -13397,7 +14013,7 @@
       <c r="O863" s="4"/>
       <c r="P863" s="4"/>
     </row>
-    <row r="864" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="864" ht="15.75" customHeight="1" spans="1:16">
       <c r="A864" s="4"/>
       <c r="B864" s="4"/>
       <c r="C864" s="4"/>
@@ -13412,7 +14028,7 @@
       <c r="O864" s="4"/>
       <c r="P864" s="4"/>
     </row>
-    <row r="865" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="865" ht="15.75" customHeight="1" spans="1:16">
       <c r="A865" s="4"/>
       <c r="B865" s="4"/>
       <c r="C865" s="4"/>
@@ -13427,7 +14043,7 @@
       <c r="O865" s="4"/>
       <c r="P865" s="4"/>
     </row>
-    <row r="866" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="866" ht="15.75" customHeight="1" spans="1:16">
       <c r="A866" s="4"/>
       <c r="B866" s="4"/>
       <c r="C866" s="4"/>
@@ -13442,7 +14058,7 @@
       <c r="O866" s="4"/>
       <c r="P866" s="4"/>
     </row>
-    <row r="867" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="867" ht="15.75" customHeight="1" spans="1:16">
       <c r="A867" s="4"/>
       <c r="B867" s="4"/>
       <c r="C867" s="4"/>
@@ -13457,7 +14073,7 @@
       <c r="O867" s="4"/>
       <c r="P867" s="4"/>
     </row>
-    <row r="868" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="868" ht="15.75" customHeight="1" spans="1:16">
       <c r="A868" s="4"/>
       <c r="B868" s="4"/>
       <c r="C868" s="4"/>
@@ -13472,7 +14088,7 @@
       <c r="O868" s="4"/>
       <c r="P868" s="4"/>
     </row>
-    <row r="869" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="869" ht="15.75" customHeight="1" spans="1:16">
       <c r="A869" s="4"/>
       <c r="B869" s="4"/>
       <c r="C869" s="4"/>
@@ -13487,7 +14103,7 @@
       <c r="O869" s="4"/>
       <c r="P869" s="4"/>
     </row>
-    <row r="870" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="870" ht="15.75" customHeight="1" spans="1:16">
       <c r="A870" s="4"/>
       <c r="B870" s="4"/>
       <c r="C870" s="4"/>
@@ -13502,7 +14118,7 @@
       <c r="O870" s="4"/>
       <c r="P870" s="4"/>
     </row>
-    <row r="871" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="871" ht="15.75" customHeight="1" spans="1:16">
       <c r="A871" s="4"/>
       <c r="B871" s="4"/>
       <c r="C871" s="4"/>
@@ -13517,7 +14133,7 @@
       <c r="O871" s="4"/>
       <c r="P871" s="4"/>
     </row>
-    <row r="872" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="872" ht="15.75" customHeight="1" spans="1:16">
       <c r="A872" s="4"/>
       <c r="B872" s="4"/>
       <c r="C872" s="4"/>
@@ -13532,7 +14148,7 @@
       <c r="O872" s="4"/>
       <c r="P872" s="4"/>
     </row>
-    <row r="873" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="873" ht="15.75" customHeight="1" spans="1:16">
       <c r="A873" s="4"/>
       <c r="B873" s="4"/>
       <c r="C873" s="4"/>
@@ -13547,7 +14163,7 @@
       <c r="O873" s="4"/>
       <c r="P873" s="4"/>
     </row>
-    <row r="874" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="874" ht="15.75" customHeight="1" spans="1:16">
       <c r="A874" s="4"/>
       <c r="B874" s="4"/>
       <c r="C874" s="4"/>
@@ -13562,7 +14178,7 @@
       <c r="O874" s="4"/>
       <c r="P874" s="4"/>
     </row>
-    <row r="875" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="875" ht="15.75" customHeight="1" spans="1:16">
       <c r="A875" s="4"/>
       <c r="B875" s="4"/>
       <c r="C875" s="4"/>
@@ -13577,7 +14193,7 @@
       <c r="O875" s="4"/>
       <c r="P875" s="4"/>
     </row>
-    <row r="876" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="876" ht="15.75" customHeight="1" spans="1:16">
       <c r="A876" s="4"/>
       <c r="B876" s="4"/>
       <c r="C876" s="4"/>
@@ -13592,7 +14208,7 @@
       <c r="O876" s="4"/>
       <c r="P876" s="4"/>
     </row>
-    <row r="877" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="877" ht="15.75" customHeight="1" spans="1:16">
       <c r="A877" s="4"/>
       <c r="B877" s="4"/>
       <c r="C877" s="4"/>
@@ -13607,7 +14223,7 @@
       <c r="O877" s="4"/>
       <c r="P877" s="4"/>
     </row>
-    <row r="878" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="878" ht="15.75" customHeight="1" spans="1:16">
       <c r="A878" s="4"/>
       <c r="B878" s="4"/>
       <c r="C878" s="4"/>
@@ -13622,7 +14238,7 @@
       <c r="O878" s="4"/>
       <c r="P878" s="4"/>
     </row>
-    <row r="879" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="879" ht="15.75" customHeight="1" spans="1:16">
       <c r="A879" s="4"/>
       <c r="B879" s="4"/>
       <c r="C879" s="4"/>
@@ -13637,7 +14253,7 @@
       <c r="O879" s="4"/>
       <c r="P879" s="4"/>
     </row>
-    <row r="880" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="880" ht="15.75" customHeight="1" spans="1:16">
       <c r="A880" s="4"/>
       <c r="B880" s="4"/>
       <c r="C880" s="4"/>
@@ -13652,7 +14268,7 @@
       <c r="O880" s="4"/>
       <c r="P880" s="4"/>
     </row>
-    <row r="881" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="881" ht="15.75" customHeight="1" spans="1:16">
       <c r="A881" s="4"/>
       <c r="B881" s="4"/>
       <c r="C881" s="4"/>
@@ -13667,7 +14283,7 @@
       <c r="O881" s="4"/>
       <c r="P881" s="4"/>
     </row>
-    <row r="882" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="882" ht="15.75" customHeight="1" spans="1:16">
       <c r="A882" s="4"/>
       <c r="B882" s="4"/>
       <c r="C882" s="4"/>
@@ -13682,7 +14298,7 @@
       <c r="O882" s="4"/>
       <c r="P882" s="4"/>
     </row>
-    <row r="883" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="883" ht="15.75" customHeight="1" spans="1:16">
       <c r="A883" s="4"/>
       <c r="B883" s="4"/>
       <c r="C883" s="4"/>
@@ -13697,7 +14313,7 @@
       <c r="O883" s="4"/>
       <c r="P883" s="4"/>
     </row>
-    <row r="884" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="884" ht="15.75" customHeight="1" spans="1:16">
       <c r="A884" s="4"/>
       <c r="B884" s="4"/>
       <c r="C884" s="4"/>
@@ -13712,7 +14328,7 @@
       <c r="O884" s="4"/>
       <c r="P884" s="4"/>
     </row>
-    <row r="885" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="885" ht="15.75" customHeight="1" spans="1:16">
       <c r="A885" s="4"/>
       <c r="B885" s="4"/>
       <c r="C885" s="4"/>
@@ -13727,7 +14343,7 @@
       <c r="O885" s="4"/>
       <c r="P885" s="4"/>
     </row>
-    <row r="886" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="886" ht="15.75" customHeight="1" spans="1:16">
       <c r="A886" s="4"/>
       <c r="B886" s="4"/>
       <c r="C886" s="4"/>
@@ -13742,7 +14358,7 @@
       <c r="O886" s="4"/>
       <c r="P886" s="4"/>
     </row>
-    <row r="887" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="887" ht="15.75" customHeight="1" spans="1:16">
       <c r="A887" s="4"/>
       <c r="B887" s="4"/>
       <c r="C887" s="4"/>
@@ -13757,7 +14373,7 @@
       <c r="O887" s="4"/>
       <c r="P887" s="4"/>
     </row>
-    <row r="888" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="888" ht="15.75" customHeight="1" spans="1:16">
       <c r="A888" s="4"/>
       <c r="B888" s="4"/>
       <c r="C888" s="4"/>
@@ -13772,7 +14388,7 @@
       <c r="O888" s="4"/>
       <c r="P888" s="4"/>
     </row>
-    <row r="889" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="889" ht="15.75" customHeight="1" spans="1:16">
       <c r="A889" s="4"/>
       <c r="B889" s="4"/>
       <c r="C889" s="4"/>
@@ -13787,7 +14403,7 @@
       <c r="O889" s="4"/>
       <c r="P889" s="4"/>
     </row>
-    <row r="890" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="890" ht="15.75" customHeight="1" spans="1:16">
       <c r="A890" s="4"/>
       <c r="B890" s="4"/>
       <c r="C890" s="4"/>
@@ -13802,7 +14418,7 @@
       <c r="O890" s="4"/>
       <c r="P890" s="4"/>
     </row>
-    <row r="891" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="891" ht="15.75" customHeight="1" spans="1:16">
       <c r="A891" s="4"/>
       <c r="B891" s="4"/>
       <c r="C891" s="4"/>
@@ -13817,7 +14433,7 @@
       <c r="O891" s="4"/>
       <c r="P891" s="4"/>
     </row>
-    <row r="892" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="892" ht="15.75" customHeight="1" spans="1:16">
       <c r="A892" s="4"/>
       <c r="B892" s="4"/>
       <c r="C892" s="4"/>
@@ -13832,7 +14448,7 @@
       <c r="O892" s="4"/>
       <c r="P892" s="4"/>
     </row>
-    <row r="893" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="893" ht="15.75" customHeight="1" spans="1:16">
       <c r="A893" s="4"/>
       <c r="B893" s="4"/>
       <c r="C893" s="4"/>
@@ -13847,7 +14463,7 @@
       <c r="O893" s="4"/>
       <c r="P893" s="4"/>
     </row>
-    <row r="894" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="894" ht="15.75" customHeight="1" spans="1:16">
       <c r="A894" s="4"/>
       <c r="B894" s="4"/>
       <c r="C894" s="4"/>
@@ -13862,7 +14478,7 @@
       <c r="O894" s="4"/>
       <c r="P894" s="4"/>
     </row>
-    <row r="895" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="895" ht="15.75" customHeight="1" spans="1:16">
       <c r="A895" s="4"/>
       <c r="B895" s="4"/>
       <c r="C895" s="4"/>
@@ -13877,7 +14493,7 @@
       <c r="O895" s="4"/>
       <c r="P895" s="4"/>
     </row>
-    <row r="896" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="896" ht="15.75" customHeight="1" spans="1:16">
       <c r="A896" s="4"/>
       <c r="B896" s="4"/>
       <c r="C896" s="4"/>
@@ -13892,7 +14508,7 @@
       <c r="O896" s="4"/>
       <c r="P896" s="4"/>
     </row>
-    <row r="897" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="897" ht="15.75" customHeight="1" spans="1:16">
       <c r="A897" s="4"/>
       <c r="B897" s="4"/>
       <c r="C897" s="4"/>
@@ -13907,7 +14523,7 @@
       <c r="O897" s="4"/>
       <c r="P897" s="4"/>
     </row>
-    <row r="898" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="898" ht="15.75" customHeight="1" spans="1:16">
       <c r="A898" s="4"/>
       <c r="B898" s="4"/>
       <c r="C898" s="4"/>
@@ -13922,7 +14538,7 @@
       <c r="O898" s="4"/>
       <c r="P898" s="4"/>
     </row>
-    <row r="899" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="899" ht="15.75" customHeight="1" spans="1:16">
       <c r="A899" s="4"/>
       <c r="B899" s="4"/>
       <c r="C899" s="4"/>
@@ -13937,7 +14553,7 @@
       <c r="O899" s="4"/>
       <c r="P899" s="4"/>
     </row>
-    <row r="900" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="900" ht="15.75" customHeight="1" spans="1:16">
       <c r="A900" s="4"/>
       <c r="B900" s="4"/>
       <c r="C900" s="4"/>
@@ -13952,7 +14568,7 @@
       <c r="O900" s="4"/>
       <c r="P900" s="4"/>
     </row>
-    <row r="901" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="901" ht="15.75" customHeight="1" spans="1:16">
       <c r="A901" s="4"/>
       <c r="B901" s="4"/>
       <c r="C901" s="4"/>
@@ -13967,7 +14583,7 @@
       <c r="O901" s="4"/>
       <c r="P901" s="4"/>
     </row>
-    <row r="902" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="902" ht="15.75" customHeight="1" spans="1:16">
       <c r="A902" s="4"/>
       <c r="B902" s="4"/>
       <c r="C902" s="4"/>
@@ -13982,7 +14598,7 @@
       <c r="O902" s="4"/>
       <c r="P902" s="4"/>
     </row>
-    <row r="903" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="903" ht="15.75" customHeight="1" spans="1:16">
       <c r="A903" s="4"/>
       <c r="B903" s="4"/>
       <c r="C903" s="4"/>
@@ -13997,7 +14613,7 @@
       <c r="O903" s="4"/>
       <c r="P903" s="4"/>
     </row>
-    <row r="904" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="904" ht="15.75" customHeight="1" spans="1:16">
       <c r="A904" s="4"/>
       <c r="B904" s="4"/>
       <c r="C904" s="4"/>
@@ -14012,7 +14628,7 @@
       <c r="O904" s="4"/>
       <c r="P904" s="4"/>
     </row>
-    <row r="905" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="905" ht="15.75" customHeight="1" spans="1:16">
       <c r="A905" s="4"/>
       <c r="B905" s="4"/>
       <c r="C905" s="4"/>
@@ -14027,7 +14643,7 @@
       <c r="O905" s="4"/>
       <c r="P905" s="4"/>
     </row>
-    <row r="906" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="906" ht="15.75" customHeight="1" spans="1:16">
       <c r="A906" s="4"/>
       <c r="B906" s="4"/>
       <c r="C906" s="4"/>
@@ -14042,7 +14658,7 @@
       <c r="O906" s="4"/>
       <c r="P906" s="4"/>
     </row>
-    <row r="907" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="907" ht="15.75" customHeight="1" spans="1:16">
       <c r="A907" s="4"/>
       <c r="B907" s="4"/>
       <c r="C907" s="4"/>
@@ -14057,7 +14673,7 @@
       <c r="O907" s="4"/>
       <c r="P907" s="4"/>
     </row>
-    <row r="908" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="908" ht="15.75" customHeight="1" spans="1:16">
       <c r="A908" s="4"/>
       <c r="B908" s="4"/>
       <c r="C908" s="4"/>
@@ -14072,7 +14688,7 @@
       <c r="O908" s="4"/>
       <c r="P908" s="4"/>
     </row>
-    <row r="909" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="909" ht="15.75" customHeight="1" spans="1:16">
       <c r="A909" s="4"/>
       <c r="B909" s="4"/>
       <c r="C909" s="4"/>
@@ -14087,7 +14703,7 @@
       <c r="O909" s="4"/>
       <c r="P909" s="4"/>
     </row>
-    <row r="910" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="910" ht="15.75" customHeight="1" spans="1:16">
       <c r="A910" s="4"/>
       <c r="B910" s="4"/>
       <c r="C910" s="4"/>
@@ -14102,7 +14718,7 @@
       <c r="O910" s="4"/>
       <c r="P910" s="4"/>
     </row>
-    <row r="911" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="911" ht="15.75" customHeight="1" spans="1:16">
       <c r="A911" s="4"/>
       <c r="B911" s="4"/>
       <c r="C911" s="4"/>
@@ -14117,7 +14733,7 @@
       <c r="O911" s="4"/>
       <c r="P911" s="4"/>
     </row>
-    <row r="912" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="912" ht="15.75" customHeight="1" spans="1:16">
       <c r="A912" s="4"/>
       <c r="B912" s="4"/>
       <c r="C912" s="4"/>
@@ -14132,7 +14748,7 @@
       <c r="O912" s="4"/>
       <c r="P912" s="4"/>
     </row>
-    <row r="913" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="913" ht="15.75" customHeight="1" spans="1:16">
       <c r="A913" s="4"/>
       <c r="B913" s="4"/>
       <c r="C913" s="4"/>
@@ -14147,7 +14763,7 @@
       <c r="O913" s="4"/>
       <c r="P913" s="4"/>
     </row>
-    <row r="914" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="914" ht="15.75" customHeight="1" spans="1:16">
       <c r="A914" s="4"/>
       <c r="B914" s="4"/>
       <c r="C914" s="4"/>
@@ -14162,7 +14778,7 @@
       <c r="O914" s="4"/>
       <c r="P914" s="4"/>
     </row>
-    <row r="915" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="915" ht="15.75" customHeight="1" spans="1:16">
       <c r="A915" s="4"/>
       <c r="B915" s="4"/>
       <c r="C915" s="4"/>
@@ -14177,7 +14793,7 @@
       <c r="O915" s="4"/>
       <c r="P915" s="4"/>
     </row>
-    <row r="916" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="916" ht="15.75" customHeight="1" spans="1:16">
       <c r="A916" s="4"/>
       <c r="B916" s="4"/>
       <c r="C916" s="4"/>
@@ -14192,7 +14808,7 @@
       <c r="O916" s="4"/>
       <c r="P916" s="4"/>
     </row>
-    <row r="917" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="917" ht="15.75" customHeight="1" spans="1:16">
       <c r="A917" s="4"/>
       <c r="B917" s="4"/>
       <c r="C917" s="4"/>
@@ -14207,7 +14823,7 @@
       <c r="O917" s="4"/>
       <c r="P917" s="4"/>
     </row>
-    <row r="918" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="918" ht="15.75" customHeight="1" spans="1:16">
       <c r="A918" s="4"/>
       <c r="B918" s="4"/>
       <c r="C918" s="4"/>
@@ -14222,7 +14838,7 @@
       <c r="O918" s="4"/>
       <c r="P918" s="4"/>
     </row>
-    <row r="919" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="919" ht="15.75" customHeight="1" spans="1:16">
       <c r="A919" s="4"/>
       <c r="B919" s="4"/>
       <c r="C919" s="4"/>
@@ -14237,7 +14853,7 @@
       <c r="O919" s="4"/>
       <c r="P919" s="4"/>
     </row>
-    <row r="920" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="920" ht="15.75" customHeight="1" spans="1:16">
       <c r="A920" s="4"/>
       <c r="B920" s="4"/>
       <c r="C920" s="4"/>
@@ -14252,7 +14868,7 @@
       <c r="O920" s="4"/>
       <c r="P920" s="4"/>
     </row>
-    <row r="921" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="921" ht="15.75" customHeight="1" spans="1:16">
       <c r="A921" s="4"/>
       <c r="B921" s="4"/>
       <c r="C921" s="4"/>
@@ -14267,7 +14883,7 @@
       <c r="O921" s="4"/>
       <c r="P921" s="4"/>
     </row>
-    <row r="922" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="922" ht="15.75" customHeight="1" spans="1:16">
       <c r="A922" s="4"/>
       <c r="B922" s="4"/>
       <c r="C922" s="4"/>
@@ -14282,7 +14898,7 @@
       <c r="O922" s="4"/>
       <c r="P922" s="4"/>
     </row>
-    <row r="923" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="923" ht="15.75" customHeight="1" spans="1:16">
       <c r="A923" s="4"/>
       <c r="B923" s="4"/>
       <c r="C923" s="4"/>
@@ -14297,7 +14913,7 @@
       <c r="O923" s="4"/>
       <c r="P923" s="4"/>
     </row>
-    <row r="924" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="924" ht="15.75" customHeight="1" spans="1:16">
       <c r="A924" s="4"/>
       <c r="B924" s="4"/>
       <c r="C924" s="4"/>
@@ -14312,7 +14928,7 @@
       <c r="O924" s="4"/>
       <c r="P924" s="4"/>
     </row>
-    <row r="925" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="925" ht="15.75" customHeight="1" spans="1:16">
       <c r="A925" s="4"/>
       <c r="B925" s="4"/>
       <c r="C925" s="4"/>
@@ -14327,7 +14943,7 @@
       <c r="O925" s="4"/>
       <c r="P925" s="4"/>
     </row>
-    <row r="926" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="926" ht="15.75" customHeight="1" spans="1:16">
       <c r="A926" s="4"/>
       <c r="B926" s="4"/>
       <c r="C926" s="4"/>
@@ -14342,7 +14958,7 @@
       <c r="O926" s="4"/>
       <c r="P926" s="4"/>
     </row>
-    <row r="927" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="927" ht="15.75" customHeight="1" spans="1:16">
       <c r="A927" s="4"/>
       <c r="B927" s="4"/>
       <c r="C927" s="4"/>
@@ -14357,7 +14973,7 @@
       <c r="O927" s="4"/>
       <c r="P927" s="4"/>
     </row>
-    <row r="928" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="928" ht="15.75" customHeight="1" spans="1:16">
       <c r="A928" s="4"/>
       <c r="B928" s="4"/>
       <c r="C928" s="4"/>
@@ -14372,7 +14988,7 @@
       <c r="O928" s="4"/>
       <c r="P928" s="4"/>
     </row>
-    <row r="929" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="929" ht="15.75" customHeight="1" spans="1:16">
       <c r="A929" s="4"/>
       <c r="B929" s="4"/>
       <c r="C929" s="4"/>
@@ -14387,7 +15003,7 @@
       <c r="O929" s="4"/>
       <c r="P929" s="4"/>
     </row>
-    <row r="930" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="930" ht="15.75" customHeight="1" spans="1:16">
       <c r="A930" s="4"/>
       <c r="B930" s="4"/>
       <c r="C930" s="4"/>
@@ -14402,7 +15018,7 @@
       <c r="O930" s="4"/>
       <c r="P930" s="4"/>
     </row>
-    <row r="931" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="931" ht="15.75" customHeight="1" spans="1:16">
       <c r="A931" s="4"/>
       <c r="B931" s="4"/>
       <c r="C931" s="4"/>
@@ -14417,7 +15033,7 @@
       <c r="O931" s="4"/>
       <c r="P931" s="4"/>
     </row>
-    <row r="932" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="932" ht="15.75" customHeight="1" spans="1:16">
       <c r="A932" s="4"/>
       <c r="B932" s="4"/>
       <c r="C932" s="4"/>
@@ -14432,7 +15048,7 @@
       <c r="O932" s="4"/>
       <c r="P932" s="4"/>
     </row>
-    <row r="933" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="933" ht="15.75" customHeight="1" spans="1:16">
       <c r="A933" s="4"/>
       <c r="B933" s="4"/>
       <c r="C933" s="4"/>
@@ -14447,7 +15063,7 @@
       <c r="O933" s="4"/>
       <c r="P933" s="4"/>
     </row>
-    <row r="934" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="934" ht="15.75" customHeight="1" spans="1:16">
       <c r="A934" s="4"/>
       <c r="B934" s="4"/>
       <c r="C934" s="4"/>
@@ -14462,7 +15078,7 @@
       <c r="O934" s="4"/>
       <c r="P934" s="4"/>
     </row>
-    <row r="935" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="935" ht="15.75" customHeight="1" spans="1:16">
       <c r="A935" s="4"/>
       <c r="B935" s="4"/>
       <c r="C935" s="4"/>
@@ -14477,7 +15093,7 @@
       <c r="O935" s="4"/>
       <c r="P935" s="4"/>
     </row>
-    <row r="936" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="936" ht="15.75" customHeight="1" spans="1:16">
       <c r="A936" s="4"/>
       <c r="B936" s="4"/>
       <c r="C936" s="4"/>
@@ -14492,7 +15108,7 @@
       <c r="O936" s="4"/>
       <c r="P936" s="4"/>
     </row>
-    <row r="937" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="937" ht="15.75" customHeight="1" spans="1:16">
       <c r="A937" s="4"/>
       <c r="B937" s="4"/>
       <c r="C937" s="4"/>
@@ -14507,7 +15123,7 @@
       <c r="O937" s="4"/>
       <c r="P937" s="4"/>
     </row>
-    <row r="938" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="938" ht="15.75" customHeight="1" spans="1:16">
       <c r="A938" s="4"/>
       <c r="B938" s="4"/>
       <c r="C938" s="4"/>
@@ -14522,7 +15138,7 @@
       <c r="O938" s="4"/>
       <c r="P938" s="4"/>
     </row>
-    <row r="939" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="939" ht="15.75" customHeight="1" spans="1:16">
       <c r="A939" s="4"/>
       <c r="B939" s="4"/>
       <c r="C939" s="4"/>
@@ -14537,7 +15153,7 @@
       <c r="O939" s="4"/>
       <c r="P939" s="4"/>
     </row>
-    <row r="940" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="940" ht="15.75" customHeight="1" spans="1:16">
       <c r="A940" s="4"/>
       <c r="B940" s="4"/>
       <c r="C940" s="4"/>
@@ -14552,7 +15168,7 @@
       <c r="O940" s="4"/>
       <c r="P940" s="4"/>
     </row>
-    <row r="941" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="941" ht="15.75" customHeight="1" spans="1:16">
       <c r="A941" s="4"/>
       <c r="B941" s="4"/>
       <c r="C941" s="4"/>
@@ -14567,7 +15183,7 @@
       <c r="O941" s="4"/>
       <c r="P941" s="4"/>
     </row>
-    <row r="942" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="942" ht="15.75" customHeight="1" spans="1:16">
       <c r="A942" s="4"/>
       <c r="B942" s="4"/>
       <c r="C942" s="4"/>
@@ -14582,7 +15198,7 @@
       <c r="O942" s="4"/>
       <c r="P942" s="4"/>
     </row>
-    <row r="943" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="943" ht="15.75" customHeight="1" spans="1:16">
       <c r="A943" s="4"/>
       <c r="B943" s="4"/>
       <c r="C943" s="4"/>
@@ -14597,7 +15213,7 @@
       <c r="O943" s="4"/>
       <c r="P943" s="4"/>
     </row>
-    <row r="944" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="944" ht="15.75" customHeight="1" spans="1:16">
       <c r="A944" s="4"/>
       <c r="B944" s="4"/>
       <c r="C944" s="4"/>
@@ -14612,7 +15228,7 @@
       <c r="O944" s="4"/>
       <c r="P944" s="4"/>
     </row>
-    <row r="945" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="945" ht="15.75" customHeight="1" spans="1:16">
       <c r="A945" s="4"/>
       <c r="B945" s="4"/>
       <c r="C945" s="4"/>
@@ -14627,7 +15243,7 @@
       <c r="O945" s="4"/>
       <c r="P945" s="4"/>
     </row>
-    <row r="946" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="946" ht="15.75" customHeight="1" spans="1:16">
       <c r="A946" s="4"/>
       <c r="B946" s="4"/>
       <c r="C946" s="4"/>
@@ -14642,7 +15258,7 @@
       <c r="O946" s="4"/>
       <c r="P946" s="4"/>
     </row>
-    <row r="947" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="947" ht="15.75" customHeight="1" spans="1:16">
       <c r="A947" s="4"/>
       <c r="B947" s="4"/>
       <c r="C947" s="4"/>
@@ -14657,7 +15273,7 @@
       <c r="O947" s="4"/>
       <c r="P947" s="4"/>
     </row>
-    <row r="948" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="948" ht="15.75" customHeight="1" spans="1:16">
       <c r="A948" s="4"/>
       <c r="B948" s="4"/>
       <c r="C948" s="4"/>
@@ -14672,7 +15288,7 @@
       <c r="O948" s="4"/>
       <c r="P948" s="4"/>
     </row>
-    <row r="949" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="949" ht="15.75" customHeight="1" spans="1:16">
       <c r="A949" s="4"/>
       <c r="B949" s="4"/>
       <c r="C949" s="4"/>
@@ -14687,7 +15303,7 @@
       <c r="O949" s="4"/>
       <c r="P949" s="4"/>
     </row>
-    <row r="950" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="950" ht="15.75" customHeight="1" spans="1:16">
       <c r="A950" s="4"/>
       <c r="B950" s="4"/>
       <c r="C950" s="4"/>
@@ -14702,7 +15318,7 @@
       <c r="O950" s="4"/>
       <c r="P950" s="4"/>
     </row>
-    <row r="951" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="951" ht="15.75" customHeight="1" spans="1:16">
       <c r="A951" s="4"/>
       <c r="B951" s="4"/>
       <c r="C951" s="4"/>
@@ -14717,7 +15333,7 @@
       <c r="O951" s="4"/>
       <c r="P951" s="4"/>
     </row>
-    <row r="952" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="952" ht="15.75" customHeight="1" spans="1:16">
       <c r="A952" s="4"/>
       <c r="B952" s="4"/>
       <c r="C952" s="4"/>
@@ -14732,7 +15348,7 @@
       <c r="O952" s="4"/>
       <c r="P952" s="4"/>
     </row>
-    <row r="953" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="953" ht="15.75" customHeight="1" spans="1:16">
       <c r="A953" s="4"/>
       <c r="B953" s="4"/>
       <c r="C953" s="4"/>
@@ -14747,7 +15363,7 @@
       <c r="O953" s="4"/>
       <c r="P953" s="4"/>
     </row>
-    <row r="954" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="954" ht="15.75" customHeight="1" spans="1:16">
       <c r="A954" s="4"/>
       <c r="B954" s="4"/>
       <c r="C954" s="4"/>
@@ -14762,7 +15378,7 @@
       <c r="O954" s="4"/>
       <c r="P954" s="4"/>
     </row>
-    <row r="955" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="955" ht="15.75" customHeight="1" spans="1:16">
       <c r="A955" s="4"/>
       <c r="B955" s="4"/>
       <c r="C955" s="4"/>
@@ -14777,7 +15393,7 @@
       <c r="O955" s="4"/>
       <c r="P955" s="4"/>
     </row>
-    <row r="956" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="956" ht="15.75" customHeight="1" spans="1:16">
       <c r="A956" s="4"/>
       <c r="B956" s="4"/>
       <c r="C956" s="4"/>
@@ -14792,7 +15408,7 @@
       <c r="O956" s="4"/>
       <c r="P956" s="4"/>
     </row>
-    <row r="957" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="957" ht="15.75" customHeight="1" spans="1:16">
       <c r="A957" s="4"/>
       <c r="B957" s="4"/>
       <c r="C957" s="4"/>
@@ -14807,7 +15423,7 @@
       <c r="O957" s="4"/>
       <c r="P957" s="4"/>
     </row>
-    <row r="958" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="958" ht="15.75" customHeight="1" spans="1:16">
       <c r="A958" s="4"/>
       <c r="B958" s="4"/>
       <c r="C958" s="4"/>
@@ -14822,7 +15438,7 @@
       <c r="O958" s="4"/>
       <c r="P958" s="4"/>
     </row>
-    <row r="959" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="959" ht="15.75" customHeight="1" spans="1:16">
       <c r="A959" s="4"/>
       <c r="B959" s="4"/>
       <c r="C959" s="4"/>
@@ -14837,7 +15453,7 @@
       <c r="O959" s="4"/>
       <c r="P959" s="4"/>
     </row>
-    <row r="960" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="960" ht="15.75" customHeight="1" spans="1:16">
       <c r="A960" s="4"/>
       <c r="B960" s="4"/>
       <c r="C960" s="4"/>
@@ -14852,7 +15468,7 @@
       <c r="O960" s="4"/>
       <c r="P960" s="4"/>
     </row>
-    <row r="961" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="961" ht="15.75" customHeight="1" spans="1:16">
       <c r="A961" s="4"/>
       <c r="B961" s="4"/>
       <c r="C961" s="4"/>
@@ -14867,7 +15483,7 @@
       <c r="O961" s="4"/>
       <c r="P961" s="4"/>
     </row>
-    <row r="962" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="962" ht="15.75" customHeight="1" spans="1:16">
       <c r="A962" s="4"/>
       <c r="B962" s="4"/>
       <c r="C962" s="4"/>
@@ -14882,7 +15498,7 @@
       <c r="O962" s="4"/>
       <c r="P962" s="4"/>
     </row>
-    <row r="963" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="963" ht="15.75" customHeight="1" spans="1:16">
       <c r="A963" s="4"/>
       <c r="B963" s="4"/>
       <c r="C963" s="4"/>
@@ -14897,7 +15513,7 @@
       <c r="O963" s="4"/>
       <c r="P963" s="4"/>
     </row>
-    <row r="964" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="964" ht="15.75" customHeight="1" spans="1:16">
       <c r="A964" s="4"/>
       <c r="B964" s="4"/>
       <c r="C964" s="4"/>
@@ -14912,7 +15528,7 @@
       <c r="O964" s="4"/>
       <c r="P964" s="4"/>
     </row>
-    <row r="965" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="965" ht="15.75" customHeight="1" spans="1:16">
       <c r="A965" s="4"/>
       <c r="B965" s="4"/>
       <c r="C965" s="4"/>
@@ -14927,7 +15543,7 @@
       <c r="O965" s="4"/>
       <c r="P965" s="4"/>
     </row>
-    <row r="966" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="966" ht="15.75" customHeight="1" spans="1:16">
       <c r="A966" s="4"/>
       <c r="B966" s="4"/>
       <c r="C966" s="4"/>
@@ -14942,7 +15558,7 @@
       <c r="O966" s="4"/>
       <c r="P966" s="4"/>
     </row>
-    <row r="967" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="967" ht="15.75" customHeight="1" spans="1:16">
       <c r="A967" s="4"/>
       <c r="B967" s="4"/>
       <c r="C967" s="4"/>
@@ -14957,7 +15573,7 @@
       <c r="O967" s="4"/>
       <c r="P967" s="4"/>
     </row>
-    <row r="968" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="968" ht="15.75" customHeight="1" spans="1:16">
       <c r="A968" s="4"/>
       <c r="B968" s="4"/>
       <c r="C968" s="4"/>
@@ -14972,7 +15588,7 @@
       <c r="O968" s="4"/>
       <c r="P968" s="4"/>
     </row>
-    <row r="969" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="969" ht="15.75" customHeight="1" spans="1:16">
       <c r="A969" s="4"/>
       <c r="B969" s="4"/>
       <c r="C969" s="4"/>
@@ -14987,7 +15603,7 @@
       <c r="O969" s="4"/>
       <c r="P969" s="4"/>
     </row>
-    <row r="970" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="970" ht="15.75" customHeight="1" spans="1:16">
       <c r="A970" s="4"/>
       <c r="B970" s="4"/>
       <c r="C970" s="4"/>
@@ -15002,7 +15618,7 @@
       <c r="O970" s="4"/>
       <c r="P970" s="4"/>
     </row>
-    <row r="971" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="971" ht="15.75" customHeight="1" spans="1:16">
       <c r="A971" s="4"/>
       <c r="B971" s="4"/>
       <c r="C971" s="4"/>
@@ -15017,7 +15633,7 @@
       <c r="O971" s="4"/>
       <c r="P971" s="4"/>
     </row>
-    <row r="972" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="972" ht="15.75" customHeight="1" spans="1:16">
       <c r="A972" s="4"/>
       <c r="B972" s="4"/>
       <c r="C972" s="4"/>
@@ -15032,7 +15648,7 @@
       <c r="O972" s="4"/>
       <c r="P972" s="4"/>
     </row>
-    <row r="973" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="973" ht="15.75" customHeight="1" spans="1:16">
       <c r="A973" s="4"/>
       <c r="B973" s="4"/>
       <c r="C973" s="4"/>
@@ -15047,7 +15663,7 @@
       <c r="O973" s="4"/>
       <c r="P973" s="4"/>
     </row>
-    <row r="974" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="974" ht="15.75" customHeight="1" spans="1:16">
       <c r="A974" s="4"/>
       <c r="B974" s="4"/>
       <c r="C974" s="4"/>
@@ -15062,7 +15678,7 @@
       <c r="O974" s="4"/>
       <c r="P974" s="4"/>
     </row>
-    <row r="975" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="975" ht="15.75" customHeight="1" spans="1:16">
       <c r="A975" s="4"/>
       <c r="B975" s="4"/>
       <c r="C975" s="4"/>
@@ -15077,7 +15693,7 @@
       <c r="O975" s="4"/>
       <c r="P975" s="4"/>
     </row>
-    <row r="976" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="976" ht="15.75" customHeight="1" spans="1:16">
       <c r="A976" s="4"/>
       <c r="B976" s="4"/>
       <c r="C976" s="4"/>
@@ -15092,7 +15708,7 @@
       <c r="O976" s="4"/>
       <c r="P976" s="4"/>
     </row>
-    <row r="977" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="977" ht="15.75" customHeight="1" spans="1:16">
       <c r="A977" s="4"/>
       <c r="B977" s="4"/>
       <c r="C977" s="4"/>
@@ -15107,7 +15723,7 @@
       <c r="O977" s="4"/>
       <c r="P977" s="4"/>
     </row>
-    <row r="978" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="978" ht="15.75" customHeight="1" spans="1:16">
       <c r="A978" s="4"/>
       <c r="B978" s="4"/>
       <c r="C978" s="4"/>
@@ -15122,7 +15738,7 @@
       <c r="O978" s="4"/>
       <c r="P978" s="4"/>
     </row>
-    <row r="979" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="979" ht="15.75" customHeight="1" spans="1:16">
       <c r="A979" s="4"/>
       <c r="B979" s="4"/>
       <c r="C979" s="4"/>
@@ -15137,7 +15753,7 @@
       <c r="O979" s="4"/>
       <c r="P979" s="4"/>
     </row>
-    <row r="980" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="980" ht="15.75" customHeight="1" spans="1:16">
       <c r="A980" s="4"/>
       <c r="B980" s="4"/>
       <c r="C980" s="4"/>
@@ -15152,7 +15768,7 @@
       <c r="O980" s="4"/>
       <c r="P980" s="4"/>
     </row>
-    <row r="981" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="981" ht="15.75" customHeight="1" spans="1:16">
       <c r="A981" s="4"/>
       <c r="B981" s="4"/>
       <c r="C981" s="4"/>
@@ -15167,7 +15783,7 @@
       <c r="O981" s="4"/>
       <c r="P981" s="4"/>
     </row>
-    <row r="982" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="982" ht="15.75" customHeight="1" spans="1:16">
       <c r="A982" s="4"/>
       <c r="B982" s="4"/>
       <c r="C982" s="4"/>
@@ -15182,7 +15798,7 @@
       <c r="O982" s="4"/>
       <c r="P982" s="4"/>
     </row>
-    <row r="983" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="983" ht="15.75" customHeight="1" spans="1:16">
       <c r="A983" s="4"/>
       <c r="B983" s="4"/>
       <c r="C983" s="4"/>
@@ -15197,7 +15813,7 @@
       <c r="O983" s="4"/>
       <c r="P983" s="4"/>
     </row>
-    <row r="984" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="984" ht="15.75" customHeight="1" spans="1:16">
       <c r="A984" s="4"/>
       <c r="B984" s="4"/>
       <c r="C984" s="4"/>
@@ -15212,7 +15828,7 @@
       <c r="O984" s="4"/>
       <c r="P984" s="4"/>
     </row>
-    <row r="985" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="985" ht="15.75" customHeight="1" spans="1:16">
       <c r="A985" s="4"/>
       <c r="B985" s="4"/>
       <c r="C985" s="4"/>
@@ -15227,7 +15843,7 @@
       <c r="O985" s="4"/>
       <c r="P985" s="4"/>
     </row>
-    <row r="986" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="986" ht="15.75" customHeight="1" spans="1:16">
       <c r="A986" s="4"/>
       <c r="B986" s="4"/>
       <c r="C986" s="4"/>
@@ -15242,7 +15858,7 @@
       <c r="O986" s="4"/>
       <c r="P986" s="4"/>
     </row>
-    <row r="987" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="987" ht="15.75" customHeight="1" spans="1:16">
       <c r="A987" s="4"/>
       <c r="B987" s="4"/>
       <c r="C987" s="4"/>
@@ -15257,7 +15873,7 @@
       <c r="O987" s="4"/>
       <c r="P987" s="4"/>
     </row>
-    <row r="988" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="988" ht="15.75" customHeight="1" spans="1:16">
       <c r="A988" s="4"/>
       <c r="B988" s="4"/>
       <c r="C988" s="4"/>
@@ -15272,7 +15888,7 @@
       <c r="O988" s="4"/>
       <c r="P988" s="4"/>
     </row>
-    <row r="989" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="989" ht="15.75" customHeight="1" spans="1:16">
       <c r="A989" s="4"/>
       <c r="B989" s="4"/>
       <c r="C989" s="4"/>
@@ -15287,7 +15903,7 @@
       <c r="O989" s="4"/>
       <c r="P989" s="4"/>
     </row>
-    <row r="990" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="990" ht="15.75" customHeight="1" spans="1:16">
       <c r="A990" s="4"/>
       <c r="B990" s="4"/>
       <c r="C990" s="4"/>
@@ -15302,7 +15918,7 @@
       <c r="O990" s="4"/>
       <c r="P990" s="4"/>
     </row>
-    <row r="991" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="991" ht="15.75" customHeight="1" spans="1:16">
       <c r="A991" s="4"/>
       <c r="B991" s="4"/>
       <c r="C991" s="4"/>
@@ -15317,7 +15933,7 @@
       <c r="O991" s="4"/>
       <c r="P991" s="4"/>
     </row>
-    <row r="992" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="992" ht="15.75" customHeight="1" spans="1:16">
       <c r="A992" s="4"/>
       <c r="B992" s="4"/>
       <c r="C992" s="4"/>
@@ -15332,7 +15948,7 @@
       <c r="O992" s="4"/>
       <c r="P992" s="4"/>
     </row>
-    <row r="993" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="993" ht="15.75" customHeight="1" spans="1:16">
       <c r="A993" s="4"/>
       <c r="B993" s="4"/>
       <c r="C993" s="4"/>
@@ -15347,7 +15963,7 @@
       <c r="O993" s="4"/>
       <c r="P993" s="4"/>
     </row>
-    <row r="994" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="994" ht="15.75" customHeight="1" spans="1:16">
       <c r="A994" s="4"/>
       <c r="B994" s="4"/>
       <c r="C994" s="4"/>
@@ -15362,7 +15978,7 @@
       <c r="O994" s="4"/>
       <c r="P994" s="4"/>
     </row>
-    <row r="995" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="995" ht="15.75" customHeight="1" spans="1:16">
       <c r="A995" s="4"/>
       <c r="B995" s="4"/>
       <c r="C995" s="4"/>
@@ -15377,7 +15993,7 @@
       <c r="O995" s="4"/>
       <c r="P995" s="4"/>
     </row>
-    <row r="996" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="996" ht="15.75" customHeight="1" spans="1:16">
       <c r="A996" s="4"/>
       <c r="B996" s="4"/>
       <c r="C996" s="4"/>
@@ -15392,7 +16008,7 @@
       <c r="O996" s="4"/>
       <c r="P996" s="4"/>
     </row>
-    <row r="997" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="997" ht="15.75" customHeight="1" spans="1:16">
       <c r="A997" s="4"/>
       <c r="B997" s="4"/>
       <c r="C997" s="4"/>
@@ -15407,7 +16023,7 @@
       <c r="O997" s="4"/>
       <c r="P997" s="4"/>
     </row>
-    <row r="998" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="998" ht="15.75" customHeight="1" spans="1:16">
       <c r="A998" s="4"/>
       <c r="B998" s="4"/>
       <c r="C998" s="4"/>
@@ -15422,7 +16038,7 @@
       <c r="O998" s="4"/>
       <c r="P998" s="4"/>
     </row>
-    <row r="999" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="999" ht="15.75" customHeight="1" spans="1:16">
       <c r="A999" s="4"/>
       <c r="B999" s="4"/>
       <c r="C999" s="4"/>
@@ -15437,7 +16053,7 @@
       <c r="O999" s="4"/>
       <c r="P999" s="4"/>
     </row>
-    <row r="1000" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1000" ht="15.75" customHeight="1" spans="1:16">
       <c r="A1000" s="4"/>
       <c r="B1000" s="4"/>
       <c r="C1000" s="4"/>
@@ -15454,6 +16070,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>